--- a/Bloque III/ProyectoPony/Resultados/Experiencia 5/data_processor_ex5.xlsx
+++ b/Bloque III/ProyectoPony/Resultados/Experiencia 5/data_processor_ex5.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1614" documentId="13_ncr:1_{7BF2AEEA-675E-4CE0-9215-137092C8576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E52DEC5-5AEC-448D-87D7-31D2066CBD14}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{702144B3-34DA-4E85-91BD-3E4E0DCE50FE}"/>
+    <workbookView xWindow="-19320" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{702144B3-34DA-4E85-91BD-3E4E0DCE50FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe Previo" sheetId="1" r:id="rId1"/>
@@ -3063,7 +3063,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3520,6 +3520,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3527,66 +3545,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3618,6 +3576,273 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3651,235 +3876,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -24379,6 +24375,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87B7BE22-7C31-4220-8375-DC6CE1EECA7D}" name="Tabla1" displayName="Tabla1" ref="B224:J225" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B224:J225" xr:uid="{87B7BE22-7C31-4220-8375-DC6CE1EECA7D}"/>
@@ -25291,19 +25291,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="207"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="31"/>
       <c r="E5" s="11"/>
       <c r="F5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="206" t="s">
+      <c r="G5" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="207"/>
+      <c r="H5" s="213"/>
     </row>
     <row r="6" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -30899,7 +30899,7 @@
       <c r="A3">
         <v>70</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="214" t="s">
         <v>555</v>
       </c>
       <c r="C3" s="142" t="s">
@@ -30912,7 +30912,7 @@
       <c r="F3" s="165"/>
     </row>
     <row r="4" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="208"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="142" t="s">
         <v>557</v>
       </c>
@@ -30925,7 +30925,7 @@
       <c r="A5">
         <v>71</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="214" t="s">
         <v>558</v>
       </c>
       <c r="C5" s="142" t="s">
@@ -30938,7 +30938,7 @@
       <c r="F5" s="165"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="208"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="142" t="s">
         <v>560</v>
       </c>
@@ -30952,7 +30952,7 @@
       <c r="A7">
         <v>72</v>
       </c>
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="214" t="s">
         <v>561</v>
       </c>
       <c r="C7" s="142" t="s">
@@ -30965,7 +30965,7 @@
       <c r="F7" s="165"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="208"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="142" t="s">
         <v>563</v>
       </c>
@@ -30979,7 +30979,7 @@
       <c r="A9">
         <v>73</v>
       </c>
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="214" t="s">
         <v>564</v>
       </c>
       <c r="C9" s="142" t="s">
@@ -30992,7 +30992,7 @@
       <c r="F9" s="165"/>
     </row>
     <row r="10" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="208"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="142" t="s">
         <v>565</v>
       </c>
@@ -31006,7 +31006,7 @@
       <c r="A11">
         <v>74</v>
       </c>
-      <c r="B11" s="208" t="s">
+      <c r="B11" s="214" t="s">
         <v>566</v>
       </c>
       <c r="C11" s="142" t="s">
@@ -31019,7 +31019,7 @@
       <c r="F11" s="165"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="208"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="142" t="s">
         <v>567</v>
       </c>
@@ -31033,7 +31033,7 @@
       <c r="A13">
         <v>75</v>
       </c>
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="214" t="s">
         <v>568</v>
       </c>
       <c r="C13" s="142" t="s">
@@ -31046,7 +31046,7 @@
       <c r="F13" s="165"/>
     </row>
     <row r="14" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="208"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="142" t="s">
         <v>570</v>
       </c>
@@ -31060,7 +31060,7 @@
       <c r="A15">
         <v>76</v>
       </c>
-      <c r="B15" s="208" t="s">
+      <c r="B15" s="214" t="s">
         <v>571</v>
       </c>
       <c r="C15" s="142" t="s">
@@ -31072,7 +31072,7 @@
       <c r="F15" s="165"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="208"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="142" t="s">
         <v>573</v>
       </c>
@@ -31085,7 +31085,7 @@
       <c r="A17">
         <v>77</v>
       </c>
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="214" t="s">
         <v>574</v>
       </c>
       <c r="C17" s="142" t="s">
@@ -31097,7 +31097,7 @@
       <c r="F17" s="165"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="B18" s="208"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="142" t="s">
         <v>576</v>
       </c>
@@ -31110,7 +31110,7 @@
       <c r="A19">
         <v>78</v>
       </c>
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="214" t="s">
         <v>577</v>
       </c>
       <c r="C19" s="142" t="s">
@@ -31122,7 +31122,7 @@
       <c r="F19" s="165"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="B20" s="208"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="142" t="s">
         <v>579</v>
       </c>
@@ -31135,7 +31135,7 @@
       <c r="A21">
         <v>79</v>
       </c>
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="214" t="s">
         <v>580</v>
       </c>
       <c r="C21" s="142" t="s">
@@ -31147,7 +31147,7 @@
       <c r="F21" s="165"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="B22" s="208"/>
+      <c r="B22" s="214"/>
       <c r="C22" s="142" t="s">
         <v>582</v>
       </c>
@@ -31160,7 +31160,7 @@
       <c r="A23">
         <v>80</v>
       </c>
-      <c r="B23" s="208" t="s">
+      <c r="B23" s="214" t="s">
         <v>583</v>
       </c>
       <c r="C23" s="142" t="s">
@@ -31172,7 +31172,7 @@
       <c r="F23" s="165"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="208"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="142" t="s">
         <v>585</v>
       </c>
@@ -31185,7 +31185,7 @@
       <c r="A25">
         <v>81</v>
       </c>
-      <c r="B25" s="208" t="s">
+      <c r="B25" s="214" t="s">
         <v>586</v>
       </c>
       <c r="C25" s="142" t="s">
@@ -31197,7 +31197,7 @@
       <c r="F25" s="165"/>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="B26" s="208"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="142" t="s">
         <v>588</v>
       </c>
@@ -31210,7 +31210,7 @@
       <c r="A27">
         <v>82</v>
       </c>
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="214" t="s">
         <v>589</v>
       </c>
       <c r="C27" s="142" t="s">
@@ -31222,7 +31222,7 @@
       <c r="F27" s="165"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="B28" s="208"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="142" t="s">
         <v>591</v>
       </c>
@@ -31235,7 +31235,7 @@
       <c r="A29">
         <v>83</v>
       </c>
-      <c r="B29" s="208" t="s">
+      <c r="B29" s="214" t="s">
         <v>592</v>
       </c>
       <c r="C29" s="142" t="s">
@@ -31247,7 +31247,7 @@
       <c r="F29" s="165"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="B30" s="208"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="142" t="s">
         <v>593</v>
       </c>
@@ -31260,7 +31260,7 @@
       <c r="A31">
         <v>84</v>
       </c>
-      <c r="B31" s="208" t="s">
+      <c r="B31" s="214" t="s">
         <v>594</v>
       </c>
       <c r="C31" s="142" t="s">
@@ -31272,7 +31272,7 @@
       <c r="F31" s="165"/>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="208"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="142" t="s">
         <v>563</v>
       </c>
@@ -31344,11 +31344,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -31359,6 +31354,11 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34466,14 +34466,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3" s="24" t="s">
@@ -34481,10 +34481,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="214" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -34505,8 +34505,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="228"/>
-      <c r="C5" s="208"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="214"/>
       <c r="D5" s="17" t="s">
         <v>48</v>
       </c>
@@ -34535,8 +34535,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="228"/>
-      <c r="C6" s="208"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="214"/>
       <c r="D6" s="17" t="s">
         <v>55</v>
       </c>
@@ -34561,8 +34561,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="228"/>
-      <c r="C7" s="208" t="s">
+      <c r="B7" s="229"/>
+      <c r="C7" s="214" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -34577,8 +34577,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="228"/>
-      <c r="C8" s="208"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="214"/>
       <c r="D8" s="17" t="s">
         <v>48</v>
       </c>
@@ -34591,8 +34591,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="228"/>
-      <c r="C9" s="208"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="214"/>
       <c r="D9" s="17" t="s">
         <v>55</v>
       </c>
@@ -34602,10 +34602,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="214" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -34617,8 +34617,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="228"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="214"/>
       <c r="D12" s="17" t="s">
         <v>48</v>
       </c>
@@ -34628,8 +34628,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="228"/>
-      <c r="C13" s="208"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="214"/>
       <c r="D13" s="17" t="s">
         <v>55</v>
       </c>
@@ -34639,8 +34639,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="228"/>
-      <c r="C14" s="208" t="s">
+      <c r="B14" s="229"/>
+      <c r="C14" s="214" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -34652,8 +34652,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="228"/>
-      <c r="C15" s="208"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="214"/>
       <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
@@ -34663,8 +34663,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="228"/>
-      <c r="C16" s="208"/>
+      <c r="B16" s="229"/>
+      <c r="C16" s="214"/>
       <c r="D16" s="17" t="s">
         <v>55</v>
       </c>
@@ -34911,16 +34911,16 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
-      <c r="H44" s="216" t="e">
+      <c r="H44" s="230" t="e">
         <f>"t "&amp;IF(H35&gt;I41,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I35&gt;J41,LOWER(I29),LOWER(I28))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="217"/>
-      <c r="J44" s="217"/>
-      <c r="K44" s="217"/>
-      <c r="L44" s="217"/>
-      <c r="M44" s="217"/>
-      <c r="N44" s="218"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="231"/>
+      <c r="M44" s="231"/>
+      <c r="N44" s="232"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35080,27 +35080,27 @@
     </row>
     <row r="63" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="22"/>
-      <c r="H63" s="210" t="str">
+      <c r="H63" s="233" t="str">
         <f>"t "&amp;IF(I54&gt;J60,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I54&gt;J60,LOWER(I49),LOWER(I48))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="211"/>
-      <c r="L63" s="211"/>
-      <c r="M63" s="211"/>
-      <c r="N63" s="212"/>
+      <c r="I63" s="234"/>
+      <c r="J63" s="234"/>
+      <c r="K63" s="234"/>
+      <c r="L63" s="234"/>
+      <c r="M63" s="234"/>
+      <c r="N63" s="235"/>
       <c r="O63" s="23"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
-      <c r="H64" s="213"/>
-      <c r="I64" s="214"/>
-      <c r="J64" s="214"/>
-      <c r="K64" s="214"/>
-      <c r="L64" s="214"/>
-      <c r="M64" s="214"/>
-      <c r="N64" s="215"/>
+      <c r="H64" s="236"/>
+      <c r="I64" s="237"/>
+      <c r="J64" s="237"/>
+      <c r="K64" s="237"/>
+      <c r="L64" s="237"/>
+      <c r="M64" s="237"/>
+      <c r="N64" s="238"/>
       <c r="O64" s="23"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35276,16 +35276,16 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="22"/>
-      <c r="H84" s="216" t="e">
+      <c r="H84" s="230" t="e">
         <f>"t "&amp;IF(H75&gt;I81,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I75&gt;J81,LOWER(I69),LOWER(I68))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="217"/>
-      <c r="J84" s="217"/>
-      <c r="K84" s="217"/>
-      <c r="L84" s="217"/>
-      <c r="M84" s="217"/>
-      <c r="N84" s="218"/>
+      <c r="I84" s="231"/>
+      <c r="J84" s="231"/>
+      <c r="K84" s="231"/>
+      <c r="L84" s="231"/>
+      <c r="M84" s="231"/>
+      <c r="N84" s="232"/>
       <c r="O84" s="23"/>
     </row>
     <row r="85" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35445,27 +35445,27 @@
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22"/>
-      <c r="H103" s="210" t="str">
+      <c r="H103" s="233" t="str">
         <f>"t "&amp;IF(I94&gt;J100,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I94&gt;J100,LOWER(I89),LOWER(I88))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I103" s="211"/>
-      <c r="J103" s="211"/>
-      <c r="K103" s="211"/>
-      <c r="L103" s="211"/>
-      <c r="M103" s="211"/>
-      <c r="N103" s="212"/>
+      <c r="I103" s="234"/>
+      <c r="J103" s="234"/>
+      <c r="K103" s="234"/>
+      <c r="L103" s="234"/>
+      <c r="M103" s="234"/>
+      <c r="N103" s="235"/>
       <c r="O103" s="23"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B104" s="22"/>
-      <c r="H104" s="213"/>
-      <c r="I104" s="214"/>
-      <c r="J104" s="214"/>
-      <c r="K104" s="214"/>
-      <c r="L104" s="214"/>
-      <c r="M104" s="214"/>
-      <c r="N104" s="215"/>
+      <c r="H104" s="236"/>
+      <c r="I104" s="237"/>
+      <c r="J104" s="237"/>
+      <c r="K104" s="237"/>
+      <c r="L104" s="237"/>
+      <c r="M104" s="237"/>
+      <c r="N104" s="238"/>
       <c r="O104" s="23"/>
     </row>
     <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35485,14 +35485,14 @@
       <c r="O105" s="28"/>
     </row>
     <row r="107" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A107" s="227" t="s">
+      <c r="A107" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="227"/>
-      <c r="C107" s="227"/>
-      <c r="D107" s="227"/>
-      <c r="E107" s="227"/>
-      <c r="F107" s="227"/>
+      <c r="B107" s="228"/>
+      <c r="C107" s="228"/>
+      <c r="D107" s="228"/>
+      <c r="E107" s="228"/>
+      <c r="F107" s="228"/>
     </row>
     <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="35" t="s">
@@ -36588,14 +36588,14 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="227" t="s">
+      <c r="A156" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="B156" s="227"/>
-      <c r="C156" s="227"/>
-      <c r="D156" s="227"/>
-      <c r="E156" s="227"/>
-      <c r="F156" s="227"/>
+      <c r="B156" s="228"/>
+      <c r="C156" s="228"/>
+      <c r="D156" s="228"/>
+      <c r="E156" s="228"/>
+      <c r="F156" s="228"/>
     </row>
     <row r="158" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="34" t="s">
@@ -36943,13 +36943,13 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B176" s="226" t="s">
+      <c r="B176" s="239" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="226"/>
-      <c r="D176" s="226"/>
-      <c r="E176" s="226"/>
-      <c r="F176" s="226"/>
+      <c r="C176" s="239"/>
+      <c r="D176" s="239"/>
+      <c r="E176" s="239"/>
+      <c r="F176" s="239"/>
     </row>
     <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="34" t="s">
@@ -36984,13 +36984,13 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="209" t="s">
+      <c r="A179" s="242" t="s">
         <v>522</v>
       </c>
-      <c r="B179" s="219" t="s">
+      <c r="B179" s="226" t="s">
         <v>250</v>
       </c>
-      <c r="C179" s="221">
+      <c r="C179" s="225">
         <f>IF($C$184="N/A",M230/(1-M231),M230)</f>
         <v>0.25</v>
       </c>
@@ -37013,7 +37013,7 @@
         <f>G179*E179</f>
         <v>0.3125</v>
       </c>
-      <c r="I179" s="224" cm="1">
+      <c r="I179" s="241" cm="1">
         <f t="array" ref="I179">IF(E183="N/A",SUM(E179:E182*F179:F182),SUM(E179:E183*F179:F183))</f>
         <v>5</v>
       </c>
@@ -37027,9 +37027,9 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="209"/>
-      <c r="B180" s="219"/>
-      <c r="C180" s="222"/>
+      <c r="A180" s="242"/>
+      <c r="B180" s="226"/>
+      <c r="C180" s="240"/>
       <c r="D180" s="1" t="s">
         <v>136</v>
       </c>
@@ -37049,7 +37049,7 @@
         <f t="shared" ref="H180:H215" si="3">G180*E180</f>
         <v>0.3125</v>
       </c>
-      <c r="I180" s="224"/>
+      <c r="I180" s="241"/>
       <c r="K180" s="51" t="str">
         <f>B184</f>
         <v>Resultados académicos</v>
@@ -37060,9 +37060,9 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="209"/>
-      <c r="B181" s="219"/>
-      <c r="C181" s="222"/>
+      <c r="A181" s="242"/>
+      <c r="B181" s="226"/>
+      <c r="C181" s="240"/>
       <c r="D181" s="1" t="s">
         <v>137</v>
       </c>
@@ -37082,7 +37082,7 @@
         <f t="shared" si="3"/>
         <v>0.3125</v>
       </c>
-      <c r="I181" s="224"/>
+      <c r="I181" s="241"/>
       <c r="K181" s="51" t="str">
         <f>B186</f>
         <v>Resultados motivacionales</v>
@@ -37093,9 +37093,9 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="209"/>
-      <c r="B182" s="219"/>
-      <c r="C182" s="222"/>
+      <c r="A182" s="242"/>
+      <c r="B182" s="226"/>
+      <c r="C182" s="240"/>
       <c r="D182" s="1" t="s">
         <v>138</v>
       </c>
@@ -37115,7 +37115,7 @@
         <f t="shared" si="3"/>
         <v>0.3125</v>
       </c>
-      <c r="I182" s="224"/>
+      <c r="I182" s="241"/>
       <c r="K182" s="51" t="s">
         <v>368</v>
       </c>
@@ -37125,9 +37125,9 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="209"/>
-      <c r="B183" s="219"/>
-      <c r="C183" s="222"/>
+      <c r="A183" s="242"/>
+      <c r="B183" s="226"/>
+      <c r="C183" s="240"/>
       <c r="D183" s="1" t="s">
         <v>251</v>
       </c>
@@ -37147,7 +37147,7 @@
         <f>IF(E183="N/A","N/A",G183*E183)</f>
         <v>N/A</v>
       </c>
-      <c r="I183" s="224"/>
+      <c r="I183" s="241"/>
       <c r="K183" s="51" t="str">
         <f>B209</f>
         <v>Diseño del contenido</v>
@@ -37158,11 +37158,11 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="209"/>
-      <c r="B184" s="219" t="s">
+      <c r="A184" s="242"/>
+      <c r="B184" s="226" t="s">
         <v>252</v>
       </c>
-      <c r="C184" s="221">
+      <c r="C184" s="225">
         <f>IF(E184="N/A","N/A",M231)</f>
         <v>0.25</v>
       </c>
@@ -37185,7 +37185,7 @@
         <f>IF(G184="N/A","N/A",G184*E184)</f>
         <v>0.13990438695163099</v>
       </c>
-      <c r="I184" s="224" cm="1">
+      <c r="I184" s="241" cm="1">
         <f t="array" ref="I184">IF(H184="N/A","N/A",SUM(E184:E185*F184:F185))</f>
         <v>0.55961754780652395</v>
       </c>
@@ -37199,9 +37199,9 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="209"/>
-      <c r="B185" s="219"/>
-      <c r="C185" s="222"/>
+      <c r="A185" s="242"/>
+      <c r="B185" s="226"/>
+      <c r="C185" s="240"/>
       <c r="D185" s="1" t="s">
         <v>95</v>
       </c>
@@ -37221,7 +37221,7 @@
         <f>IF(G185="N/A","N/A",G185*E185)</f>
         <v>0</v>
       </c>
-      <c r="I185" s="224"/>
+      <c r="I185" s="241"/>
       <c r="K185" s="51" t="str">
         <f>B202</f>
         <v>Diseño técnico</v>
@@ -37232,11 +37232,11 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="209"/>
-      <c r="B186" s="219" t="s">
+      <c r="A186" s="242"/>
+      <c r="B186" s="226" t="s">
         <v>253</v>
       </c>
-      <c r="C186" s="221">
+      <c r="C186" s="225">
         <f>IF($C$184="N/A",M232/(1-M231),M232)</f>
         <v>0.25</v>
       </c>
@@ -37259,15 +37259,15 @@
         <f t="shared" si="3"/>
         <v>0.12941919191919193</v>
       </c>
-      <c r="I186" s="224" cm="1">
+      <c r="I186" s="241" cm="1">
         <f t="array" ref="I186">SUM(E186:E194*F186:F194)</f>
         <v>4.5972222222222223</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="209"/>
-      <c r="B187" s="219"/>
-      <c r="C187" s="222"/>
+      <c r="A187" s="242"/>
+      <c r="B187" s="226"/>
+      <c r="C187" s="240"/>
       <c r="D187" s="1" t="s">
         <v>107</v>
       </c>
@@ -37287,13 +37287,13 @@
         <f t="shared" si="3"/>
         <v>0.13573232323232326</v>
       </c>
-      <c r="I187" s="224"/>
+      <c r="I187" s="241"/>
       <c r="K187" s="11"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="209"/>
-      <c r="B188" s="219"/>
-      <c r="C188" s="222"/>
+      <c r="A188" s="242"/>
+      <c r="B188" s="226"/>
+      <c r="C188" s="240"/>
       <c r="D188" s="1" t="s">
         <v>108</v>
       </c>
@@ -37313,13 +37313,13 @@
         <f t="shared" si="3"/>
         <v>0.13415404040404041</v>
       </c>
-      <c r="I188" s="224"/>
+      <c r="I188" s="241"/>
       <c r="K188" s="11"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="209"/>
-      <c r="B189" s="219"/>
-      <c r="C189" s="222"/>
+      <c r="A189" s="242"/>
+      <c r="B189" s="226"/>
+      <c r="C189" s="240"/>
       <c r="D189" s="1" t="s">
         <v>109</v>
       </c>
@@ -37339,13 +37339,13 @@
         <f t="shared" si="3"/>
         <v>0.13731060606060608</v>
       </c>
-      <c r="I189" s="224"/>
+      <c r="I189" s="241"/>
       <c r="K189" s="11"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="209"/>
-      <c r="B190" s="219"/>
-      <c r="C190" s="222"/>
+      <c r="A190" s="242"/>
+      <c r="B190" s="226"/>
+      <c r="C190" s="240"/>
       <c r="D190" s="1" t="s">
         <v>110</v>
       </c>
@@ -37365,13 +37365,13 @@
         <f t="shared" si="3"/>
         <v>0.12941919191919193</v>
       </c>
-      <c r="I190" s="224"/>
+      <c r="I190" s="241"/>
       <c r="K190" s="11"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="209"/>
-      <c r="B191" s="219"/>
-      <c r="C191" s="222"/>
+      <c r="A191" s="242"/>
+      <c r="B191" s="226"/>
+      <c r="C191" s="240"/>
       <c r="D191" s="1" t="s">
         <v>111</v>
       </c>
@@ -37391,13 +37391,13 @@
         <f t="shared" si="3"/>
         <v>0.12310606060606064</v>
       </c>
-      <c r="I191" s="224"/>
+      <c r="I191" s="241"/>
       <c r="K191" s="11"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="209"/>
-      <c r="B192" s="219"/>
-      <c r="C192" s="222"/>
+      <c r="A192" s="242"/>
+      <c r="B192" s="226"/>
+      <c r="C192" s="240"/>
       <c r="D192" s="1" t="s">
         <v>112</v>
       </c>
@@ -37417,13 +37417,13 @@
         <f t="shared" si="3"/>
         <v>0.12941919191919193</v>
       </c>
-      <c r="I192" s="224"/>
+      <c r="I192" s="241"/>
       <c r="K192" s="11"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="209"/>
-      <c r="B193" s="219"/>
-      <c r="C193" s="222"/>
+      <c r="A193" s="242"/>
+      <c r="B193" s="226"/>
+      <c r="C193" s="240"/>
       <c r="D193" s="1" t="s">
         <v>113</v>
       </c>
@@ -37443,13 +37443,13 @@
         <f t="shared" si="3"/>
         <v>0.12310606060606061</v>
       </c>
-      <c r="I193" s="224"/>
+      <c r="I193" s="241"/>
       <c r="K193" s="11"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="209"/>
-      <c r="B194" s="219"/>
-      <c r="C194" s="222"/>
+      <c r="A194" s="242"/>
+      <c r="B194" s="226"/>
+      <c r="C194" s="240"/>
       <c r="D194" s="1" t="s">
         <v>114</v>
       </c>
@@ -37469,15 +37469,15 @@
         <f t="shared" si="3"/>
         <v>0.10763888888888888</v>
       </c>
-      <c r="I194" s="224"/>
+      <c r="I194" s="241"/>
       <c r="K194" s="11"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="209"/>
-      <c r="B195" s="230" t="s">
+      <c r="A195" s="242"/>
+      <c r="B195" s="216" t="s">
         <v>368</v>
       </c>
-      <c r="C195" s="232">
+      <c r="C195" s="218">
         <f>IF($C$184="N/A",M233/(1-M231),M233)</f>
         <v>0.25</v>
       </c>
@@ -37500,16 +37500,16 @@
         <f>G195*E195</f>
         <v>0.25</v>
       </c>
-      <c r="I195" s="234" cm="1">
+      <c r="I195" s="220" cm="1">
         <f t="array" ref="I195">SUM(E195:E199*F195:F199)</f>
         <v>4.9454545454545453</v>
       </c>
       <c r="K195" s="11"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="209"/>
-      <c r="B196" s="231"/>
-      <c r="C196" s="233"/>
+      <c r="A196" s="242"/>
+      <c r="B196" s="217"/>
+      <c r="C196" s="219"/>
       <c r="D196" s="1" t="s">
         <v>374</v>
       </c>
@@ -37529,13 +37529,13 @@
         <f>G196*E196</f>
         <v>0.23636363636363639</v>
       </c>
-      <c r="I196" s="235"/>
+      <c r="I196" s="221"/>
       <c r="K196" s="11"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="209"/>
-      <c r="B197" s="231"/>
-      <c r="C197" s="233"/>
+      <c r="A197" s="242"/>
+      <c r="B197" s="217"/>
+      <c r="C197" s="219"/>
       <c r="D197" s="1" t="s">
         <v>369</v>
       </c>
@@ -37555,13 +37555,13 @@
         <f t="shared" ref="H197:H199" si="7">G197*E197</f>
         <v>0.25</v>
       </c>
-      <c r="I197" s="235"/>
+      <c r="I197" s="221"/>
       <c r="K197" s="11"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="209"/>
-      <c r="B198" s="231"/>
-      <c r="C198" s="233"/>
+      <c r="A198" s="242"/>
+      <c r="B198" s="217"/>
+      <c r="C198" s="219"/>
       <c r="D198" s="1" t="s">
         <v>370</v>
       </c>
@@ -37581,13 +37581,13 @@
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I198" s="235"/>
+      <c r="I198" s="221"/>
       <c r="K198" s="11"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="209"/>
-      <c r="B199" s="231"/>
-      <c r="C199" s="233"/>
+      <c r="A199" s="242"/>
+      <c r="B199" s="217"/>
+      <c r="C199" s="219"/>
       <c r="D199" s="143" t="s">
         <v>371</v>
       </c>
@@ -37607,7 +37607,7 @@
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="I199" s="235"/>
+      <c r="I199" s="221"/>
       <c r="K199" s="11"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -37640,13 +37640,13 @@
       <c r="K201" s="11"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="209" t="s">
+      <c r="A202" s="242" t="s">
         <v>523</v>
       </c>
-      <c r="B202" s="220" t="s">
+      <c r="B202" s="243" t="s">
         <v>254</v>
       </c>
-      <c r="C202" s="223">
+      <c r="C202" s="244">
         <f>K244</f>
         <v>0.33333333333333331</v>
       </c>
@@ -37669,16 +37669,16 @@
         <f t="shared" si="3"/>
         <v>0.19751082251082253</v>
       </c>
-      <c r="I202" s="225" cm="1">
+      <c r="I202" s="227" cm="1">
         <f t="array" ref="I202">SUM(E202:E208*F202:F208)</f>
         <v>4.3587662337662332</v>
       </c>
       <c r="K202" s="11"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="209"/>
-      <c r="B203" s="219"/>
-      <c r="C203" s="222"/>
+      <c r="A203" s="242"/>
+      <c r="B203" s="226"/>
+      <c r="C203" s="240"/>
       <c r="D203" s="1" t="s">
         <v>103</v>
       </c>
@@ -37698,13 +37698,13 @@
         <f t="shared" si="3"/>
         <v>0.22186147186147184</v>
       </c>
-      <c r="I203" s="224"/>
+      <c r="I203" s="241"/>
       <c r="K203" s="11"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="209"/>
-      <c r="B204" s="219"/>
-      <c r="C204" s="222"/>
+      <c r="A204" s="242"/>
+      <c r="B204" s="226"/>
+      <c r="C204" s="240"/>
       <c r="D204" s="1" t="s">
         <v>104</v>
       </c>
@@ -37724,13 +37724,13 @@
         <f t="shared" si="3"/>
         <v>0.20021645021645018</v>
       </c>
-      <c r="I204" s="224"/>
+      <c r="I204" s="241"/>
       <c r="K204" s="11"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="209"/>
-      <c r="B205" s="219"/>
-      <c r="C205" s="222"/>
+      <c r="A205" s="242"/>
+      <c r="B205" s="226"/>
+      <c r="C205" s="240"/>
       <c r="D205" s="1" t="s">
         <v>139</v>
       </c>
@@ -37750,13 +37750,13 @@
         <f t="shared" si="3"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="I205" s="224"/>
+      <c r="I205" s="241"/>
       <c r="K205" s="11"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="209"/>
-      <c r="B206" s="219"/>
-      <c r="C206" s="222"/>
+      <c r="A206" s="242"/>
+      <c r="B206" s="226"/>
+      <c r="C206" s="240"/>
       <c r="D206" s="1" t="s">
         <v>141</v>
       </c>
@@ -37776,13 +37776,13 @@
         <f t="shared" si="3"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="I206" s="224"/>
+      <c r="I206" s="241"/>
       <c r="K206" s="11"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="209"/>
-      <c r="B207" s="219"/>
-      <c r="C207" s="222"/>
+      <c r="A207" s="242"/>
+      <c r="B207" s="226"/>
+      <c r="C207" s="240"/>
       <c r="D207" s="1" t="s">
         <v>142</v>
       </c>
@@ -37802,13 +37802,13 @@
         <f t="shared" si="3"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="I207" s="224"/>
+      <c r="I207" s="241"/>
       <c r="K207" s="11"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="209"/>
-      <c r="B208" s="219"/>
-      <c r="C208" s="222"/>
+      <c r="A208" s="242"/>
+      <c r="B208" s="226"/>
+      <c r="C208" s="240"/>
       <c r="D208" s="1" t="s">
         <v>143</v>
       </c>
@@ -37828,15 +37828,15 @@
         <f t="shared" si="3"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="I208" s="224"/>
+      <c r="I208" s="241"/>
       <c r="K208" s="11"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="209"/>
-      <c r="B209" s="219" t="s">
+      <c r="A209" s="242"/>
+      <c r="B209" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="C209" s="221">
+      <c r="C209" s="225">
         <f>K245</f>
         <v>0.33333333333333331</v>
       </c>
@@ -37859,16 +37859,16 @@
         <f t="shared" si="3"/>
         <v>0.38825757575757575</v>
       </c>
-      <c r="I209" s="224" cm="1">
+      <c r="I209" s="241" cm="1">
         <f t="array" ref="I209">SUM(E209:E212*F209:F212)</f>
         <v>4.3892045454545459</v>
       </c>
       <c r="K209" s="11"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="209"/>
-      <c r="B210" s="219"/>
-      <c r="C210" s="222"/>
+      <c r="A210" s="242"/>
+      <c r="B210" s="226"/>
+      <c r="C210" s="240"/>
       <c r="D210" s="1" t="s">
         <v>116</v>
       </c>
@@ -37888,13 +37888,13 @@
         <f t="shared" si="3"/>
         <v>0.37878787878787878</v>
       </c>
-      <c r="I210" s="224"/>
+      <c r="I210" s="241"/>
       <c r="K210" s="11"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="209"/>
-      <c r="B211" s="219"/>
-      <c r="C211" s="222"/>
+      <c r="A211" s="242"/>
+      <c r="B211" s="226"/>
+      <c r="C211" s="240"/>
       <c r="D211" s="1" t="s">
         <v>117</v>
       </c>
@@ -37914,13 +37914,13 @@
         <f t="shared" si="3"/>
         <v>0.36931818181818177</v>
       </c>
-      <c r="I211" s="224"/>
+      <c r="I211" s="241"/>
       <c r="K211" s="11"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="209"/>
-      <c r="B212" s="219"/>
-      <c r="C212" s="222"/>
+      <c r="A212" s="242"/>
+      <c r="B212" s="226"/>
+      <c r="C212" s="240"/>
       <c r="D212" s="1" t="s">
         <v>118</v>
       </c>
@@ -37940,15 +37940,15 @@
         <f t="shared" si="3"/>
         <v>0.32670454545454547</v>
       </c>
-      <c r="I212" s="224"/>
+      <c r="I212" s="241"/>
       <c r="K212" s="11"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="209"/>
-      <c r="B213" s="219" t="s">
+      <c r="A213" s="242"/>
+      <c r="B213" s="226" t="s">
         <v>256</v>
       </c>
-      <c r="C213" s="221">
+      <c r="C213" s="225">
         <f>K246</f>
         <v>0.33333333333333331</v>
       </c>
@@ -37971,16 +37971,16 @@
         <f t="shared" si="3"/>
         <v>0.21103896103896105</v>
       </c>
-      <c r="I213" s="234" cm="1">
+      <c r="I213" s="220" cm="1">
         <f t="array" ref="I213">SUM(E213:E219*F213:F219)</f>
         <v>4.6266233766233764</v>
       </c>
       <c r="K213" s="11"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="209"/>
-      <c r="B214" s="219"/>
-      <c r="C214" s="221"/>
+      <c r="A214" s="242"/>
+      <c r="B214" s="226"/>
+      <c r="C214" s="225"/>
       <c r="D214" s="1" t="s">
         <v>140</v>
       </c>
@@ -38000,13 +38000,13 @@
         <f t="shared" si="3"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="I214" s="235"/>
+      <c r="I214" s="221"/>
       <c r="K214" s="11"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="209"/>
-      <c r="B215" s="219"/>
-      <c r="C215" s="221"/>
+      <c r="A215" s="242"/>
+      <c r="B215" s="226"/>
+      <c r="C215" s="225"/>
       <c r="D215" s="1" t="s">
         <v>144</v>
       </c>
@@ -38026,13 +38026,13 @@
         <f t="shared" si="3"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="I215" s="235"/>
+      <c r="I215" s="221"/>
       <c r="K215" s="11"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="209"/>
-      <c r="B216" s="219"/>
-      <c r="C216" s="221"/>
+      <c r="A216" s="242"/>
+      <c r="B216" s="226"/>
+      <c r="C216" s="225"/>
       <c r="D216" s="1" t="s">
         <v>119</v>
       </c>
@@ -38052,13 +38052,13 @@
         <f>G216*E216</f>
         <v>0.21645021645021645</v>
       </c>
-      <c r="I216" s="235"/>
+      <c r="I216" s="221"/>
       <c r="K216" s="11"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="209"/>
-      <c r="B217" s="219"/>
-      <c r="C217" s="221"/>
+      <c r="A217" s="242"/>
+      <c r="B217" s="226"/>
+      <c r="C217" s="225"/>
       <c r="D217" s="1" t="s">
         <v>514</v>
       </c>
@@ -38078,13 +38078,13 @@
         <f t="shared" ref="H217:H219" si="12">G217*E217</f>
         <v>0.18398268398268397</v>
       </c>
-      <c r="I217" s="235"/>
+      <c r="I217" s="221"/>
       <c r="K217" s="11"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="209"/>
-      <c r="B218" s="219"/>
-      <c r="C218" s="221"/>
+      <c r="A218" s="242"/>
+      <c r="B218" s="226"/>
+      <c r="C218" s="225"/>
       <c r="D218" s="1" t="s">
         <v>515</v>
       </c>
@@ -38104,13 +38104,13 @@
         <f t="shared" si="12"/>
         <v>0.21645021645021645</v>
       </c>
-      <c r="I218" s="235"/>
+      <c r="I218" s="221"/>
       <c r="K218" s="11"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="209"/>
-      <c r="B219" s="219"/>
-      <c r="C219" s="221"/>
+      <c r="A219" s="242"/>
+      <c r="B219" s="226"/>
+      <c r="C219" s="225"/>
       <c r="D219" s="1" t="s">
         <v>516</v>
       </c>
@@ -38130,7 +38130,7 @@
         <f t="shared" si="12"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="I219" s="225"/>
+      <c r="I219" s="227"/>
       <c r="K219" s="11"/>
     </row>
     <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -38258,12 +38258,12 @@
       <c r="F229" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="G229" s="229" t="s">
+      <c r="G229" s="215" t="s">
         <v>277</v>
       </c>
-      <c r="H229" s="229"/>
-      <c r="I229" s="229"/>
-      <c r="J229" s="229"/>
+      <c r="H229" s="215"/>
+      <c r="I229" s="215"/>
+      <c r="J229" s="215"/>
       <c r="K229" s="75" t="s">
         <v>278</v>
       </c>
@@ -38676,11 +38676,11 @@
       <c r="E243" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="F243" s="229" t="s">
+      <c r="F243" s="215" t="s">
         <v>277</v>
       </c>
-      <c r="G243" s="229"/>
-      <c r="H243" s="229"/>
+      <c r="G243" s="215"/>
+      <c r="H243" s="215"/>
       <c r="I243" s="75" t="s">
         <v>278</v>
       </c>
@@ -39002,13 +39002,13 @@
       <c r="G256" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H256" s="236" t="s">
+      <c r="H256" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="I256" s="237"/>
-      <c r="J256" s="237"/>
-      <c r="K256" s="237"/>
-      <c r="L256" s="238"/>
+      <c r="I256" s="223"/>
+      <c r="J256" s="223"/>
+      <c r="K256" s="223"/>
+      <c r="L256" s="224"/>
       <c r="M256" s="75" t="s">
         <v>278</v>
       </c>
@@ -39517,10 +39517,10 @@
       <c r="D272" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="E272" s="236" t="s">
+      <c r="E272" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="F272" s="237"/>
+      <c r="F272" s="223"/>
       <c r="G272" s="75" t="s">
         <v>278</v>
       </c>
@@ -39832,17 +39832,17 @@
       <c r="K285" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="L285" s="229" t="s">
+      <c r="L285" s="215" t="s">
         <v>277</v>
       </c>
-      <c r="M285" s="229"/>
-      <c r="N285" s="229"/>
-      <c r="O285" s="229"/>
-      <c r="P285" s="229"/>
-      <c r="Q285" s="229"/>
-      <c r="R285" s="229"/>
-      <c r="S285" s="229"/>
-      <c r="T285" s="229"/>
+      <c r="M285" s="215"/>
+      <c r="N285" s="215"/>
+      <c r="O285" s="215"/>
+      <c r="P285" s="215"/>
+      <c r="Q285" s="215"/>
+      <c r="R285" s="215"/>
+      <c r="S285" s="215"/>
+      <c r="T285" s="215"/>
       <c r="U285" s="75" t="s">
         <v>278</v>
       </c>
@@ -40907,15 +40907,15 @@
       <c r="I305" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J305" s="236" t="s">
+      <c r="J305" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="K305" s="237"/>
-      <c r="L305" s="237"/>
-      <c r="M305" s="237"/>
-      <c r="N305" s="237"/>
-      <c r="O305" s="237"/>
-      <c r="P305" s="238"/>
+      <c r="K305" s="223"/>
+      <c r="L305" s="223"/>
+      <c r="M305" s="223"/>
+      <c r="N305" s="223"/>
+      <c r="O305" s="223"/>
+      <c r="P305" s="224"/>
       <c r="Q305" s="75" t="s">
         <v>278</v>
       </c>
@@ -42071,15 +42071,15 @@
       <c r="I338" s="72" t="s">
         <v>516</v>
       </c>
-      <c r="J338" s="236" t="s">
+      <c r="J338" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="K338" s="237"/>
-      <c r="L338" s="237"/>
-      <c r="M338" s="237"/>
-      <c r="N338" s="237"/>
-      <c r="O338" s="237"/>
-      <c r="P338" s="238"/>
+      <c r="K338" s="223"/>
+      <c r="L338" s="223"/>
+      <c r="M338" s="223"/>
+      <c r="N338" s="223"/>
+      <c r="O338" s="223"/>
+      <c r="P338" s="224"/>
       <c r="Q338" s="75" t="s">
         <v>278</v>
       </c>
@@ -42821,13 +42821,13 @@
       <c r="G356" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="H356" s="229" t="s">
+      <c r="H356" s="215" t="s">
         <v>277</v>
       </c>
-      <c r="I356" s="229"/>
-      <c r="J356" s="229"/>
-      <c r="K356" s="229"/>
-      <c r="L356" s="229"/>
+      <c r="I356" s="215"/>
+      <c r="J356" s="215"/>
+      <c r="K356" s="215"/>
+      <c r="L356" s="215"/>
       <c r="M356" s="75" t="s">
         <v>278</v>
       </c>
@@ -43225,6 +43225,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A179:A199"/>
+    <mergeCell ref="A202:A219"/>
+    <mergeCell ref="H63:N64"/>
+    <mergeCell ref="H84:N84"/>
+    <mergeCell ref="B186:B194"/>
+    <mergeCell ref="B202:B208"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="C186:C194"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="I186:I194"/>
+    <mergeCell ref="I202:I208"/>
+    <mergeCell ref="I209:I212"/>
+    <mergeCell ref="C209:C212"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H103:N104"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="I179:I183"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B11:B16"/>
     <mergeCell ref="H356:L356"/>
     <mergeCell ref="B195:B199"/>
     <mergeCell ref="C195:C199"/>
@@ -43239,37 +43270,6 @@
     <mergeCell ref="F243:H243"/>
     <mergeCell ref="I213:I219"/>
     <mergeCell ref="J305:P305"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H103:N104"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="I179:I183"/>
-    <mergeCell ref="I184:I185"/>
-    <mergeCell ref="A179:A199"/>
-    <mergeCell ref="A202:A219"/>
-    <mergeCell ref="H63:N64"/>
-    <mergeCell ref="H84:N84"/>
-    <mergeCell ref="B186:B194"/>
-    <mergeCell ref="B202:B208"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="C186:C194"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="I186:I194"/>
-    <mergeCell ref="I202:I208"/>
-    <mergeCell ref="I209:I212"/>
-    <mergeCell ref="C209:C212"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43358,20 +43358,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="275" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="292"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277"/>
       <c r="G1" s="106" t="s">
         <v>306</v>
       </c>
       <c r="H1" s="98">
         <f ca="1">TODAY()</f>
-        <v>45272</v>
+        <v>45293</v>
       </c>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
@@ -43434,19 +43434,19 @@
       <c r="U3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="257" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="302"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302" t="str">
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254" t="str">
         <f>'Informe Previo'!D4</f>
         <v>Juegos AJDA. Juego "CRASH. 4 EQUIPOS".</v>
       </c>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="302"/>
-      <c r="H4" s="306"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="255"/>
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
@@ -43462,17 +43462,17 @@
       <c r="U4" s="95"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="293" t="s">
+      <c r="A5" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="294"/>
-      <c r="C5" s="294"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
       <c r="D5" s="105" t="str">
         <f>'Informe Previo'!D5</f>
         <v>2023-11-03</v>
       </c>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
       <c r="H5" s="99"/>
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
@@ -43489,19 +43489,19 @@
       <c r="U5" s="95"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="293" t="s">
+      <c r="A6" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="294"/>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294" t="str">
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248" t="str">
         <f>'Informe Previo'!D10</f>
         <v>IES Joaquín Turina</v>
       </c>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="295"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="256"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
@@ -43517,19 +43517,19 @@
       <c r="U6" s="95"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="293" t="s">
+      <c r="A7" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="294"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="294" t="str">
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248" t="str">
         <f>'Informe Previo'!D11</f>
         <v>1ºBachillerato. Ciencias</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="295"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="256"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
@@ -43545,19 +43545,19 @@
       <c r="U7" s="95"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="310" t="s">
+      <c r="A8" s="261" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303" t="str">
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262" t="str">
         <f>'Informe Previo'!D13</f>
         <v>Física y Química</v>
       </c>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="304"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="263"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
@@ -43573,19 +43573,19 @@
       <c r="U8" s="95"/>
     </row>
     <row r="9" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="311" t="s">
+      <c r="A9" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="312"/>
-      <c r="C9" s="312"/>
-      <c r="D9" s="313" t="str">
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="266" t="str">
         <f>'Informe Previo'!D14</f>
         <v>Jesús Manuel Muñoz Calle</v>
       </c>
-      <c r="E9" s="313"/>
-      <c r="F9" s="313"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="314"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="267"/>
       <c r="I9" s="95"/>
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
@@ -43601,19 +43601,19 @@
       <c r="U9" s="95"/>
     </row>
     <row r="10" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="315" t="s">
+      <c r="A10" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="316"/>
-      <c r="C10" s="316"/>
-      <c r="D10" s="250" t="str">
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="270" t="str">
         <f>'Informe Previo'!D15</f>
         <v>José Manuel Candilejo Egea</v>
       </c>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="251"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="271"/>
       <c r="I10" s="95"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
@@ -43629,14 +43629,14 @@
       <c r="U10" s="95"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="294"/>
-      <c r="B11" s="294"/>
-      <c r="C11" s="294"/>
-      <c r="D11" s="294"/>
-      <c r="E11" s="294"/>
-      <c r="F11" s="294"/>
-      <c r="G11" s="294"/>
-      <c r="H11" s="294"/>
+      <c r="A11" s="248"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="248"/>
+      <c r="H11" s="248"/>
       <c r="I11" s="95"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
@@ -43677,19 +43677,19 @@
       <c r="U12" s="95"/>
     </row>
     <row r="13" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="275" t="s">
+      <c r="A13" s="272" t="s">
         <v>626</v>
       </c>
-      <c r="B13" s="276"/>
+      <c r="B13" s="273"/>
       <c r="C13" s="101" t="str">
         <f>'Informe Previo'!D6</f>
         <v>2 Semanas</v>
       </c>
       <c r="D13" s="101"/>
-      <c r="E13" s="275" t="s">
+      <c r="E13" s="272" t="s">
         <v>624</v>
       </c>
-      <c r="F13" s="276"/>
+      <c r="F13" s="273"/>
       <c r="G13" s="101">
         <f>'Informe Previo'!D7</f>
         <v>2</v>
@@ -43719,10 +43719,10 @@
         <v>Si. 5 Positivos al equipo ganador en cada una de las partidas jugadas</v>
       </c>
       <c r="D14" s="176"/>
-      <c r="E14" s="277" t="s">
+      <c r="E14" s="282" t="s">
         <v>623</v>
       </c>
-      <c r="F14" s="278"/>
+      <c r="F14" s="283"/>
       <c r="G14" s="176" t="str">
         <f>IF('Informe Previo'!D8&lt;&gt;"",'Informe Previo'!D8,"Sin especificar")</f>
         <v>60 minutos</v>
@@ -43814,19 +43814,19 @@
       <c r="U17" s="95"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="305" t="s">
+      <c r="A18" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302">
+      <c r="B18" s="254"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="254">
         <f>'Informe Previo'!D16</f>
         <v>11</v>
       </c>
-      <c r="E18" s="302"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="302"/>
-      <c r="H18" s="306"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="255"/>
       <c r="I18" s="95"/>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -43842,21 +43842,21 @@
       <c r="U18" s="95"/>
     </row>
     <row r="19" spans="1:21" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="307" t="s">
+      <c r="A19" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="308"/>
-      <c r="C19" s="308"/>
-      <c r="D19" s="301" t="str">
+      <c r="B19" s="259"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="251" t="str">
         <f>'Informe Previo'!D19</f>
         <v>La prueba inicial refleja que el grupo es bastante heterogéneo, aunque con un nivel de partida bajo en general. Hay tres alumnos que muestran una situación de partida mejor que la media y otros tres que están por debajo.
 No hay alumnado con la materia pendiente al ser de 1ºBAC pero hay 3 alumnos que no cursaron la asignatura de Física y Química en 4ºESO.
 No hay alumnado repetidor.</v>
       </c>
-      <c r="E19" s="301"/>
-      <c r="F19" s="301"/>
-      <c r="G19" s="301"/>
-      <c r="H19" s="309"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="260"/>
       <c r="I19" s="95"/>
       <c r="J19" s="95"/>
       <c r="K19" s="95"/>
@@ -43872,13 +43872,13 @@
       <c r="U19" s="95"/>
     </row>
     <row r="20" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="275" t="s">
+      <c r="A20" s="272" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="276" t="s">
+      <c r="C20" s="273" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="101">
@@ -43886,8 +43886,8 @@
         <v>1</v>
       </c>
       <c r="E20" s="103"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="302"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
       <c r="H20" s="102"/>
       <c r="I20" s="95"/>
       <c r="J20" s="95"/>
@@ -43904,23 +43904,23 @@
       <c r="U20" s="95"/>
     </row>
     <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="282" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="278" t="s">
+      <c r="B21" s="283" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="278" t="s">
+      <c r="C21" s="283" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="176">
         <f>'Informe Previo'!D18</f>
         <v>0</v>
       </c>
-      <c r="E21" s="319"/>
-      <c r="F21" s="319"/>
-      <c r="G21" s="319"/>
-      <c r="H21" s="320"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
@@ -43936,23 +43936,23 @@
       <c r="U21" s="95"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="275" t="s">
+      <c r="A22" s="272" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="276" t="s">
+      <c r="B22" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="276" t="s">
+      <c r="C22" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="321">
+      <c r="D22" s="206">
         <f>'Informe Previo'!D20</f>
         <v>6.36</v>
       </c>
-      <c r="E22" s="321"/>
-      <c r="F22" s="321"/>
-      <c r="G22" s="321"/>
-      <c r="H22" s="322"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
       <c r="K22" s="95"/>
@@ -43996,23 +43996,23 @@
       <c r="U23" s="95"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="300" t="s">
+      <c r="A24" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="301" t="s">
+      <c r="B24" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="301" t="s">
+      <c r="C24" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="323" t="str">
+      <c r="D24" s="208" t="str">
         <f>IF('Informe Previo'!D24&lt;&gt;"",'Informe Previo'!D24&amp;" h de trabajo en casa/semana","Sin especificar")</f>
         <v>7 h de trabajo en casa/semana</v>
       </c>
-      <c r="E24" s="323"/>
-      <c r="F24" s="323"/>
-      <c r="G24" s="323"/>
-      <c r="H24" s="324"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="209"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
       <c r="K24" s="95"/>
@@ -44028,23 +44028,23 @@
       <c r="U24" s="95"/>
     </row>
     <row r="25" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="300" t="s">
+      <c r="A25" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="301" t="s">
+      <c r="C25" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="323">
+      <c r="D25" s="208">
         <f>'Informe Previo'!D25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="323"/>
-      <c r="F25" s="323"/>
-      <c r="G25" s="323"/>
-      <c r="H25" s="324"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="209"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
@@ -44060,19 +44060,19 @@
       <c r="U25" s="95"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="293" t="s">
+      <c r="A26" s="253" t="s">
         <v>628</v>
       </c>
-      <c r="B26" s="294"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="327">
+      <c r="B26" s="248"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="210">
         <f>'Informe Previo'!D26</f>
         <v>0.97</v>
       </c>
-      <c r="E26" s="325"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="326"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="111"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
       <c r="K26" s="95"/>
@@ -44088,19 +44088,19 @@
       <c r="U26" s="95"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="293" t="s">
+      <c r="A27" s="253" t="s">
         <v>629</v>
       </c>
-      <c r="B27" s="294"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="323">
+      <c r="B27" s="248"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="208">
         <f>'Informe Previo'!D27</f>
         <v>8</v>
       </c>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="326"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="111"/>
       <c r="I27" s="95"/>
       <c r="J27" s="95"/>
       <c r="K27" s="95"/>
@@ -44116,19 +44116,19 @@
       <c r="U27" s="95"/>
     </row>
     <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="310" t="s">
+      <c r="A28" s="261" t="s">
         <v>630</v>
       </c>
-      <c r="B28" s="303"/>
-      <c r="C28" s="303"/>
-      <c r="D28" s="328">
+      <c r="B28" s="262"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="211">
         <f>'Informe Previo'!D28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="319"/>
-      <c r="F28" s="319"/>
-      <c r="G28" s="319"/>
-      <c r="H28" s="320"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="114"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
@@ -44144,14 +44144,14 @@
       <c r="U28" s="95"/>
     </row>
     <row r="29" spans="1:21" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="294"/>
-      <c r="B29" s="294"/>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="294"/>
-      <c r="H29" s="294"/>
+      <c r="A29" s="248"/>
+      <c r="B29" s="248"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="248"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
@@ -44346,18 +44346,18 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
-      <c r="B37" s="296" t="s">
+      <c r="B37" s="278" t="s">
         <v>319</v>
       </c>
-      <c r="C37" s="296"/>
-      <c r="D37" s="297" t="s">
+      <c r="C37" s="278"/>
+      <c r="D37" s="279" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="297"/>
-      <c r="F37" s="297" t="s">
+      <c r="E37" s="279"/>
+      <c r="F37" s="279" t="s">
         <v>316</v>
       </c>
-      <c r="G37" s="297"/>
+      <c r="G37" s="279"/>
       <c r="H37" s="111"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -44375,8 +44375,8 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
+      <c r="B38" s="278"/>
+      <c r="C38" s="278"/>
       <c r="D38" s="115" t="s">
         <v>47</v>
       </c>
@@ -44406,10 +44406,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
-      <c r="B39" s="298" t="s">
+      <c r="B39" s="280" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="298"/>
+      <c r="C39" s="280"/>
       <c r="D39" s="117">
         <f>IF(D33="No","N/A",Cálculos!E4)</f>
         <v>1.9181818181818182</v>
@@ -44443,10 +44443,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
-      <c r="B40" s="298" t="s">
+      <c r="B40" s="280" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="298"/>
+      <c r="C40" s="280"/>
       <c r="D40" s="117">
         <f>IF(D33="No","N/A",Cálculos!E7)</f>
         <v>2.8227272727272723</v>
@@ -44503,18 +44503,18 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="296" t="s">
+      <c r="B42" s="278" t="s">
         <v>320</v>
       </c>
-      <c r="C42" s="296"/>
-      <c r="D42" s="297" t="s">
+      <c r="C42" s="278"/>
+      <c r="D42" s="279" t="s">
         <v>317</v>
       </c>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297" t="s">
+      <c r="E42" s="279"/>
+      <c r="F42" s="279" t="s">
         <v>316</v>
       </c>
-      <c r="G42" s="297"/>
+      <c r="G42" s="279"/>
       <c r="H42" s="111"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
@@ -44532,8 +44532,8 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
-      <c r="B43" s="296"/>
-      <c r="C43" s="296"/>
+      <c r="B43" s="278"/>
+      <c r="C43" s="278"/>
       <c r="D43" s="116" t="s">
         <v>53</v>
       </c>
@@ -44563,7 +44563,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
-      <c r="B44" s="299" t="s">
+      <c r="B44" s="281" t="s">
         <v>317</v>
       </c>
       <c r="C44" s="116" t="s">
@@ -44600,7 +44600,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
-      <c r="B45" s="299"/>
+      <c r="B45" s="281"/>
       <c r="C45" s="116" t="s">
         <v>54</v>
       </c>
@@ -44635,7 +44635,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
-      <c r="B46" s="318" t="s">
+      <c r="B46" s="249" t="s">
         <v>316</v>
       </c>
       <c r="C46" s="116" t="s">
@@ -44672,7 +44672,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
-      <c r="B47" s="318"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="116" t="s">
         <v>54</v>
       </c>
@@ -45192,15 +45192,15 @@
       <c r="U68" s="95"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="317" t="str">
+      <c r="A69" s="274" t="str">
         <f>Cálculos!B111</f>
         <v>Pregunta</v>
       </c>
-      <c r="B69" s="317"/>
-      <c r="C69" s="317"/>
-      <c r="D69" s="317"/>
-      <c r="E69" s="317"/>
-      <c r="F69" s="317"/>
+      <c r="B69" s="274"/>
+      <c r="C69" s="274"/>
+      <c r="D69" s="274"/>
+      <c r="E69" s="274"/>
+      <c r="F69" s="274"/>
       <c r="G69" s="118" t="str">
         <f>Cálculos!C111</f>
         <v>Media</v>
@@ -45227,13 +45227,13 @@
       <c r="A70" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="279" t="s">
+      <c r="B70" s="252" t="s">
         <v>490</v>
       </c>
-      <c r="C70" s="279"/>
-      <c r="D70" s="279"/>
-      <c r="E70" s="279"/>
-      <c r="F70" s="279"/>
+      <c r="C70" s="252"/>
+      <c r="D70" s="252"/>
+      <c r="E70" s="252"/>
+      <c r="F70" s="252"/>
       <c r="G70" s="120">
         <f>Cálculos!C112</f>
         <v>16.272727272727273</v>
@@ -45260,15 +45260,15 @@
       <c r="A71" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="280" t="s">
+      <c r="B71" s="288" t="s">
         <v>491</v>
       </c>
-      <c r="C71" s="281"/>
-      <c r="D71" s="281"/>
-      <c r="E71" s="281"/>
-      <c r="F71" s="281"/>
-      <c r="G71" s="281"/>
-      <c r="H71" s="282"/>
+      <c r="C71" s="289"/>
+      <c r="D71" s="289"/>
+      <c r="E71" s="289"/>
+      <c r="F71" s="289"/>
+      <c r="G71" s="289"/>
+      <c r="H71" s="290"/>
       <c r="I71" s="95"/>
       <c r="J71" s="95"/>
       <c r="K71" s="95"/>
@@ -45284,17 +45284,17 @@
       <c r="U71" s="95"/>
     </row>
     <row r="72" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="283" t="str">
+      <c r="A72" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D6:CY6)</f>
         <v>Española   //   Española/Brasileña   //   Salvadoreña   //   Venezolana   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española</v>
       </c>
-      <c r="B72" s="284"/>
-      <c r="C72" s="284"/>
-      <c r="D72" s="284"/>
-      <c r="E72" s="284"/>
-      <c r="F72" s="284"/>
-      <c r="G72" s="284"/>
-      <c r="H72" s="285"/>
+      <c r="B72" s="286"/>
+      <c r="C72" s="286"/>
+      <c r="D72" s="286"/>
+      <c r="E72" s="286"/>
+      <c r="F72" s="286"/>
+      <c r="G72" s="286"/>
+      <c r="H72" s="287"/>
       <c r="I72" s="95"/>
       <c r="J72" s="95"/>
       <c r="K72" s="95"/>
@@ -45313,18 +45313,18 @@
       <c r="A73" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="280" t="s">
+      <c r="B73" s="288" t="s">
         <v>492</v>
       </c>
-      <c r="C73" s="281"/>
-      <c r="D73" s="281"/>
-      <c r="E73" s="281"/>
-      <c r="F73" s="281"/>
-      <c r="G73" s="281" t="str">
+      <c r="C73" s="289"/>
+      <c r="D73" s="289"/>
+      <c r="E73" s="289"/>
+      <c r="F73" s="289"/>
+      <c r="G73" s="289" t="str">
         <f>Cálculos!C114</f>
         <v>N/A</v>
       </c>
-      <c r="H73" s="282" t="str">
+      <c r="H73" s="290" t="str">
         <f>Cálculos!D114</f>
         <v>N/A</v>
       </c>
@@ -45343,18 +45343,18 @@
       <c r="U73" s="95"/>
     </row>
     <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="283" t="str">
+      <c r="A74" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D7:CY7)</f>
         <v>Masculino   //   Otro   //   Femenino   //   Femenino_x000D_
    //   Femenino   //   Masculino   //   Femenino   //   Femenino   //   Masculino   //   Masculino   //   Masculino</v>
       </c>
-      <c r="B74" s="284"/>
-      <c r="C74" s="284"/>
-      <c r="D74" s="284"/>
-      <c r="E74" s="284"/>
-      <c r="F74" s="284"/>
-      <c r="G74" s="284"/>
-      <c r="H74" s="285"/>
+      <c r="B74" s="286"/>
+      <c r="C74" s="286"/>
+      <c r="D74" s="286"/>
+      <c r="E74" s="286"/>
+      <c r="F74" s="286"/>
+      <c r="G74" s="286"/>
+      <c r="H74" s="287"/>
       <c r="I74" s="95"/>
       <c r="J74" s="95"/>
       <c r="K74" s="95"/>
@@ -45373,18 +45373,18 @@
       <c r="A75" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="280" t="s">
+      <c r="B75" s="288" t="s">
         <v>378</v>
       </c>
-      <c r="C75" s="281"/>
-      <c r="D75" s="281"/>
-      <c r="E75" s="281"/>
-      <c r="F75" s="281"/>
-      <c r="G75" s="281" t="str">
+      <c r="C75" s="289"/>
+      <c r="D75" s="289"/>
+      <c r="E75" s="289"/>
+      <c r="F75" s="289"/>
+      <c r="G75" s="289" t="str">
         <f>Cálculos!C115</f>
         <v>N/A</v>
       </c>
-      <c r="H75" s="282" t="str">
+      <c r="H75" s="290" t="str">
         <f>Cálculos!D115</f>
         <v>N/A</v>
       </c>
@@ -45403,17 +45403,17 @@
       <c r="U75" s="95"/>
     </row>
     <row r="76" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="283" t="str">
+      <c r="A76" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D8:CY8)</f>
         <v>1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato</v>
       </c>
-      <c r="B76" s="284"/>
-      <c r="C76" s="284"/>
-      <c r="D76" s="284"/>
-      <c r="E76" s="284"/>
-      <c r="F76" s="284"/>
-      <c r="G76" s="284"/>
-      <c r="H76" s="285"/>
+      <c r="B76" s="286"/>
+      <c r="C76" s="286"/>
+      <c r="D76" s="286"/>
+      <c r="E76" s="286"/>
+      <c r="F76" s="286"/>
+      <c r="G76" s="286"/>
+      <c r="H76" s="287"/>
       <c r="I76" s="95"/>
       <c r="J76" s="95"/>
       <c r="K76" s="95"/>
@@ -45432,13 +45432,13 @@
       <c r="A77" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="279" t="s">
+      <c r="B77" s="252" t="s">
         <v>493</v>
       </c>
-      <c r="C77" s="279"/>
-      <c r="D77" s="279"/>
-      <c r="E77" s="279"/>
-      <c r="F77" s="279"/>
+      <c r="C77" s="252"/>
+      <c r="D77" s="252"/>
+      <c r="E77" s="252"/>
+      <c r="F77" s="252"/>
       <c r="G77" s="120">
         <f>Cálculos!C116</f>
         <v>4.4545454545454541</v>
@@ -45465,13 +45465,13 @@
       <c r="A78" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="279" t="s">
+      <c r="B78" s="252" t="s">
         <v>323</v>
       </c>
-      <c r="C78" s="279"/>
-      <c r="D78" s="279"/>
-      <c r="E78" s="279"/>
-      <c r="F78" s="279"/>
+      <c r="C78" s="252"/>
+      <c r="D78" s="252"/>
+      <c r="E78" s="252"/>
+      <c r="F78" s="252"/>
       <c r="G78" s="120">
         <f>Cálculos!C117</f>
         <v>4.1818181818181817</v>
@@ -45498,13 +45498,13 @@
       <c r="A79" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="279" t="s">
+      <c r="B79" s="252" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="279"/>
-      <c r="D79" s="279"/>
-      <c r="E79" s="279"/>
-      <c r="F79" s="279"/>
+      <c r="C79" s="252"/>
+      <c r="D79" s="252"/>
+      <c r="E79" s="252"/>
+      <c r="F79" s="252"/>
       <c r="G79" s="120">
         <f>Cálculos!C118</f>
         <v>4.6363636363636367</v>
@@ -45531,13 +45531,13 @@
       <c r="A80" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="279" t="s">
+      <c r="B80" s="252" t="s">
         <v>546</v>
       </c>
-      <c r="C80" s="279"/>
-      <c r="D80" s="279"/>
-      <c r="E80" s="279"/>
-      <c r="F80" s="279"/>
+      <c r="C80" s="252"/>
+      <c r="D80" s="252"/>
+      <c r="E80" s="252"/>
+      <c r="F80" s="252"/>
       <c r="G80" s="120">
         <f>Cálculos!C119</f>
         <v>4.8181818181818183</v>
@@ -45564,13 +45564,13 @@
       <c r="A81" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="279" t="s">
+      <c r="B81" s="252" t="s">
         <v>547</v>
       </c>
-      <c r="C81" s="279"/>
-      <c r="D81" s="279"/>
-      <c r="E81" s="279"/>
-      <c r="F81" s="279"/>
+      <c r="C81" s="252"/>
+      <c r="D81" s="252"/>
+      <c r="E81" s="252"/>
+      <c r="F81" s="252"/>
       <c r="G81" s="120">
         <f>Cálculos!C120</f>
         <v>4.3636363636363633</v>
@@ -45597,13 +45597,13 @@
       <c r="A82" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="279" t="s">
+      <c r="B82" s="252" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="279"/>
-      <c r="D82" s="279"/>
-      <c r="E82" s="279"/>
-      <c r="F82" s="279"/>
+      <c r="C82" s="252"/>
+      <c r="D82" s="252"/>
+      <c r="E82" s="252"/>
+      <c r="F82" s="252"/>
       <c r="G82" s="120">
         <f>Cálculos!C121</f>
         <v>4.3636363636363633</v>
@@ -45630,13 +45630,13 @@
       <c r="A83" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="279" t="s">
+      <c r="B83" s="252" t="s">
         <v>326</v>
       </c>
-      <c r="C83" s="279"/>
-      <c r="D83" s="279"/>
-      <c r="E83" s="279"/>
-      <c r="F83" s="279"/>
+      <c r="C83" s="252"/>
+      <c r="D83" s="252"/>
+      <c r="E83" s="252"/>
+      <c r="F83" s="252"/>
       <c r="G83" s="120">
         <f>Cálculos!C122</f>
         <v>4.5454545454545459</v>
@@ -45663,13 +45663,13 @@
       <c r="A84" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="279" t="s">
+      <c r="B84" s="252" t="s">
         <v>548</v>
       </c>
-      <c r="C84" s="279"/>
-      <c r="D84" s="279"/>
-      <c r="E84" s="279"/>
-      <c r="F84" s="279"/>
+      <c r="C84" s="252"/>
+      <c r="D84" s="252"/>
+      <c r="E84" s="252"/>
+      <c r="F84" s="252"/>
       <c r="G84" s="120">
         <f>Cálculos!C123</f>
         <v>4.8181818181818183</v>
@@ -45696,13 +45696,13 @@
       <c r="A85" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="279" t="s">
+      <c r="B85" s="252" t="s">
         <v>327</v>
       </c>
-      <c r="C85" s="279"/>
-      <c r="D85" s="279"/>
-      <c r="E85" s="279"/>
-      <c r="F85" s="279"/>
+      <c r="C85" s="252"/>
+      <c r="D85" s="252"/>
+      <c r="E85" s="252"/>
+      <c r="F85" s="252"/>
       <c r="G85" s="120">
         <f>Cálculos!C124</f>
         <v>4.6363636363636367</v>
@@ -45729,13 +45729,13 @@
       <c r="A86" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="279" t="s">
+      <c r="B86" s="252" t="s">
         <v>328</v>
       </c>
-      <c r="C86" s="279"/>
-      <c r="D86" s="279"/>
-      <c r="E86" s="279"/>
-      <c r="F86" s="279"/>
+      <c r="C86" s="252"/>
+      <c r="D86" s="252"/>
+      <c r="E86" s="252"/>
+      <c r="F86" s="252"/>
       <c r="G86" s="120">
         <f>Cálculos!C125</f>
         <v>5</v>
@@ -45762,13 +45762,13 @@
       <c r="A87" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="279" t="s">
+      <c r="B87" s="252" t="s">
         <v>329</v>
       </c>
-      <c r="C87" s="279"/>
-      <c r="D87" s="279"/>
-      <c r="E87" s="279"/>
-      <c r="F87" s="279"/>
+      <c r="C87" s="252"/>
+      <c r="D87" s="252"/>
+      <c r="E87" s="252"/>
+      <c r="F87" s="252"/>
       <c r="G87" s="120">
         <f>Cálculos!C126</f>
         <v>4.2727272727272725</v>
@@ -45795,13 +45795,13 @@
       <c r="A88" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="279" t="s">
+      <c r="B88" s="252" t="s">
         <v>330</v>
       </c>
-      <c r="C88" s="279"/>
-      <c r="D88" s="279"/>
-      <c r="E88" s="279"/>
-      <c r="F88" s="279"/>
+      <c r="C88" s="252"/>
+      <c r="D88" s="252"/>
+      <c r="E88" s="252"/>
+      <c r="F88" s="252"/>
       <c r="G88" s="120">
         <f>Cálculos!C127</f>
         <v>4.6363636363636367</v>
@@ -45828,13 +45828,13 @@
       <c r="A89" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="279" t="s">
+      <c r="B89" s="252" t="s">
         <v>331</v>
       </c>
-      <c r="C89" s="279"/>
-      <c r="D89" s="279"/>
-      <c r="E89" s="279"/>
-      <c r="F89" s="279"/>
+      <c r="C89" s="252"/>
+      <c r="D89" s="252"/>
+      <c r="E89" s="252"/>
+      <c r="F89" s="252"/>
       <c r="G89" s="120">
         <f>Cálculos!C128</f>
         <v>4.4545454545454541</v>
@@ -45861,13 +45861,13 @@
       <c r="A90" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="279" t="s">
+      <c r="B90" s="252" t="s">
         <v>332</v>
       </c>
-      <c r="C90" s="279"/>
-      <c r="D90" s="279"/>
-      <c r="E90" s="279"/>
-      <c r="F90" s="279"/>
+      <c r="C90" s="252"/>
+      <c r="D90" s="252"/>
+      <c r="E90" s="252"/>
+      <c r="F90" s="252"/>
       <c r="G90" s="120">
         <f>Cálculos!C129</f>
         <v>4</v>
@@ -45894,13 +45894,13 @@
       <c r="A91" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="279" t="s">
+      <c r="B91" s="252" t="s">
         <v>333</v>
       </c>
-      <c r="C91" s="279"/>
-      <c r="D91" s="279"/>
-      <c r="E91" s="279"/>
-      <c r="F91" s="279"/>
+      <c r="C91" s="252"/>
+      <c r="D91" s="252"/>
+      <c r="E91" s="252"/>
+      <c r="F91" s="252"/>
       <c r="G91" s="120">
         <f>Cálculos!C130</f>
         <v>4.2727272727272725</v>
@@ -45927,13 +45927,13 @@
       <c r="A92" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="279" t="s">
+      <c r="B92" s="252" t="s">
         <v>334</v>
       </c>
-      <c r="C92" s="279"/>
-      <c r="D92" s="279"/>
-      <c r="E92" s="279"/>
-      <c r="F92" s="279"/>
+      <c r="C92" s="252"/>
+      <c r="D92" s="252"/>
+      <c r="E92" s="252"/>
+      <c r="F92" s="252"/>
       <c r="G92" s="120">
         <f>Cálculos!C131</f>
         <v>4.6363636363636367</v>
@@ -45960,18 +45960,18 @@
       <c r="A93" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="280" t="s">
+      <c r="B93" s="288" t="s">
         <v>549</v>
       </c>
-      <c r="C93" s="281"/>
-      <c r="D93" s="281"/>
-      <c r="E93" s="281"/>
-      <c r="F93" s="281"/>
-      <c r="G93" s="281" t="str">
+      <c r="C93" s="289"/>
+      <c r="D93" s="289"/>
+      <c r="E93" s="289"/>
+      <c r="F93" s="289"/>
+      <c r="G93" s="289" t="str">
         <f>Cálculos!C132</f>
         <v>N/A</v>
       </c>
-      <c r="H93" s="282" t="str">
+      <c r="H93" s="290" t="str">
         <f>Cálculos!D132</f>
         <v>N/A</v>
       </c>
@@ -45990,17 +45990,17 @@
       <c r="U93" s="95"/>
     </row>
     <row r="94" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="283" t="str">
+      <c r="A94" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D25:CY25)</f>
         <v>No   //   La haría más larga   //   Más larga, es agradable   //   Más larga   //   No   //   Tal y como está.   //   Veo bien la dureción   //   No cambiaría nada   //   No le cambiaría la duración   //   Está perfecto   //   Como está</v>
       </c>
-      <c r="B94" s="284"/>
-      <c r="C94" s="284"/>
-      <c r="D94" s="284"/>
-      <c r="E94" s="284"/>
-      <c r="F94" s="284"/>
-      <c r="G94" s="284"/>
-      <c r="H94" s="285"/>
+      <c r="B94" s="286"/>
+      <c r="C94" s="286"/>
+      <c r="D94" s="286"/>
+      <c r="E94" s="286"/>
+      <c r="F94" s="286"/>
+      <c r="G94" s="286"/>
+      <c r="H94" s="287"/>
       <c r="I94" s="95"/>
       <c r="J94" s="95"/>
       <c r="K94" s="95"/>
@@ -46019,13 +46019,13 @@
       <c r="A95" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="279" t="s">
+      <c r="B95" s="252" t="s">
         <v>335</v>
       </c>
-      <c r="C95" s="279"/>
-      <c r="D95" s="279"/>
-      <c r="E95" s="279"/>
-      <c r="F95" s="279"/>
+      <c r="C95" s="252"/>
+      <c r="D95" s="252"/>
+      <c r="E95" s="252"/>
+      <c r="F95" s="252"/>
       <c r="G95" s="120">
         <f>Cálculos!C133</f>
         <v>4.7272727272727275</v>
@@ -46052,13 +46052,13 @@
       <c r="A96" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="B96" s="279" t="s">
+      <c r="B96" s="252" t="s">
         <v>336</v>
       </c>
-      <c r="C96" s="279"/>
-      <c r="D96" s="279"/>
-      <c r="E96" s="279"/>
-      <c r="F96" s="279"/>
+      <c r="C96" s="252"/>
+      <c r="D96" s="252"/>
+      <c r="E96" s="252"/>
+      <c r="F96" s="252"/>
       <c r="G96" s="120">
         <f>Cálculos!C134</f>
         <v>4.7272727272727275</v>
@@ -46085,13 +46085,13 @@
       <c r="A97" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="279" t="s">
+      <c r="B97" s="252" t="s">
         <v>337</v>
       </c>
-      <c r="C97" s="279"/>
-      <c r="D97" s="279"/>
-      <c r="E97" s="279"/>
-      <c r="F97" s="279"/>
+      <c r="C97" s="252"/>
+      <c r="D97" s="252"/>
+      <c r="E97" s="252"/>
+      <c r="F97" s="252"/>
       <c r="G97" s="120">
         <f>Cálculos!C135</f>
         <v>4.9090909090909092</v>
@@ -46118,13 +46118,13 @@
       <c r="A98" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="279" t="s">
+      <c r="B98" s="252" t="s">
         <v>338</v>
       </c>
-      <c r="C98" s="279"/>
-      <c r="D98" s="279"/>
-      <c r="E98" s="279"/>
-      <c r="F98" s="279"/>
+      <c r="C98" s="252"/>
+      <c r="D98" s="252"/>
+      <c r="E98" s="252"/>
+      <c r="F98" s="252"/>
       <c r="G98" s="120">
         <f>Cálculos!C136</f>
         <v>4.9090909090909092</v>
@@ -46151,13 +46151,13 @@
       <c r="A99" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="279" t="s">
+      <c r="B99" s="252" t="s">
         <v>339</v>
       </c>
-      <c r="C99" s="279"/>
-      <c r="D99" s="279"/>
-      <c r="E99" s="279"/>
-      <c r="F99" s="279"/>
+      <c r="C99" s="252"/>
+      <c r="D99" s="252"/>
+      <c r="E99" s="252"/>
+      <c r="F99" s="252"/>
       <c r="G99" s="120">
         <f>Cálculos!C137</f>
         <v>4.8181818181818183</v>
@@ -46184,13 +46184,13 @@
       <c r="A100" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="B100" s="279" t="s">
+      <c r="B100" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="C100" s="279"/>
-      <c r="D100" s="279"/>
-      <c r="E100" s="279"/>
-      <c r="F100" s="279"/>
+      <c r="C100" s="252"/>
+      <c r="D100" s="252"/>
+      <c r="E100" s="252"/>
+      <c r="F100" s="252"/>
       <c r="G100" s="120">
         <f>Cálculos!C138</f>
         <v>5</v>
@@ -46217,13 +46217,13 @@
       <c r="A101" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="279" t="s">
+      <c r="B101" s="252" t="s">
         <v>341</v>
       </c>
-      <c r="C101" s="279"/>
-      <c r="D101" s="279"/>
-      <c r="E101" s="279"/>
-      <c r="F101" s="279"/>
+      <c r="C101" s="252"/>
+      <c r="D101" s="252"/>
+      <c r="E101" s="252"/>
+      <c r="F101" s="252"/>
       <c r="G101" s="120">
         <f>Cálculos!C139</f>
         <v>4.9090909090909092</v>
@@ -46250,13 +46250,13 @@
       <c r="A102" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="279" t="s">
+      <c r="B102" s="252" t="s">
         <v>342</v>
       </c>
-      <c r="C102" s="279"/>
-      <c r="D102" s="279"/>
-      <c r="E102" s="279"/>
-      <c r="F102" s="279"/>
+      <c r="C102" s="252"/>
+      <c r="D102" s="252"/>
+      <c r="E102" s="252"/>
+      <c r="F102" s="252"/>
       <c r="G102" s="120">
         <f>Cálculos!C140</f>
         <v>4.7272727272727275</v>
@@ -46283,13 +46283,13 @@
       <c r="A103" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="279" t="s">
+      <c r="B103" s="252" t="s">
         <v>343</v>
       </c>
-      <c r="C103" s="279"/>
-      <c r="D103" s="279"/>
-      <c r="E103" s="279"/>
-      <c r="F103" s="279"/>
+      <c r="C103" s="252"/>
+      <c r="D103" s="252"/>
+      <c r="E103" s="252"/>
+      <c r="F103" s="252"/>
       <c r="G103" s="120">
         <f>Cálculos!C141</f>
         <v>4.5454545454545459</v>
@@ -46316,13 +46316,13 @@
       <c r="A104" s="183" t="s">
         <v>367</v>
       </c>
-      <c r="B104" s="279" t="s">
+      <c r="B104" s="252" t="s">
         <v>344</v>
       </c>
-      <c r="C104" s="279"/>
-      <c r="D104" s="279"/>
-      <c r="E104" s="279"/>
-      <c r="F104" s="279"/>
+      <c r="C104" s="252"/>
+      <c r="D104" s="252"/>
+      <c r="E104" s="252"/>
+      <c r="F104" s="252"/>
       <c r="G104" s="120">
         <f>Cálculos!C142</f>
         <v>4.7272727272727275</v>
@@ -46349,13 +46349,13 @@
       <c r="A105" s="183" t="s">
         <v>387</v>
       </c>
-      <c r="B105" s="279" t="s">
+      <c r="B105" s="252" t="s">
         <v>345</v>
       </c>
-      <c r="C105" s="279"/>
-      <c r="D105" s="279"/>
-      <c r="E105" s="279"/>
-      <c r="F105" s="279"/>
+      <c r="C105" s="252"/>
+      <c r="D105" s="252"/>
+      <c r="E105" s="252"/>
+      <c r="F105" s="252"/>
       <c r="G105" s="120">
         <f>Cálculos!C143</f>
         <v>4.7272727272727275</v>
@@ -46382,13 +46382,13 @@
       <c r="A106" s="183" t="s">
         <v>388</v>
       </c>
-      <c r="B106" s="279" t="s">
+      <c r="B106" s="252" t="s">
         <v>346</v>
       </c>
-      <c r="C106" s="279"/>
-      <c r="D106" s="279"/>
-      <c r="E106" s="279"/>
-      <c r="F106" s="279"/>
+      <c r="C106" s="252"/>
+      <c r="D106" s="252"/>
+      <c r="E106" s="252"/>
+      <c r="F106" s="252"/>
       <c r="G106" s="120">
         <f>Cálculos!C144</f>
         <v>4.6363636363636367</v>
@@ -46415,13 +46415,13 @@
       <c r="A107" s="183" t="s">
         <v>500</v>
       </c>
-      <c r="B107" s="279" t="s">
+      <c r="B107" s="252" t="s">
         <v>347</v>
       </c>
-      <c r="C107" s="279"/>
-      <c r="D107" s="279"/>
-      <c r="E107" s="279"/>
-      <c r="F107" s="279"/>
+      <c r="C107" s="252"/>
+      <c r="D107" s="252"/>
+      <c r="E107" s="252"/>
+      <c r="F107" s="252"/>
       <c r="G107" s="120">
         <f>Cálculos!C145</f>
         <v>4.4545454545454541</v>
@@ -46448,13 +46448,13 @@
       <c r="A108" s="183" t="s">
         <v>501</v>
       </c>
-      <c r="B108" s="279" t="s">
+      <c r="B108" s="252" t="s">
         <v>348</v>
       </c>
-      <c r="C108" s="279"/>
-      <c r="D108" s="279"/>
-      <c r="E108" s="279"/>
-      <c r="F108" s="279"/>
+      <c r="C108" s="252"/>
+      <c r="D108" s="252"/>
+      <c r="E108" s="252"/>
+      <c r="F108" s="252"/>
       <c r="G108" s="120">
         <f>Cálculos!C146</f>
         <v>4.0999999999999996</v>
@@ -46481,13 +46481,13 @@
       <c r="A109" s="183" t="s">
         <v>502</v>
       </c>
-      <c r="B109" s="279" t="s">
+      <c r="B109" s="252" t="s">
         <v>494</v>
       </c>
-      <c r="C109" s="279"/>
-      <c r="D109" s="279"/>
-      <c r="E109" s="279"/>
-      <c r="F109" s="279"/>
+      <c r="C109" s="252"/>
+      <c r="D109" s="252"/>
+      <c r="E109" s="252"/>
+      <c r="F109" s="252"/>
       <c r="G109" s="120">
         <f>Cálculos!C147</f>
         <v>4.0909090909090908</v>
@@ -46514,18 +46514,18 @@
       <c r="A110" s="183" t="s">
         <v>503</v>
       </c>
-      <c r="B110" s="280" t="s">
+      <c r="B110" s="288" t="s">
         <v>550</v>
       </c>
-      <c r="C110" s="281"/>
-      <c r="D110" s="281"/>
-      <c r="E110" s="281"/>
-      <c r="F110" s="281"/>
-      <c r="G110" s="281" t="str">
+      <c r="C110" s="289"/>
+      <c r="D110" s="289"/>
+      <c r="E110" s="289"/>
+      <c r="F110" s="289"/>
+      <c r="G110" s="289" t="str">
         <f>Cálculos!C148</f>
         <v>N/A</v>
       </c>
-      <c r="H110" s="282" t="str">
+      <c r="H110" s="290" t="str">
         <f>Cálculos!D148</f>
         <v>N/A</v>
       </c>
@@ -46544,17 +46544,17 @@
       <c r="U110" s="95"/>
     </row>
     <row r="111" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="283" t="str">
+      <c r="A111" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D41:CY41)</f>
         <v>Las haría más juntas   //   Haría las sesiones más juntas   //   Más juntas   //   Una por semana me gustaría   //   No   //   Quizá más puntualmente   //   Veo bien la frecuencia   //   No   //   La haría más a menudo con una separación intermedia.   //   Sí. Claro que haría más sesiones   //   Más juntas</v>
       </c>
-      <c r="B111" s="284"/>
-      <c r="C111" s="284"/>
-      <c r="D111" s="284"/>
-      <c r="E111" s="284"/>
-      <c r="F111" s="284"/>
-      <c r="G111" s="284"/>
-      <c r="H111" s="285"/>
+      <c r="B111" s="286"/>
+      <c r="C111" s="286"/>
+      <c r="D111" s="286"/>
+      <c r="E111" s="286"/>
+      <c r="F111" s="286"/>
+      <c r="G111" s="286"/>
+      <c r="H111" s="287"/>
       <c r="I111" s="95"/>
       <c r="J111" s="95"/>
       <c r="K111" s="95"/>
@@ -46573,13 +46573,13 @@
       <c r="A112" s="183" t="s">
         <v>504</v>
       </c>
-      <c r="B112" s="279" t="s">
+      <c r="B112" s="252" t="s">
         <v>495</v>
       </c>
-      <c r="C112" s="279"/>
-      <c r="D112" s="279"/>
-      <c r="E112" s="279"/>
-      <c r="F112" s="279"/>
+      <c r="C112" s="252"/>
+      <c r="D112" s="252"/>
+      <c r="E112" s="252"/>
+      <c r="F112" s="252"/>
       <c r="G112" s="120">
         <f>Cálculos!C149</f>
         <v>4.6363636363636367</v>
@@ -46606,18 +46606,18 @@
       <c r="A113" s="183" t="s">
         <v>505</v>
       </c>
-      <c r="B113" s="280" t="s">
+      <c r="B113" s="288" t="s">
         <v>551</v>
       </c>
-      <c r="C113" s="281"/>
-      <c r="D113" s="281"/>
-      <c r="E113" s="281"/>
-      <c r="F113" s="281"/>
-      <c r="G113" s="281" t="str">
+      <c r="C113" s="289"/>
+      <c r="D113" s="289"/>
+      <c r="E113" s="289"/>
+      <c r="F113" s="289"/>
+      <c r="G113" s="289" t="str">
         <f>Cálculos!C150</f>
         <v>N/A</v>
       </c>
-      <c r="H113" s="282" t="str">
+      <c r="H113" s="290" t="str">
         <f>Cálculos!D150</f>
         <v>N/A</v>
       </c>
@@ -46636,17 +46636,17 @@
       <c r="U113" s="95"/>
     </row>
     <row r="114" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="283" t="str">
+      <c r="A114" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D43:CY43)</f>
         <v>No   //   No   //   Más pequeños   //   Me parecen adecuados   //   No   //   Está bien   //   Está bien repartido   //   No   //   No lo cambiaría aunque me da igual el tamaño, pero prefiero grupos pequeños porque así se organiza mejor el grupo.   //   No. Están bien los grupos pequeños   //   No</v>
       </c>
-      <c r="B114" s="284"/>
-      <c r="C114" s="284"/>
-      <c r="D114" s="284"/>
-      <c r="E114" s="284"/>
-      <c r="F114" s="284"/>
-      <c r="G114" s="284"/>
-      <c r="H114" s="285"/>
+      <c r="B114" s="286"/>
+      <c r="C114" s="286"/>
+      <c r="D114" s="286"/>
+      <c r="E114" s="286"/>
+      <c r="F114" s="286"/>
+      <c r="G114" s="286"/>
+      <c r="H114" s="287"/>
       <c r="I114" s="95"/>
       <c r="J114" s="95"/>
       <c r="K114" s="95"/>
@@ -46665,13 +46665,13 @@
       <c r="A115" s="183" t="s">
         <v>506</v>
       </c>
-      <c r="B115" s="279" t="s">
+      <c r="B115" s="252" t="s">
         <v>496</v>
       </c>
-      <c r="C115" s="279"/>
-      <c r="D115" s="279"/>
-      <c r="E115" s="279"/>
-      <c r="F115" s="279"/>
+      <c r="C115" s="252"/>
+      <c r="D115" s="252"/>
+      <c r="E115" s="252"/>
+      <c r="F115" s="252"/>
       <c r="G115" s="120">
         <f>Cálculos!C151</f>
         <v>5</v>
@@ -46698,13 +46698,13 @@
       <c r="A116" s="183" t="s">
         <v>552</v>
       </c>
-      <c r="B116" s="279" t="s">
+      <c r="B116" s="252" t="s">
         <v>497</v>
       </c>
-      <c r="C116" s="279"/>
-      <c r="D116" s="279"/>
-      <c r="E116" s="279"/>
-      <c r="F116" s="279"/>
+      <c r="C116" s="252"/>
+      <c r="D116" s="252"/>
+      <c r="E116" s="252"/>
+      <c r="F116" s="252"/>
       <c r="G116" s="120">
         <f>Cálculos!C152</f>
         <v>9.454545454545455</v>
@@ -46731,18 +46731,18 @@
       <c r="A117" s="183" t="s">
         <v>553</v>
       </c>
-      <c r="B117" s="280" t="s">
+      <c r="B117" s="288" t="s">
         <v>498</v>
       </c>
-      <c r="C117" s="281"/>
-      <c r="D117" s="281"/>
-      <c r="E117" s="281"/>
-      <c r="F117" s="281"/>
-      <c r="G117" s="281" t="str">
+      <c r="C117" s="289"/>
+      <c r="D117" s="289"/>
+      <c r="E117" s="289"/>
+      <c r="F117" s="289"/>
+      <c r="G117" s="289" t="str">
         <f>Cálculos!C153</f>
         <v>N/A</v>
       </c>
-      <c r="H117" s="282" t="str">
+      <c r="H117" s="290" t="str">
         <f>Cálculos!D153</f>
         <v>N/A</v>
       </c>
@@ -46761,17 +46761,17 @@
       <c r="U117" s="95"/>
     </row>
     <row r="118" spans="1:21" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="283" t="str">
+      <c r="A118" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D46:CY46)</f>
         <v>Me parece una muy buena manera de reforzar los conocimientos.   //   Divertida, pues liberamos dopamina cuando hacemos algo que nos gusta y aprendemos más fácil, y es lo que me pasó.    //   Entretenida, me encanta el tener que trabajar en equipo pero tiene que tener una mejor explicación de la respuesta correcta.    //   Me divertí mucho y aprendí mientras hacía la actividad. El premio es gratificante.   //   Todo bien   //   Experiencia muy entretenida y muy didáctica en mi opinión   //   Ha estado muy bien y he aprendido más   //   Me han gustado los juegos porque he disfrutado y no he visto competitividad de mi parte y de los compañeros.    //   Aprendí sobre la materia junto a mis compañeros mientras me divertía y de esa forma se me hacía más fácil aprender.    //   Es un buen cambio de escenario, es más divertido    //   Muy bueno porque es práctica y ayuda a asimilar.</v>
       </c>
-      <c r="B118" s="284"/>
-      <c r="C118" s="284"/>
-      <c r="D118" s="284"/>
-      <c r="E118" s="284"/>
-      <c r="F118" s="284"/>
-      <c r="G118" s="284"/>
-      <c r="H118" s="285"/>
+      <c r="B118" s="286"/>
+      <c r="C118" s="286"/>
+      <c r="D118" s="286"/>
+      <c r="E118" s="286"/>
+      <c r="F118" s="286"/>
+      <c r="G118" s="286"/>
+      <c r="H118" s="287"/>
       <c r="I118" s="95"/>
       <c r="J118" s="95"/>
       <c r="K118" s="95"/>
@@ -46790,18 +46790,18 @@
       <c r="A119" s="183" t="s">
         <v>512</v>
       </c>
-      <c r="B119" s="280" t="s">
+      <c r="B119" s="288" t="s">
         <v>499</v>
       </c>
-      <c r="C119" s="281"/>
-      <c r="D119" s="281"/>
-      <c r="E119" s="281"/>
-      <c r="F119" s="281"/>
-      <c r="G119" s="281" t="str">
+      <c r="C119" s="289"/>
+      <c r="D119" s="289"/>
+      <c r="E119" s="289"/>
+      <c r="F119" s="289"/>
+      <c r="G119" s="289" t="str">
         <f>Cálculos!C154</f>
         <v>N/A</v>
       </c>
-      <c r="H119" s="282" t="str">
+      <c r="H119" s="290" t="str">
         <f>Cálculos!D154</f>
         <v>N/A</v>
       </c>
@@ -46820,17 +46820,17 @@
       <c r="U119" s="95"/>
     </row>
     <row r="120" spans="1:21" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="283" t="str">
+      <c r="A120" s="285" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D47:CY47)</f>
         <v xml:space="preserve">Nada que mejorar, está muy conseguida.   //   El tiempo para contestar las preguntas.   //   Una breve explicación sobre el resultado.   //   Me gusta la dinámica en general, pero en mi opinión el diseño de la actividad es un poco anticuado.   //       //   En este momento no se me ocurren mejoras, está muy completo.   //   No creo que se deba mejorar nada.   //   Me ha gustado las preguntas y la forma en la que se juega.   //   Tal vez hacer trabajos cooperativos o juegos.   //       //    </v>
       </c>
-      <c r="B120" s="284"/>
-      <c r="C120" s="284"/>
-      <c r="D120" s="284"/>
-      <c r="E120" s="284"/>
-      <c r="F120" s="284"/>
-      <c r="G120" s="284"/>
-      <c r="H120" s="285"/>
+      <c r="B120" s="286"/>
+      <c r="C120" s="286"/>
+      <c r="D120" s="286"/>
+      <c r="E120" s="286"/>
+      <c r="F120" s="286"/>
+      <c r="G120" s="286"/>
+      <c r="H120" s="287"/>
       <c r="I120" s="95"/>
       <c r="J120" s="95"/>
       <c r="K120" s="95"/>
@@ -47367,15 +47367,15 @@
       <c r="A144" s="124" t="s">
         <v>350</v>
       </c>
-      <c r="B144" s="286" t="s">
+      <c r="B144" s="245" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="286"/>
-      <c r="D144" s="286"/>
-      <c r="E144" s="286"/>
-      <c r="F144" s="286"/>
-      <c r="G144" s="286"/>
-      <c r="H144" s="286"/>
+      <c r="C144" s="245"/>
+      <c r="D144" s="245"/>
+      <c r="E144" s="245"/>
+      <c r="F144" s="245"/>
+      <c r="G144" s="245"/>
+      <c r="H144" s="245"/>
       <c r="I144" s="95"/>
       <c r="J144" s="95"/>
       <c r="K144" s="95"/>
@@ -47391,16 +47391,16 @@
       <c r="U144" s="95"/>
     </row>
     <row r="145" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="286" t="e">
+      <c r="B145" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C145" s="286"/>
-      <c r="D145" s="286"/>
-      <c r="E145" s="286"/>
-      <c r="F145" s="286"/>
-      <c r="G145" s="286"/>
-      <c r="H145" s="286"/>
+      <c r="C145" s="245"/>
+      <c r="D145" s="245"/>
+      <c r="E145" s="245"/>
+      <c r="F145" s="245"/>
+      <c r="G145" s="245"/>
+      <c r="H145" s="245"/>
       <c r="I145" s="95"/>
       <c r="J145" s="95"/>
       <c r="K145" s="95"/>
@@ -47419,16 +47419,16 @@
       <c r="A146" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B146" s="286" t="e">
+      <c r="B146" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C146" s="286"/>
-      <c r="D146" s="286"/>
-      <c r="E146" s="286"/>
-      <c r="F146" s="286"/>
-      <c r="G146" s="286"/>
-      <c r="H146" s="286"/>
+      <c r="C146" s="245"/>
+      <c r="D146" s="245"/>
+      <c r="E146" s="245"/>
+      <c r="F146" s="245"/>
+      <c r="G146" s="245"/>
+      <c r="H146" s="245"/>
       <c r="I146" s="95"/>
       <c r="J146" s="95"/>
       <c r="K146" s="95"/>
@@ -47448,16 +47448,16 @@
         <f>Cálculos!D159</f>
         <v>10</v>
       </c>
-      <c r="B147" s="286" t="e">
+      <c r="B147" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C147" s="286"/>
-      <c r="D147" s="286"/>
-      <c r="E147" s="286"/>
-      <c r="F147" s="286"/>
-      <c r="G147" s="286"/>
-      <c r="H147" s="286"/>
+      <c r="C147" s="245"/>
+      <c r="D147" s="245"/>
+      <c r="E147" s="245"/>
+      <c r="F147" s="245"/>
+      <c r="G147" s="245"/>
+      <c r="H147" s="245"/>
       <c r="I147" s="95"/>
       <c r="J147" s="95"/>
       <c r="K147" s="95"/>
@@ -47474,16 +47474,16 @@
     </row>
     <row r="148" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="127"/>
-      <c r="B148" s="286" t="e">
+      <c r="B148" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C148" s="286"/>
-      <c r="D148" s="286"/>
-      <c r="E148" s="286"/>
-      <c r="F148" s="286"/>
-      <c r="G148" s="286"/>
-      <c r="H148" s="286"/>
+      <c r="C148" s="245"/>
+      <c r="D148" s="245"/>
+      <c r="E148" s="245"/>
+      <c r="F148" s="245"/>
+      <c r="G148" s="245"/>
+      <c r="H148" s="245"/>
       <c r="I148" s="95"/>
       <c r="J148" s="95"/>
       <c r="K148" s="95"/>
@@ -47500,16 +47500,16 @@
     </row>
     <row r="149" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="126"/>
-      <c r="B149" s="287" t="e">
+      <c r="B149" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C149" s="287"/>
-      <c r="D149" s="287"/>
-      <c r="E149" s="287"/>
-      <c r="F149" s="287"/>
-      <c r="G149" s="287"/>
-      <c r="H149" s="287"/>
+      <c r="C149" s="246"/>
+      <c r="D149" s="246"/>
+      <c r="E149" s="246"/>
+      <c r="F149" s="246"/>
+      <c r="G149" s="246"/>
+      <c r="H149" s="246"/>
       <c r="I149" s="95"/>
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
@@ -47528,15 +47528,15 @@
       <c r="A150" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="B150" s="289" t="s">
+      <c r="B150" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="289"/>
-      <c r="D150" s="289"/>
-      <c r="E150" s="289"/>
-      <c r="F150" s="289"/>
-      <c r="G150" s="289"/>
-      <c r="H150" s="289"/>
+      <c r="C150" s="284"/>
+      <c r="D150" s="284"/>
+      <c r="E150" s="284"/>
+      <c r="F150" s="284"/>
+      <c r="G150" s="284"/>
+      <c r="H150" s="284"/>
       <c r="I150" s="95"/>
       <c r="J150" s="95"/>
       <c r="K150" s="95"/>
@@ -47552,16 +47552,16 @@
       <c r="U150" s="95"/>
     </row>
     <row r="151" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="286" t="e">
+      <c r="B151" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C151" s="286"/>
-      <c r="D151" s="286"/>
-      <c r="E151" s="286"/>
-      <c r="F151" s="286"/>
-      <c r="G151" s="286"/>
-      <c r="H151" s="286"/>
+      <c r="C151" s="245"/>
+      <c r="D151" s="245"/>
+      <c r="E151" s="245"/>
+      <c r="F151" s="245"/>
+      <c r="G151" s="245"/>
+      <c r="H151" s="245"/>
       <c r="I151" s="95"/>
       <c r="J151" s="95"/>
       <c r="K151" s="95"/>
@@ -47580,16 +47580,16 @@
       <c r="A152" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B152" s="286" t="e">
+      <c r="B152" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C152" s="286"/>
-      <c r="D152" s="286"/>
-      <c r="E152" s="286"/>
-      <c r="F152" s="286"/>
-      <c r="G152" s="286"/>
-      <c r="H152" s="286"/>
+      <c r="C152" s="245"/>
+      <c r="D152" s="245"/>
+      <c r="E152" s="245"/>
+      <c r="F152" s="245"/>
+      <c r="G152" s="245"/>
+      <c r="H152" s="245"/>
       <c r="I152" s="95"/>
       <c r="J152" s="95"/>
       <c r="K152" s="95"/>
@@ -47609,16 +47609,16 @@
         <f>Cálculos!D160</f>
         <v>10</v>
       </c>
-      <c r="B153" s="286" t="e">
+      <c r="B153" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C153" s="286"/>
-      <c r="D153" s="286"/>
-      <c r="E153" s="286"/>
-      <c r="F153" s="286"/>
-      <c r="G153" s="286"/>
-      <c r="H153" s="286"/>
+      <c r="C153" s="245"/>
+      <c r="D153" s="245"/>
+      <c r="E153" s="245"/>
+      <c r="F153" s="245"/>
+      <c r="G153" s="245"/>
+      <c r="H153" s="245"/>
       <c r="I153" s="95"/>
       <c r="J153" s="95"/>
       <c r="K153" s="95"/>
@@ -47635,16 +47635,16 @@
     </row>
     <row r="154" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="127"/>
-      <c r="B154" s="286" t="e">
+      <c r="B154" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C154" s="286"/>
-      <c r="D154" s="286"/>
-      <c r="E154" s="286"/>
-      <c r="F154" s="286"/>
-      <c r="G154" s="286"/>
-      <c r="H154" s="286"/>
+      <c r="C154" s="245"/>
+      <c r="D154" s="245"/>
+      <c r="E154" s="245"/>
+      <c r="F154" s="245"/>
+      <c r="G154" s="245"/>
+      <c r="H154" s="245"/>
       <c r="I154" s="95"/>
       <c r="J154" s="95"/>
       <c r="K154" s="95"/>
@@ -47661,16 +47661,16 @@
     </row>
     <row r="155" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="126"/>
-      <c r="B155" s="287" t="e">
+      <c r="B155" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C155" s="287"/>
-      <c r="D155" s="287"/>
-      <c r="E155" s="287"/>
-      <c r="F155" s="287"/>
-      <c r="G155" s="287"/>
-      <c r="H155" s="287"/>
+      <c r="C155" s="246"/>
+      <c r="D155" s="246"/>
+      <c r="E155" s="246"/>
+      <c r="F155" s="246"/>
+      <c r="G155" s="246"/>
+      <c r="H155" s="246"/>
       <c r="I155" s="95"/>
       <c r="J155" s="95"/>
       <c r="K155" s="95"/>
@@ -47689,15 +47689,15 @@
       <c r="A156" s="125" t="s">
         <v>352</v>
       </c>
-      <c r="B156" s="289" t="s">
+      <c r="B156" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="289"/>
-      <c r="D156" s="289"/>
-      <c r="E156" s="289"/>
-      <c r="F156" s="289"/>
-      <c r="G156" s="289"/>
-      <c r="H156" s="289"/>
+      <c r="C156" s="284"/>
+      <c r="D156" s="284"/>
+      <c r="E156" s="284"/>
+      <c r="F156" s="284"/>
+      <c r="G156" s="284"/>
+      <c r="H156" s="284"/>
       <c r="I156" s="95"/>
       <c r="J156" s="95"/>
       <c r="K156" s="95"/>
@@ -47713,16 +47713,16 @@
       <c r="U156" s="95"/>
     </row>
     <row r="157" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="286" t="e">
+      <c r="B157" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C157" s="286"/>
-      <c r="D157" s="286"/>
-      <c r="E157" s="286"/>
-      <c r="F157" s="286"/>
-      <c r="G157" s="286"/>
-      <c r="H157" s="286"/>
+      <c r="C157" s="245"/>
+      <c r="D157" s="245"/>
+      <c r="E157" s="245"/>
+      <c r="F157" s="245"/>
+      <c r="G157" s="245"/>
+      <c r="H157" s="245"/>
       <c r="I157" s="95"/>
       <c r="J157" s="95"/>
       <c r="K157" s="95"/>
@@ -47741,16 +47741,16 @@
       <c r="A158" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B158" s="286" t="e">
+      <c r="B158" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C158" s="286"/>
-      <c r="D158" s="286"/>
-      <c r="E158" s="286"/>
-      <c r="F158" s="286"/>
-      <c r="G158" s="286"/>
-      <c r="H158" s="286"/>
+      <c r="C158" s="245"/>
+      <c r="D158" s="245"/>
+      <c r="E158" s="245"/>
+      <c r="F158" s="245"/>
+      <c r="G158" s="245"/>
+      <c r="H158" s="245"/>
       <c r="I158" s="95"/>
       <c r="J158" s="95"/>
       <c r="K158" s="95"/>
@@ -47770,16 +47770,16 @@
         <f>Cálculos!D161</f>
         <v>10</v>
       </c>
-      <c r="B159" s="286" t="e">
+      <c r="B159" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C159" s="286"/>
-      <c r="D159" s="286"/>
-      <c r="E159" s="286"/>
-      <c r="F159" s="286"/>
-      <c r="G159" s="286"/>
-      <c r="H159" s="286"/>
+      <c r="C159" s="245"/>
+      <c r="D159" s="245"/>
+      <c r="E159" s="245"/>
+      <c r="F159" s="245"/>
+      <c r="G159" s="245"/>
+      <c r="H159" s="245"/>
       <c r="I159" s="95"/>
       <c r="J159" s="95"/>
       <c r="K159" s="95"/>
@@ -47796,16 +47796,16 @@
     </row>
     <row r="160" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="127"/>
-      <c r="B160" s="286" t="e">
+      <c r="B160" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C160" s="286"/>
-      <c r="D160" s="286"/>
-      <c r="E160" s="286"/>
-      <c r="F160" s="286"/>
-      <c r="G160" s="286"/>
-      <c r="H160" s="286"/>
+      <c r="C160" s="245"/>
+      <c r="D160" s="245"/>
+      <c r="E160" s="245"/>
+      <c r="F160" s="245"/>
+      <c r="G160" s="245"/>
+      <c r="H160" s="245"/>
       <c r="I160" s="95"/>
       <c r="J160" s="95"/>
       <c r="K160" s="95"/>
@@ -47822,16 +47822,16 @@
     </row>
     <row r="161" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="126"/>
-      <c r="B161" s="287" t="e">
+      <c r="B161" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C161" s="287"/>
-      <c r="D161" s="287"/>
-      <c r="E161" s="287"/>
-      <c r="F161" s="287"/>
-      <c r="G161" s="287"/>
-      <c r="H161" s="287"/>
+      <c r="C161" s="246"/>
+      <c r="D161" s="246"/>
+      <c r="E161" s="246"/>
+      <c r="F161" s="246"/>
+      <c r="G161" s="246"/>
+      <c r="H161" s="246"/>
       <c r="I161" s="95"/>
       <c r="J161" s="95"/>
       <c r="K161" s="95"/>
@@ -47850,15 +47850,15 @@
       <c r="A162" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="B162" s="288" t="s">
+      <c r="B162" s="247" t="s">
         <v>125</v>
       </c>
-      <c r="C162" s="288"/>
-      <c r="D162" s="288"/>
-      <c r="E162" s="288"/>
-      <c r="F162" s="288"/>
-      <c r="G162" s="288"/>
-      <c r="H162" s="288"/>
+      <c r="C162" s="247"/>
+      <c r="D162" s="247"/>
+      <c r="E162" s="247"/>
+      <c r="F162" s="247"/>
+      <c r="G162" s="247"/>
+      <c r="H162" s="247"/>
       <c r="I162" s="95"/>
       <c r="J162" s="95"/>
       <c r="K162" s="95"/>
@@ -47874,16 +47874,16 @@
       <c r="U162" s="95"/>
     </row>
     <row r="163" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="286" t="e">
+      <c r="B163" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C163" s="286"/>
-      <c r="D163" s="286"/>
-      <c r="E163" s="286"/>
-      <c r="F163" s="286"/>
-      <c r="G163" s="286"/>
-      <c r="H163" s="286"/>
+      <c r="C163" s="245"/>
+      <c r="D163" s="245"/>
+      <c r="E163" s="245"/>
+      <c r="F163" s="245"/>
+      <c r="G163" s="245"/>
+      <c r="H163" s="245"/>
       <c r="I163" s="95"/>
       <c r="J163" s="95"/>
       <c r="K163" s="95"/>
@@ -47902,16 +47902,16 @@
       <c r="A164" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B164" s="286" t="e">
+      <c r="B164" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C164" s="286"/>
-      <c r="D164" s="286"/>
-      <c r="E164" s="286"/>
-      <c r="F164" s="286"/>
-      <c r="G164" s="286"/>
-      <c r="H164" s="286"/>
+      <c r="C164" s="245"/>
+      <c r="D164" s="245"/>
+      <c r="E164" s="245"/>
+      <c r="F164" s="245"/>
+      <c r="G164" s="245"/>
+      <c r="H164" s="245"/>
       <c r="I164" s="95"/>
       <c r="J164" s="95"/>
       <c r="K164" s="95"/>
@@ -47931,16 +47931,16 @@
         <f>Cálculos!D162</f>
         <v>10</v>
       </c>
-      <c r="B165" s="286" t="e">
+      <c r="B165" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C165" s="286"/>
-      <c r="D165" s="286"/>
-      <c r="E165" s="286"/>
-      <c r="F165" s="286"/>
-      <c r="G165" s="286"/>
-      <c r="H165" s="286"/>
+      <c r="C165" s="245"/>
+      <c r="D165" s="245"/>
+      <c r="E165" s="245"/>
+      <c r="F165" s="245"/>
+      <c r="G165" s="245"/>
+      <c r="H165" s="245"/>
       <c r="I165" s="95"/>
       <c r="J165" s="95"/>
       <c r="K165" s="95"/>
@@ -47957,16 +47957,16 @@
     </row>
     <row r="166" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="127"/>
-      <c r="B166" s="286" t="e">
+      <c r="B166" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C166" s="286"/>
-      <c r="D166" s="286"/>
-      <c r="E166" s="286"/>
-      <c r="F166" s="286"/>
-      <c r="G166" s="286"/>
-      <c r="H166" s="286"/>
+      <c r="C166" s="245"/>
+      <c r="D166" s="245"/>
+      <c r="E166" s="245"/>
+      <c r="F166" s="245"/>
+      <c r="G166" s="245"/>
+      <c r="H166" s="245"/>
       <c r="I166" s="95"/>
       <c r="J166" s="95"/>
       <c r="K166" s="95"/>
@@ -47983,16 +47983,16 @@
     </row>
     <row r="167" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="126"/>
-      <c r="B167" s="286" t="e">
+      <c r="B167" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C167" s="286"/>
-      <c r="D167" s="286"/>
-      <c r="E167" s="286"/>
-      <c r="F167" s="286"/>
-      <c r="G167" s="286"/>
-      <c r="H167" s="286"/>
+      <c r="C167" s="245"/>
+      <c r="D167" s="245"/>
+      <c r="E167" s="245"/>
+      <c r="F167" s="245"/>
+      <c r="G167" s="245"/>
+      <c r="H167" s="245"/>
       <c r="I167" s="95"/>
       <c r="J167" s="95"/>
       <c r="K167" s="95"/>
@@ -48011,15 +48011,15 @@
       <c r="A168" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="B168" s="287" t="s">
+      <c r="B168" s="246" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="287"/>
-      <c r="D168" s="287"/>
-      <c r="E168" s="287"/>
-      <c r="F168" s="287"/>
-      <c r="G168" s="287"/>
-      <c r="H168" s="287"/>
+      <c r="C168" s="246"/>
+      <c r="D168" s="246"/>
+      <c r="E168" s="246"/>
+      <c r="F168" s="246"/>
+      <c r="G168" s="246"/>
+      <c r="H168" s="246"/>
       <c r="I168" s="95"/>
       <c r="J168" s="95"/>
       <c r="K168" s="95"/>
@@ -48035,16 +48035,16 @@
       <c r="U168" s="95"/>
     </row>
     <row r="169" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="286" t="e">
+      <c r="B169" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C169" s="286"/>
-      <c r="D169" s="286"/>
-      <c r="E169" s="286"/>
-      <c r="F169" s="286"/>
-      <c r="G169" s="286"/>
-      <c r="H169" s="286"/>
+      <c r="C169" s="245"/>
+      <c r="D169" s="245"/>
+      <c r="E169" s="245"/>
+      <c r="F169" s="245"/>
+      <c r="G169" s="245"/>
+      <c r="H169" s="245"/>
       <c r="I169" s="95"/>
       <c r="J169" s="95"/>
       <c r="K169" s="95"/>
@@ -48063,16 +48063,16 @@
       <c r="A170" s="128" t="s">
         <v>365</v>
       </c>
-      <c r="B170" s="286" t="e">
+      <c r="B170" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C170" s="286"/>
-      <c r="D170" s="286"/>
-      <c r="E170" s="286"/>
-      <c r="F170" s="286"/>
-      <c r="G170" s="286"/>
-      <c r="H170" s="286"/>
+      <c r="C170" s="245"/>
+      <c r="D170" s="245"/>
+      <c r="E170" s="245"/>
+      <c r="F170" s="245"/>
+      <c r="G170" s="245"/>
+      <c r="H170" s="245"/>
       <c r="I170" s="95"/>
       <c r="J170" s="95"/>
       <c r="K170" s="95"/>
@@ -48092,16 +48092,16 @@
         <f>Cálculos!#REF! &amp; " (Copy)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B171" s="286" t="e">
+      <c r="B171" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C171" s="286"/>
-      <c r="D171" s="286"/>
-      <c r="E171" s="286"/>
-      <c r="F171" s="286"/>
-      <c r="G171" s="286"/>
-      <c r="H171" s="286"/>
+      <c r="C171" s="245"/>
+      <c r="D171" s="245"/>
+      <c r="E171" s="245"/>
+      <c r="F171" s="245"/>
+      <c r="G171" s="245"/>
+      <c r="H171" s="245"/>
       <c r="I171" s="95"/>
       <c r="J171" s="95"/>
       <c r="K171" s="95"/>
@@ -48121,16 +48121,16 @@
         <f>Cálculos!#REF!&amp; " (DDHH)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B172" s="286" t="e">
+      <c r="B172" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C172" s="286"/>
-      <c r="D172" s="286"/>
-      <c r="E172" s="286"/>
-      <c r="F172" s="286"/>
-      <c r="G172" s="286"/>
-      <c r="H172" s="286"/>
+      <c r="C172" s="245"/>
+      <c r="D172" s="245"/>
+      <c r="E172" s="245"/>
+      <c r="F172" s="245"/>
+      <c r="G172" s="245"/>
+      <c r="H172" s="245"/>
       <c r="I172" s="95"/>
       <c r="J172" s="95"/>
       <c r="K172" s="95"/>
@@ -48147,16 +48147,16 @@
     </row>
     <row r="173" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="126"/>
-      <c r="B173" s="287" t="e">
+      <c r="B173" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C173" s="287"/>
-      <c r="D173" s="287"/>
-      <c r="E173" s="287"/>
-      <c r="F173" s="287"/>
-      <c r="G173" s="287"/>
-      <c r="H173" s="287"/>
+      <c r="C173" s="246"/>
+      <c r="D173" s="246"/>
+      <c r="E173" s="246"/>
+      <c r="F173" s="246"/>
+      <c r="G173" s="246"/>
+      <c r="H173" s="246"/>
       <c r="I173" s="95"/>
       <c r="J173" s="95"/>
       <c r="K173" s="95"/>
@@ -48175,15 +48175,15 @@
       <c r="A174" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="B174" s="288" t="s">
+      <c r="B174" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="C174" s="288"/>
-      <c r="D174" s="288"/>
-      <c r="E174" s="288"/>
-      <c r="F174" s="288"/>
-      <c r="G174" s="288"/>
-      <c r="H174" s="288"/>
+      <c r="C174" s="247"/>
+      <c r="D174" s="247"/>
+      <c r="E174" s="247"/>
+      <c r="F174" s="247"/>
+      <c r="G174" s="247"/>
+      <c r="H174" s="247"/>
       <c r="I174" s="95"/>
       <c r="J174" s="95"/>
       <c r="K174" s="95"/>
@@ -48199,16 +48199,16 @@
       <c r="U174" s="95"/>
     </row>
     <row r="175" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="286" t="e">
+      <c r="B175" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C175" s="286"/>
-      <c r="D175" s="286"/>
-      <c r="E175" s="286"/>
-      <c r="F175" s="286"/>
-      <c r="G175" s="286"/>
-      <c r="H175" s="286"/>
+      <c r="C175" s="245"/>
+      <c r="D175" s="245"/>
+      <c r="E175" s="245"/>
+      <c r="F175" s="245"/>
+      <c r="G175" s="245"/>
+      <c r="H175" s="245"/>
       <c r="I175" s="95"/>
       <c r="J175" s="95"/>
       <c r="K175" s="95"/>
@@ -48227,16 +48227,16 @@
       <c r="A176" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B176" s="286" t="e">
+      <c r="B176" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C176" s="286"/>
-      <c r="D176" s="286"/>
-      <c r="E176" s="286"/>
-      <c r="F176" s="286"/>
-      <c r="G176" s="286"/>
-      <c r="H176" s="286"/>
+      <c r="C176" s="245"/>
+      <c r="D176" s="245"/>
+      <c r="E176" s="245"/>
+      <c r="F176" s="245"/>
+      <c r="G176" s="245"/>
+      <c r="H176" s="245"/>
       <c r="I176" s="95"/>
       <c r="J176" s="95"/>
       <c r="K176" s="95"/>
@@ -48256,16 +48256,16 @@
         <f>Cálculos!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B177" s="286" t="e">
+      <c r="B177" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C177" s="286"/>
-      <c r="D177" s="286"/>
-      <c r="E177" s="286"/>
-      <c r="F177" s="286"/>
-      <c r="G177" s="286"/>
-      <c r="H177" s="286"/>
+      <c r="C177" s="245"/>
+      <c r="D177" s="245"/>
+      <c r="E177" s="245"/>
+      <c r="F177" s="245"/>
+      <c r="G177" s="245"/>
+      <c r="H177" s="245"/>
       <c r="I177" s="95"/>
       <c r="J177" s="95"/>
       <c r="K177" s="95"/>
@@ -48282,16 +48282,16 @@
     </row>
     <row r="178" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="127"/>
-      <c r="B178" s="286" t="e">
+      <c r="B178" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C178" s="286"/>
-      <c r="D178" s="286"/>
-      <c r="E178" s="286"/>
-      <c r="F178" s="286"/>
-      <c r="G178" s="286"/>
-      <c r="H178" s="286"/>
+      <c r="C178" s="245"/>
+      <c r="D178" s="245"/>
+      <c r="E178" s="245"/>
+      <c r="F178" s="245"/>
+      <c r="G178" s="245"/>
+      <c r="H178" s="245"/>
       <c r="I178" s="95"/>
       <c r="J178" s="95"/>
       <c r="K178" s="95"/>
@@ -48308,16 +48308,16 @@
     </row>
     <row r="179" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="126"/>
-      <c r="B179" s="287" t="e">
+      <c r="B179" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C179" s="287"/>
-      <c r="D179" s="287"/>
-      <c r="E179" s="287"/>
-      <c r="F179" s="287"/>
-      <c r="G179" s="287"/>
-      <c r="H179" s="287"/>
+      <c r="C179" s="246"/>
+      <c r="D179" s="246"/>
+      <c r="E179" s="246"/>
+      <c r="F179" s="246"/>
+      <c r="G179" s="246"/>
+      <c r="H179" s="246"/>
       <c r="I179" s="95"/>
       <c r="J179" s="95"/>
       <c r="K179" s="95"/>
@@ -48336,15 +48336,15 @@
       <c r="A180" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="288" t="s">
+      <c r="B180" s="247" t="s">
         <v>128</v>
       </c>
-      <c r="C180" s="288"/>
-      <c r="D180" s="288"/>
-      <c r="E180" s="288"/>
-      <c r="F180" s="288"/>
-      <c r="G180" s="288"/>
-      <c r="H180" s="288"/>
+      <c r="C180" s="247"/>
+      <c r="D180" s="247"/>
+      <c r="E180" s="247"/>
+      <c r="F180" s="247"/>
+      <c r="G180" s="247"/>
+      <c r="H180" s="247"/>
       <c r="I180" s="95"/>
       <c r="J180" s="95"/>
       <c r="K180" s="95"/>
@@ -48360,16 +48360,16 @@
       <c r="U180" s="95"/>
     </row>
     <row r="181" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="286" t="e">
+      <c r="B181" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C181" s="286"/>
-      <c r="D181" s="286"/>
-      <c r="E181" s="286"/>
-      <c r="F181" s="286"/>
-      <c r="G181" s="286"/>
-      <c r="H181" s="286"/>
+      <c r="C181" s="245"/>
+      <c r="D181" s="245"/>
+      <c r="E181" s="245"/>
+      <c r="F181" s="245"/>
+      <c r="G181" s="245"/>
+      <c r="H181" s="245"/>
       <c r="I181" s="95"/>
       <c r="J181" s="95"/>
       <c r="K181" s="95"/>
@@ -48388,16 +48388,16 @@
       <c r="A182" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B182" s="286" t="e">
+      <c r="B182" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C182" s="286"/>
-      <c r="D182" s="286"/>
-      <c r="E182" s="286"/>
-      <c r="F182" s="286"/>
-      <c r="G182" s="286"/>
-      <c r="H182" s="286"/>
+      <c r="C182" s="245"/>
+      <c r="D182" s="245"/>
+      <c r="E182" s="245"/>
+      <c r="F182" s="245"/>
+      <c r="G182" s="245"/>
+      <c r="H182" s="245"/>
       <c r="I182" s="95"/>
       <c r="J182" s="95"/>
       <c r="K182" s="95"/>
@@ -48417,16 +48417,16 @@
         <f>Cálculos!D163</f>
         <v>10</v>
       </c>
-      <c r="B183" s="286" t="e">
+      <c r="B183" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C183" s="286"/>
-      <c r="D183" s="286"/>
-      <c r="E183" s="286"/>
-      <c r="F183" s="286"/>
-      <c r="G183" s="286"/>
-      <c r="H183" s="286"/>
+      <c r="C183" s="245"/>
+      <c r="D183" s="245"/>
+      <c r="E183" s="245"/>
+      <c r="F183" s="245"/>
+      <c r="G183" s="245"/>
+      <c r="H183" s="245"/>
       <c r="I183" s="95"/>
       <c r="J183" s="95"/>
       <c r="K183" s="95"/>
@@ -48443,16 +48443,16 @@
     </row>
     <row r="184" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="127"/>
-      <c r="B184" s="286" t="e">
+      <c r="B184" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C184" s="286"/>
-      <c r="D184" s="286"/>
-      <c r="E184" s="286"/>
-      <c r="F184" s="286"/>
-      <c r="G184" s="286"/>
-      <c r="H184" s="286"/>
+      <c r="C184" s="245"/>
+      <c r="D184" s="245"/>
+      <c r="E184" s="245"/>
+      <c r="F184" s="245"/>
+      <c r="G184" s="245"/>
+      <c r="H184" s="245"/>
       <c r="I184" s="95"/>
       <c r="J184" s="95"/>
       <c r="K184" s="95"/>
@@ -48469,16 +48469,16 @@
     </row>
     <row r="185" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="126"/>
-      <c r="B185" s="287" t="e">
+      <c r="B185" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C185" s="287"/>
-      <c r="D185" s="287"/>
-      <c r="E185" s="287"/>
-      <c r="F185" s="287"/>
-      <c r="G185" s="287"/>
-      <c r="H185" s="287"/>
+      <c r="C185" s="246"/>
+      <c r="D185" s="246"/>
+      <c r="E185" s="246"/>
+      <c r="F185" s="246"/>
+      <c r="G185" s="246"/>
+      <c r="H185" s="246"/>
       <c r="I185" s="95"/>
       <c r="J185" s="95"/>
       <c r="K185" s="95"/>
@@ -48497,15 +48497,15 @@
       <c r="A186" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="B186" s="288" t="s">
+      <c r="B186" s="247" t="s">
         <v>129</v>
       </c>
-      <c r="C186" s="288"/>
-      <c r="D186" s="288"/>
-      <c r="E186" s="288"/>
-      <c r="F186" s="288"/>
-      <c r="G186" s="288"/>
-      <c r="H186" s="288"/>
+      <c r="C186" s="247"/>
+      <c r="D186" s="247"/>
+      <c r="E186" s="247"/>
+      <c r="F186" s="247"/>
+      <c r="G186" s="247"/>
+      <c r="H186" s="247"/>
       <c r="I186" s="95"/>
       <c r="J186" s="95"/>
       <c r="K186" s="95"/>
@@ -48521,16 +48521,16 @@
       <c r="U186" s="95"/>
     </row>
     <row r="187" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="286" t="e">
+      <c r="B187" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C187" s="286"/>
-      <c r="D187" s="286"/>
-      <c r="E187" s="286"/>
-      <c r="F187" s="286"/>
-      <c r="G187" s="286"/>
-      <c r="H187" s="286"/>
+      <c r="C187" s="245"/>
+      <c r="D187" s="245"/>
+      <c r="E187" s="245"/>
+      <c r="F187" s="245"/>
+      <c r="G187" s="245"/>
+      <c r="H187" s="245"/>
       <c r="I187" s="95"/>
       <c r="J187" s="95"/>
       <c r="K187" s="95"/>
@@ -48549,16 +48549,16 @@
       <c r="A188" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B188" s="286" t="e">
+      <c r="B188" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C188" s="286"/>
-      <c r="D188" s="286"/>
-      <c r="E188" s="286"/>
-      <c r="F188" s="286"/>
-      <c r="G188" s="286"/>
-      <c r="H188" s="286"/>
+      <c r="C188" s="245"/>
+      <c r="D188" s="245"/>
+      <c r="E188" s="245"/>
+      <c r="F188" s="245"/>
+      <c r="G188" s="245"/>
+      <c r="H188" s="245"/>
       <c r="I188" s="95"/>
       <c r="J188" s="95"/>
       <c r="K188" s="95"/>
@@ -48578,16 +48578,16 @@
         <f>Cálculos!D164</f>
         <v>10</v>
       </c>
-      <c r="B189" s="286" t="e">
+      <c r="B189" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C189" s="286"/>
-      <c r="D189" s="286"/>
-      <c r="E189" s="286"/>
-      <c r="F189" s="286"/>
-      <c r="G189" s="286"/>
-      <c r="H189" s="286"/>
+      <c r="C189" s="245"/>
+      <c r="D189" s="245"/>
+      <c r="E189" s="245"/>
+      <c r="F189" s="245"/>
+      <c r="G189" s="245"/>
+      <c r="H189" s="245"/>
       <c r="I189" s="95"/>
       <c r="J189" s="95"/>
       <c r="K189" s="95"/>
@@ -48604,16 +48604,16 @@
     </row>
     <row r="190" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="127"/>
-      <c r="B190" s="286" t="e">
+      <c r="B190" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C190" s="286"/>
-      <c r="D190" s="286"/>
-      <c r="E190" s="286"/>
-      <c r="F190" s="286"/>
-      <c r="G190" s="286"/>
-      <c r="H190" s="286"/>
+      <c r="C190" s="245"/>
+      <c r="D190" s="245"/>
+      <c r="E190" s="245"/>
+      <c r="F190" s="245"/>
+      <c r="G190" s="245"/>
+      <c r="H190" s="245"/>
       <c r="I190" s="95"/>
       <c r="J190" s="95"/>
       <c r="K190" s="95"/>
@@ -48630,16 +48630,16 @@
     </row>
     <row r="191" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="126"/>
-      <c r="B191" s="287" t="e">
+      <c r="B191" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C191" s="287"/>
-      <c r="D191" s="287"/>
-      <c r="E191" s="287"/>
-      <c r="F191" s="287"/>
-      <c r="G191" s="287"/>
-      <c r="H191" s="287"/>
+      <c r="C191" s="246"/>
+      <c r="D191" s="246"/>
+      <c r="E191" s="246"/>
+      <c r="F191" s="246"/>
+      <c r="G191" s="246"/>
+      <c r="H191" s="246"/>
       <c r="I191" s="95"/>
       <c r="J191" s="95"/>
       <c r="K191" s="95"/>
@@ -48658,15 +48658,15 @@
       <c r="A192" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="B192" s="288" t="s">
+      <c r="B192" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="C192" s="288"/>
-      <c r="D192" s="288"/>
-      <c r="E192" s="288"/>
-      <c r="F192" s="288"/>
-      <c r="G192" s="288"/>
-      <c r="H192" s="288"/>
+      <c r="C192" s="247"/>
+      <c r="D192" s="247"/>
+      <c r="E192" s="247"/>
+      <c r="F192" s="247"/>
+      <c r="G192" s="247"/>
+      <c r="H192" s="247"/>
       <c r="I192" s="95"/>
       <c r="J192" s="95"/>
       <c r="K192" s="95"/>
@@ -48682,16 +48682,16 @@
       <c r="U192" s="95"/>
     </row>
     <row r="193" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="286" t="e">
+      <c r="B193" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C193" s="286"/>
-      <c r="D193" s="286"/>
-      <c r="E193" s="286"/>
-      <c r="F193" s="286"/>
-      <c r="G193" s="286"/>
-      <c r="H193" s="286"/>
+      <c r="C193" s="245"/>
+      <c r="D193" s="245"/>
+      <c r="E193" s="245"/>
+      <c r="F193" s="245"/>
+      <c r="G193" s="245"/>
+      <c r="H193" s="245"/>
       <c r="I193" s="95"/>
       <c r="J193" s="95"/>
       <c r="K193" s="95"/>
@@ -48710,16 +48710,16 @@
       <c r="A194" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B194" s="286" t="e">
+      <c r="B194" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C194" s="286"/>
-      <c r="D194" s="286"/>
-      <c r="E194" s="286"/>
-      <c r="F194" s="286"/>
-      <c r="G194" s="286"/>
-      <c r="H194" s="286"/>
+      <c r="C194" s="245"/>
+      <c r="D194" s="245"/>
+      <c r="E194" s="245"/>
+      <c r="F194" s="245"/>
+      <c r="G194" s="245"/>
+      <c r="H194" s="245"/>
       <c r="I194" s="95"/>
       <c r="J194" s="95"/>
       <c r="K194" s="95"/>
@@ -48739,16 +48739,16 @@
         <f>Cálculos!D165</f>
         <v>10</v>
       </c>
-      <c r="B195" s="286" t="e">
+      <c r="B195" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C195" s="286"/>
-      <c r="D195" s="286"/>
-      <c r="E195" s="286"/>
-      <c r="F195" s="286"/>
-      <c r="G195" s="286"/>
-      <c r="H195" s="286"/>
+      <c r="C195" s="245"/>
+      <c r="D195" s="245"/>
+      <c r="E195" s="245"/>
+      <c r="F195" s="245"/>
+      <c r="G195" s="245"/>
+      <c r="H195" s="245"/>
       <c r="I195" s="95"/>
       <c r="J195" s="95"/>
       <c r="K195" s="95"/>
@@ -48765,16 +48765,16 @@
     </row>
     <row r="196" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="127"/>
-      <c r="B196" s="286" t="e">
+      <c r="B196" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C196" s="286"/>
-      <c r="D196" s="286"/>
-      <c r="E196" s="286"/>
-      <c r="F196" s="286"/>
-      <c r="G196" s="286"/>
-      <c r="H196" s="286"/>
+      <c r="C196" s="245"/>
+      <c r="D196" s="245"/>
+      <c r="E196" s="245"/>
+      <c r="F196" s="245"/>
+      <c r="G196" s="245"/>
+      <c r="H196" s="245"/>
       <c r="I196" s="95"/>
       <c r="J196" s="95"/>
       <c r="K196" s="95"/>
@@ -48791,16 +48791,16 @@
     </row>
     <row r="197" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="126"/>
-      <c r="B197" s="286" t="e">
+      <c r="B197" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C197" s="286"/>
-      <c r="D197" s="286"/>
-      <c r="E197" s="286"/>
-      <c r="F197" s="286"/>
-      <c r="G197" s="286"/>
-      <c r="H197" s="286"/>
+      <c r="C197" s="245"/>
+      <c r="D197" s="245"/>
+      <c r="E197" s="245"/>
+      <c r="F197" s="245"/>
+      <c r="G197" s="245"/>
+      <c r="H197" s="245"/>
       <c r="I197" s="95"/>
       <c r="J197" s="95"/>
       <c r="K197" s="95"/>
@@ -48819,15 +48819,15 @@
       <c r="A198" s="126" t="s">
         <v>359</v>
       </c>
-      <c r="B198" s="287" t="s">
+      <c r="B198" s="246" t="s">
         <v>131</v>
       </c>
-      <c r="C198" s="287"/>
-      <c r="D198" s="287"/>
-      <c r="E198" s="287"/>
-      <c r="F198" s="287"/>
-      <c r="G198" s="287"/>
-      <c r="H198" s="287"/>
+      <c r="C198" s="246"/>
+      <c r="D198" s="246"/>
+      <c r="E198" s="246"/>
+      <c r="F198" s="246"/>
+      <c r="G198" s="246"/>
+      <c r="H198" s="246"/>
       <c r="I198" s="95"/>
       <c r="J198" s="95"/>
       <c r="K198" s="95"/>
@@ -48843,16 +48843,16 @@
       <c r="U198" s="95"/>
     </row>
     <row r="199" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="286" t="e">
+      <c r="B199" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C199" s="286"/>
-      <c r="D199" s="286"/>
-      <c r="E199" s="286"/>
-      <c r="F199" s="286"/>
-      <c r="G199" s="286"/>
-      <c r="H199" s="286"/>
+      <c r="C199" s="245"/>
+      <c r="D199" s="245"/>
+      <c r="E199" s="245"/>
+      <c r="F199" s="245"/>
+      <c r="G199" s="245"/>
+      <c r="H199" s="245"/>
       <c r="I199" s="95"/>
       <c r="J199" s="95"/>
       <c r="K199" s="95"/>
@@ -48871,16 +48871,16 @@
       <c r="A200" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B200" s="286" t="e">
+      <c r="B200" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C200" s="286"/>
-      <c r="D200" s="286"/>
-      <c r="E200" s="286"/>
-      <c r="F200" s="286"/>
-      <c r="G200" s="286"/>
-      <c r="H200" s="286"/>
+      <c r="C200" s="245"/>
+      <c r="D200" s="245"/>
+      <c r="E200" s="245"/>
+      <c r="F200" s="245"/>
+      <c r="G200" s="245"/>
+      <c r="H200" s="245"/>
       <c r="I200" s="95"/>
       <c r="J200" s="95"/>
       <c r="K200" s="95"/>
@@ -48900,16 +48900,16 @@
         <f>Cálculos!D166</f>
         <v>10</v>
       </c>
-      <c r="B201" s="286" t="e">
+      <c r="B201" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C201" s="286"/>
-      <c r="D201" s="286"/>
-      <c r="E201" s="286"/>
-      <c r="F201" s="286"/>
-      <c r="G201" s="286"/>
-      <c r="H201" s="286"/>
+      <c r="C201" s="245"/>
+      <c r="D201" s="245"/>
+      <c r="E201" s="245"/>
+      <c r="F201" s="245"/>
+      <c r="G201" s="245"/>
+      <c r="H201" s="245"/>
       <c r="I201" s="95"/>
       <c r="J201" s="95"/>
       <c r="K201" s="95"/>
@@ -48926,16 +48926,16 @@
     </row>
     <row r="202" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="127"/>
-      <c r="B202" s="286" t="e">
+      <c r="B202" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C202" s="286"/>
-      <c r="D202" s="286"/>
-      <c r="E202" s="286"/>
-      <c r="F202" s="286"/>
-      <c r="G202" s="286"/>
-      <c r="H202" s="286"/>
+      <c r="C202" s="245"/>
+      <c r="D202" s="245"/>
+      <c r="E202" s="245"/>
+      <c r="F202" s="245"/>
+      <c r="G202" s="245"/>
+      <c r="H202" s="245"/>
       <c r="I202" s="95"/>
       <c r="J202" s="95"/>
       <c r="K202" s="95"/>
@@ -48952,16 +48952,16 @@
     </row>
     <row r="203" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="126"/>
-      <c r="B203" s="286" t="e">
+      <c r="B203" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C203" s="286"/>
-      <c r="D203" s="286"/>
-      <c r="E203" s="286"/>
-      <c r="F203" s="286"/>
-      <c r="G203" s="286"/>
-      <c r="H203" s="286"/>
+      <c r="C203" s="245"/>
+      <c r="D203" s="245"/>
+      <c r="E203" s="245"/>
+      <c r="F203" s="245"/>
+      <c r="G203" s="245"/>
+      <c r="H203" s="245"/>
       <c r="I203" s="95"/>
       <c r="J203" s="95"/>
       <c r="K203" s="95"/>
@@ -48980,15 +48980,15 @@
       <c r="A204" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="B204" s="287" t="s">
+      <c r="B204" s="246" t="s">
         <v>132</v>
       </c>
-      <c r="C204" s="287"/>
-      <c r="D204" s="287"/>
-      <c r="E204" s="287"/>
-      <c r="F204" s="287"/>
-      <c r="G204" s="287"/>
-      <c r="H204" s="287"/>
+      <c r="C204" s="246"/>
+      <c r="D204" s="246"/>
+      <c r="E204" s="246"/>
+      <c r="F204" s="246"/>
+      <c r="G204" s="246"/>
+      <c r="H204" s="246"/>
       <c r="I204" s="95"/>
       <c r="J204" s="95"/>
       <c r="K204" s="95"/>
@@ -49004,16 +49004,16 @@
       <c r="U204" s="95"/>
     </row>
     <row r="205" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="286" t="e">
+      <c r="B205" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C205" s="286"/>
-      <c r="D205" s="286"/>
-      <c r="E205" s="286"/>
-      <c r="F205" s="286"/>
-      <c r="G205" s="286"/>
-      <c r="H205" s="286"/>
+      <c r="C205" s="245"/>
+      <c r="D205" s="245"/>
+      <c r="E205" s="245"/>
+      <c r="F205" s="245"/>
+      <c r="G205" s="245"/>
+      <c r="H205" s="245"/>
       <c r="I205" s="95"/>
       <c r="J205" s="95"/>
       <c r="K205" s="95"/>
@@ -49032,16 +49032,16 @@
       <c r="A206" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B206" s="286" t="e">
+      <c r="B206" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C206" s="286"/>
-      <c r="D206" s="286"/>
-      <c r="E206" s="286"/>
-      <c r="F206" s="286"/>
-      <c r="G206" s="286"/>
-      <c r="H206" s="286"/>
+      <c r="C206" s="245"/>
+      <c r="D206" s="245"/>
+      <c r="E206" s="245"/>
+      <c r="F206" s="245"/>
+      <c r="G206" s="245"/>
+      <c r="H206" s="245"/>
       <c r="I206" s="95"/>
       <c r="J206" s="95"/>
       <c r="K206" s="95"/>
@@ -49061,16 +49061,16 @@
         <f>Cálculos!D167</f>
         <v>10</v>
       </c>
-      <c r="B207" s="286" t="e">
+      <c r="B207" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C207" s="286"/>
-      <c r="D207" s="286"/>
-      <c r="E207" s="286"/>
-      <c r="F207" s="286"/>
-      <c r="G207" s="286"/>
-      <c r="H207" s="286"/>
+      <c r="C207" s="245"/>
+      <c r="D207" s="245"/>
+      <c r="E207" s="245"/>
+      <c r="F207" s="245"/>
+      <c r="G207" s="245"/>
+      <c r="H207" s="245"/>
       <c r="I207" s="95"/>
       <c r="J207" s="95"/>
       <c r="K207" s="95"/>
@@ -49087,16 +49087,16 @@
     </row>
     <row r="208" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="127"/>
-      <c r="B208" s="286" t="e">
+      <c r="B208" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C208" s="286"/>
-      <c r="D208" s="286"/>
-      <c r="E208" s="286"/>
-      <c r="F208" s="286"/>
-      <c r="G208" s="286"/>
-      <c r="H208" s="286"/>
+      <c r="C208" s="245"/>
+      <c r="D208" s="245"/>
+      <c r="E208" s="245"/>
+      <c r="F208" s="245"/>
+      <c r="G208" s="245"/>
+      <c r="H208" s="245"/>
       <c r="I208" s="95"/>
       <c r="J208" s="95"/>
       <c r="K208" s="95"/>
@@ -49113,16 +49113,16 @@
     </row>
     <row r="209" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="126"/>
-      <c r="B209" s="286" t="e">
+      <c r="B209" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C209" s="286"/>
-      <c r="D209" s="286"/>
-      <c r="E209" s="286"/>
-      <c r="F209" s="286"/>
-      <c r="G209" s="286"/>
-      <c r="H209" s="286"/>
+      <c r="C209" s="245"/>
+      <c r="D209" s="245"/>
+      <c r="E209" s="245"/>
+      <c r="F209" s="245"/>
+      <c r="G209" s="245"/>
+      <c r="H209" s="245"/>
       <c r="I209" s="95"/>
       <c r="J209" s="95"/>
       <c r="K209" s="95"/>
@@ -49141,15 +49141,15 @@
       <c r="A210" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="B210" s="287" t="s">
+      <c r="B210" s="246" t="s">
         <v>133</v>
       </c>
-      <c r="C210" s="287"/>
-      <c r="D210" s="287"/>
-      <c r="E210" s="287"/>
-      <c r="F210" s="287"/>
-      <c r="G210" s="287"/>
-      <c r="H210" s="287"/>
+      <c r="C210" s="246"/>
+      <c r="D210" s="246"/>
+      <c r="E210" s="246"/>
+      <c r="F210" s="246"/>
+      <c r="G210" s="246"/>
+      <c r="H210" s="246"/>
       <c r="I210" s="95"/>
       <c r="J210" s="95"/>
       <c r="K210" s="95"/>
@@ -49165,16 +49165,16 @@
       <c r="U210" s="95"/>
     </row>
     <row r="211" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="286" t="e">
+      <c r="B211" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C211" s="286"/>
-      <c r="D211" s="286"/>
-      <c r="E211" s="286"/>
-      <c r="F211" s="286"/>
-      <c r="G211" s="286"/>
-      <c r="H211" s="286"/>
+      <c r="C211" s="245"/>
+      <c r="D211" s="245"/>
+      <c r="E211" s="245"/>
+      <c r="F211" s="245"/>
+      <c r="G211" s="245"/>
+      <c r="H211" s="245"/>
       <c r="I211" s="95"/>
       <c r="J211" s="95"/>
       <c r="K211" s="95"/>
@@ -49193,16 +49193,16 @@
       <c r="A212" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B212" s="286" t="e">
+      <c r="B212" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C212" s="286"/>
-      <c r="D212" s="286"/>
-      <c r="E212" s="286"/>
-      <c r="F212" s="286"/>
-      <c r="G212" s="286"/>
-      <c r="H212" s="286"/>
+      <c r="C212" s="245"/>
+      <c r="D212" s="245"/>
+      <c r="E212" s="245"/>
+      <c r="F212" s="245"/>
+      <c r="G212" s="245"/>
+      <c r="H212" s="245"/>
       <c r="I212" s="95"/>
       <c r="J212" s="95"/>
       <c r="K212" s="95"/>
@@ -49222,16 +49222,16 @@
         <f>Cálculos!D168</f>
         <v>5</v>
       </c>
-      <c r="B213" s="286" t="e">
+      <c r="B213" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C213" s="286"/>
-      <c r="D213" s="286"/>
-      <c r="E213" s="286"/>
-      <c r="F213" s="286"/>
-      <c r="G213" s="286"/>
-      <c r="H213" s="286"/>
+      <c r="C213" s="245"/>
+      <c r="D213" s="245"/>
+      <c r="E213" s="245"/>
+      <c r="F213" s="245"/>
+      <c r="G213" s="245"/>
+      <c r="H213" s="245"/>
       <c r="I213" s="95"/>
       <c r="J213" s="95"/>
       <c r="K213" s="95"/>
@@ -49248,16 +49248,16 @@
     </row>
     <row r="214" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="127"/>
-      <c r="B214" s="286" t="e">
+      <c r="B214" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C214" s="286"/>
-      <c r="D214" s="286"/>
-      <c r="E214" s="286"/>
-      <c r="F214" s="286"/>
-      <c r="G214" s="286"/>
-      <c r="H214" s="286"/>
+      <c r="C214" s="245"/>
+      <c r="D214" s="245"/>
+      <c r="E214" s="245"/>
+      <c r="F214" s="245"/>
+      <c r="G214" s="245"/>
+      <c r="H214" s="245"/>
       <c r="I214" s="95"/>
       <c r="J214" s="95"/>
       <c r="K214" s="95"/>
@@ -49274,16 +49274,16 @@
     </row>
     <row r="215" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="126"/>
-      <c r="B215" s="286" t="e">
+      <c r="B215" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C215" s="286"/>
-      <c r="D215" s="286"/>
-      <c r="E215" s="286"/>
-      <c r="F215" s="286"/>
-      <c r="G215" s="286"/>
-      <c r="H215" s="286"/>
+      <c r="C215" s="245"/>
+      <c r="D215" s="245"/>
+      <c r="E215" s="245"/>
+      <c r="F215" s="245"/>
+      <c r="G215" s="245"/>
+      <c r="H215" s="245"/>
       <c r="I215" s="95"/>
       <c r="J215" s="95"/>
       <c r="K215" s="95"/>
@@ -49302,15 +49302,15 @@
       <c r="A216" s="126" t="s">
         <v>362</v>
       </c>
-      <c r="B216" s="287" t="s">
+      <c r="B216" s="246" t="s">
         <v>363</v>
       </c>
-      <c r="C216" s="287"/>
-      <c r="D216" s="287"/>
-      <c r="E216" s="287"/>
-      <c r="F216" s="287"/>
-      <c r="G216" s="287"/>
-      <c r="H216" s="287"/>
+      <c r="C216" s="246"/>
+      <c r="D216" s="246"/>
+      <c r="E216" s="246"/>
+      <c r="F216" s="246"/>
+      <c r="G216" s="246"/>
+      <c r="H216" s="246"/>
       <c r="I216" s="95"/>
       <c r="J216" s="95"/>
       <c r="K216" s="95"/>
@@ -49326,16 +49326,16 @@
       <c r="U216" s="95"/>
     </row>
     <row r="217" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="286" t="e">
+      <c r="B217" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C217" s="286"/>
-      <c r="D217" s="286"/>
-      <c r="E217" s="286"/>
-      <c r="F217" s="286"/>
-      <c r="G217" s="286"/>
-      <c r="H217" s="286"/>
+      <c r="C217" s="245"/>
+      <c r="D217" s="245"/>
+      <c r="E217" s="245"/>
+      <c r="F217" s="245"/>
+      <c r="G217" s="245"/>
+      <c r="H217" s="245"/>
       <c r="I217" s="95"/>
       <c r="J217" s="95"/>
       <c r="K217" s="95"/>
@@ -49354,16 +49354,16 @@
       <c r="A218" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B218" s="286" t="e">
+      <c r="B218" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C218" s="286"/>
-      <c r="D218" s="286"/>
-      <c r="E218" s="286"/>
-      <c r="F218" s="286"/>
-      <c r="G218" s="286"/>
-      <c r="H218" s="286"/>
+      <c r="C218" s="245"/>
+      <c r="D218" s="245"/>
+      <c r="E218" s="245"/>
+      <c r="F218" s="245"/>
+      <c r="G218" s="245"/>
+      <c r="H218" s="245"/>
       <c r="I218" s="95"/>
       <c r="J218" s="95"/>
       <c r="K218" s="95"/>
@@ -49383,16 +49383,16 @@
         <f>Cálculos!D169</f>
         <v>N/A</v>
       </c>
-      <c r="B219" s="286" t="e">
+      <c r="B219" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C219" s="286"/>
-      <c r="D219" s="286"/>
-      <c r="E219" s="286"/>
-      <c r="F219" s="286"/>
-      <c r="G219" s="286"/>
-      <c r="H219" s="286"/>
+      <c r="C219" s="245"/>
+      <c r="D219" s="245"/>
+      <c r="E219" s="245"/>
+      <c r="F219" s="245"/>
+      <c r="G219" s="245"/>
+      <c r="H219" s="245"/>
       <c r="I219" s="95"/>
       <c r="J219" s="95"/>
       <c r="K219" s="95"/>
@@ -49409,16 +49409,16 @@
     </row>
     <row r="220" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="127"/>
-      <c r="B220" s="286" t="e">
+      <c r="B220" s="245" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C220" s="286"/>
-      <c r="D220" s="286"/>
-      <c r="E220" s="286"/>
-      <c r="F220" s="286"/>
-      <c r="G220" s="286"/>
-      <c r="H220" s="286"/>
+      <c r="C220" s="245"/>
+      <c r="D220" s="245"/>
+      <c r="E220" s="245"/>
+      <c r="F220" s="245"/>
+      <c r="G220" s="245"/>
+      <c r="H220" s="245"/>
       <c r="I220" s="95"/>
       <c r="J220" s="95"/>
       <c r="K220" s="95"/>
@@ -49435,16 +49435,16 @@
     </row>
     <row r="221" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="126"/>
-      <c r="B221" s="287" t="e">
+      <c r="B221" s="246" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C221" s="287"/>
-      <c r="D221" s="287"/>
-      <c r="E221" s="287"/>
-      <c r="F221" s="287"/>
-      <c r="G221" s="287"/>
-      <c r="H221" s="287"/>
+      <c r="C221" s="246"/>
+      <c r="D221" s="246"/>
+      <c r="E221" s="246"/>
+      <c r="F221" s="246"/>
+      <c r="G221" s="246"/>
+      <c r="H221" s="246"/>
       <c r="I221" s="95"/>
       <c r="J221" s="95"/>
       <c r="K221" s="95"/>
@@ -49742,21 +49742,21 @@
       <c r="U233" s="95"/>
     </row>
     <row r="234" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="208" t="s">
+      <c r="A234" s="214" t="s">
         <v>555</v>
       </c>
-      <c r="B234" s="208"/>
-      <c r="C234" s="273" t="s">
+      <c r="B234" s="214"/>
+      <c r="C234" s="292" t="s">
         <v>556</v>
       </c>
-      <c r="D234" s="273"/>
-      <c r="E234" s="273">
+      <c r="D234" s="292"/>
+      <c r="E234" s="292">
         <f>'Resultados Informe Final'!D3</f>
         <v>10</v>
       </c>
-      <c r="F234" s="273"/>
-      <c r="G234" s="273"/>
-      <c r="H234" s="273"/>
+      <c r="F234" s="292"/>
+      <c r="G234" s="292"/>
+      <c r="H234" s="292"/>
       <c r="I234" s="95"/>
       <c r="J234" s="95"/>
       <c r="K234" s="95"/>
@@ -49772,19 +49772,19 @@
       <c r="U234" s="95"/>
     </row>
     <row r="235" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="208"/>
-      <c r="B235" s="208"/>
-      <c r="C235" s="273" t="s">
+      <c r="A235" s="214"/>
+      <c r="B235" s="214"/>
+      <c r="C235" s="292" t="s">
         <v>557</v>
       </c>
-      <c r="D235" s="273"/>
-      <c r="E235" s="273" t="str">
+      <c r="D235" s="292"/>
+      <c r="E235" s="292" t="str">
         <f>'Resultados Informe Final'!D4</f>
         <v>Mejoras en: motivación, dinámica de la clase, actitud hacia el estudio, integración, aprendizaje, mejora de los resultados académicos. La herramienta ha sido muy útil, indispensable no sería el término adecuado.</v>
       </c>
-      <c r="F235" s="273"/>
-      <c r="G235" s="273"/>
-      <c r="H235" s="273"/>
+      <c r="F235" s="292"/>
+      <c r="G235" s="292"/>
+      <c r="H235" s="292"/>
       <c r="I235" s="95"/>
       <c r="J235" s="95"/>
       <c r="K235" s="95"/>
@@ -49800,21 +49800,21 @@
       <c r="U235" s="95"/>
     </row>
     <row r="236" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="208" t="s">
+      <c r="A236" s="214" t="s">
         <v>558</v>
       </c>
-      <c r="B236" s="208"/>
-      <c r="C236" s="273" t="s">
+      <c r="B236" s="214"/>
+      <c r="C236" s="292" t="s">
         <v>559</v>
       </c>
-      <c r="D236" s="273"/>
-      <c r="E236" s="273">
+      <c r="D236" s="292"/>
+      <c r="E236" s="292">
         <f>'Resultados Informe Final'!D5</f>
         <v>10</v>
       </c>
-      <c r="F236" s="273"/>
-      <c r="G236" s="273"/>
-      <c r="H236" s="273"/>
+      <c r="F236" s="292"/>
+      <c r="G236" s="292"/>
+      <c r="H236" s="292"/>
       <c r="I236" s="95"/>
       <c r="J236" s="95"/>
       <c r="K236" s="95"/>
@@ -49830,19 +49830,19 @@
       <c r="U236" s="95"/>
     </row>
     <row r="237" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="208"/>
-      <c r="B237" s="208"/>
-      <c r="C237" s="273" t="s">
+      <c r="A237" s="214"/>
+      <c r="B237" s="214"/>
+      <c r="C237" s="292" t="s">
         <v>560</v>
       </c>
-      <c r="D237" s="273"/>
-      <c r="E237" s="273" t="str">
+      <c r="D237" s="292"/>
+      <c r="E237" s="292" t="str">
         <f>'Resultados Informe Final'!D6</f>
         <v>Todo ha funcionado perfectamente, incluso ha superado mis expectativas. La herramienta ha funcionado sin ningún problema. Concretamente, la herramienta utilizada ha sido el juego del Proyecto AJDA 'CRASH. 4 EQUIPOS'. Proceso en el aula: se carga la página web de la herramienta, se cargan la configuración de la partida y el fichero de preguntas. Se desarrolla el juego. Se guardan los resultados. Todo muy fácil, rápido y ágil.</v>
       </c>
-      <c r="F237" s="273"/>
-      <c r="G237" s="273"/>
-      <c r="H237" s="273"/>
+      <c r="F237" s="292"/>
+      <c r="G237" s="292"/>
+      <c r="H237" s="292"/>
       <c r="I237" s="95"/>
       <c r="J237" s="95"/>
       <c r="K237" s="95"/>
@@ -49858,21 +49858,21 @@
       <c r="U237" s="95"/>
     </row>
     <row r="238" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="208" t="s">
+      <c r="A238" s="214" t="s">
         <v>561</v>
       </c>
-      <c r="B238" s="208"/>
-      <c r="C238" s="273" t="s">
+      <c r="B238" s="214"/>
+      <c r="C238" s="292" t="s">
         <v>562</v>
       </c>
-      <c r="D238" s="273"/>
-      <c r="E238" s="273">
+      <c r="D238" s="292"/>
+      <c r="E238" s="292">
         <f>'Resultados Informe Final'!D7</f>
         <v>10</v>
       </c>
-      <c r="F238" s="273"/>
-      <c r="G238" s="273"/>
-      <c r="H238" s="273"/>
+      <c r="F238" s="292"/>
+      <c r="G238" s="292"/>
+      <c r="H238" s="292"/>
       <c r="I238" s="95"/>
       <c r="J238" s="95"/>
       <c r="K238" s="95"/>
@@ -49888,19 +49888,19 @@
       <c r="U238" s="95"/>
     </row>
     <row r="239" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="208"/>
-      <c r="B239" s="208"/>
-      <c r="C239" s="273" t="s">
+      <c r="A239" s="214"/>
+      <c r="B239" s="214"/>
+      <c r="C239" s="292" t="s">
         <v>563</v>
       </c>
-      <c r="D239" s="273"/>
-      <c r="E239" s="273" t="str">
+      <c r="D239" s="292"/>
+      <c r="E239" s="292" t="str">
         <f>'Resultados Informe Final'!D8</f>
         <v>Los resultados han sido estupendos en todos los sentidos y lógicamente puede ser empleada en otras experiencias, aunque normalmente suele dar mejor resultado cambiar el juego por otro diferente del Proyecto AJDA.</v>
       </c>
-      <c r="F239" s="273"/>
-      <c r="G239" s="273"/>
-      <c r="H239" s="273"/>
+      <c r="F239" s="292"/>
+      <c r="G239" s="292"/>
+      <c r="H239" s="292"/>
       <c r="I239" s="95"/>
       <c r="J239" s="95"/>
       <c r="K239" s="95"/>
@@ -49916,21 +49916,21 @@
       <c r="U239" s="95"/>
     </row>
     <row r="240" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="274" t="s">
+      <c r="A240" s="291" t="s">
         <v>564</v>
       </c>
-      <c r="B240" s="274"/>
-      <c r="C240" s="273" t="s">
+      <c r="B240" s="291"/>
+      <c r="C240" s="292" t="s">
         <v>618</v>
       </c>
-      <c r="D240" s="273"/>
-      <c r="E240" s="273">
+      <c r="D240" s="292"/>
+      <c r="E240" s="292">
         <f>'Resultados Informe Final'!D9</f>
         <v>10</v>
       </c>
-      <c r="F240" s="273"/>
-      <c r="G240" s="273"/>
-      <c r="H240" s="273"/>
+      <c r="F240" s="292"/>
+      <c r="G240" s="292"/>
+      <c r="H240" s="292"/>
       <c r="I240" s="95"/>
       <c r="J240" s="95"/>
       <c r="K240" s="95"/>
@@ -49946,19 +49946,19 @@
       <c r="U240" s="95"/>
     </row>
     <row r="241" spans="1:21" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="274"/>
-      <c r="B241" s="274"/>
-      <c r="C241" s="273" t="s">
+      <c r="A241" s="291"/>
+      <c r="B241" s="291"/>
+      <c r="C241" s="292" t="s">
         <v>565</v>
       </c>
-      <c r="D241" s="273"/>
-      <c r="E241" s="273" t="str">
+      <c r="D241" s="292"/>
+      <c r="E241" s="292" t="str">
         <f>'Resultados Informe Final'!D10</f>
         <v>Todo bajo control. La herramienta lo ha permitido llevar el transcurso de la partida perfectamente, ya que permite que el profesor controle el transcurso de la misma, sus tiempos, grabar los resultados o la partida completa en cualquier momento.</v>
       </c>
-      <c r="F241" s="273"/>
-      <c r="G241" s="273"/>
-      <c r="H241" s="273"/>
+      <c r="F241" s="292"/>
+      <c r="G241" s="292"/>
+      <c r="H241" s="292"/>
       <c r="I241" s="95"/>
       <c r="J241" s="95"/>
       <c r="K241" s="95"/>
@@ -49974,21 +49974,21 @@
       <c r="U241" s="95"/>
     </row>
     <row r="242" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="208" t="s">
+      <c r="A242" s="214" t="s">
         <v>566</v>
       </c>
-      <c r="B242" s="208"/>
-      <c r="C242" s="273" t="s">
+      <c r="B242" s="214"/>
+      <c r="C242" s="292" t="s">
         <v>619</v>
       </c>
-      <c r="D242" s="273"/>
-      <c r="E242" s="273">
+      <c r="D242" s="292"/>
+      <c r="E242" s="292">
         <f>'Resultados Informe Final'!D11</f>
         <v>10</v>
       </c>
-      <c r="F242" s="273"/>
-      <c r="G242" s="273"/>
-      <c r="H242" s="273"/>
+      <c r="F242" s="292"/>
+      <c r="G242" s="292"/>
+      <c r="H242" s="292"/>
       <c r="I242" s="95"/>
       <c r="J242" s="95"/>
       <c r="K242" s="95"/>
@@ -50004,19 +50004,19 @@
       <c r="U242" s="95"/>
     </row>
     <row r="243" spans="1:21" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="208"/>
-      <c r="B243" s="208"/>
-      <c r="C243" s="273" t="s">
+      <c r="A243" s="214"/>
+      <c r="B243" s="214"/>
+      <c r="C243" s="292" t="s">
         <v>567</v>
       </c>
-      <c r="D243" s="273"/>
-      <c r="E243" s="273" t="str">
+      <c r="D243" s="292"/>
+      <c r="E243" s="292" t="str">
         <f>'Resultados Informe Final'!D12</f>
         <v>El juego se proyecta en pantalla grande con altavoces, conectada a un ordenador. Los jugadores cuentan con tarjetas de respuestas. El profesor explica las reglas, se organiza y se juega de forma dinámica. Los alumnos más contestan a las preguntas con sus tarjetas, siguiendo el ritmo del juego y las indicaciones del profesor. Después se guardan los resultados. El profesor previamente realizó 4 equipos compensados según las notas del primer examen, cada uno de ellos tenía un capitán. Los alumnos conocían la composición de los equipos y las reglas del juego y los contenidos del mismo (tipo de preguntas y materias sobre la que versaría), varios días antes de su realización. Cada equipo con su capitán al frente se organizaron previamente según su criterio y estrategia.</v>
       </c>
-      <c r="F243" s="273"/>
-      <c r="G243" s="273"/>
-      <c r="H243" s="273"/>
+      <c r="F243" s="292"/>
+      <c r="G243" s="292"/>
+      <c r="H243" s="292"/>
       <c r="I243" s="95"/>
       <c r="J243" s="95"/>
       <c r="K243" s="95"/>
@@ -50032,21 +50032,21 @@
       <c r="U243" s="95"/>
     </row>
     <row r="244" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="208" t="s">
+      <c r="A244" s="214" t="s">
         <v>568</v>
       </c>
-      <c r="B244" s="208"/>
-      <c r="C244" s="273" t="s">
+      <c r="B244" s="214"/>
+      <c r="C244" s="292" t="s">
         <v>569</v>
       </c>
-      <c r="D244" s="273"/>
-      <c r="E244" s="273">
+      <c r="D244" s="292"/>
+      <c r="E244" s="292">
         <f>'Resultados Informe Final'!D13</f>
         <v>10</v>
       </c>
-      <c r="F244" s="273"/>
-      <c r="G244" s="273"/>
-      <c r="H244" s="273"/>
+      <c r="F244" s="292"/>
+      <c r="G244" s="292"/>
+      <c r="H244" s="292"/>
       <c r="I244" s="95"/>
       <c r="J244" s="95"/>
       <c r="K244" s="95"/>
@@ -50062,19 +50062,19 @@
       <c r="U244" s="95"/>
     </row>
     <row r="245" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="208"/>
-      <c r="B245" s="208"/>
-      <c r="C245" s="273" t="s">
+      <c r="A245" s="214"/>
+      <c r="B245" s="214"/>
+      <c r="C245" s="292" t="s">
         <v>570</v>
       </c>
-      <c r="D245" s="273"/>
-      <c r="E245" s="273" t="str">
+      <c r="D245" s="292"/>
+      <c r="E245" s="292" t="str">
         <f>'Resultados Informe Final'!D14</f>
         <v>Excelente, mejor de lo habitual. Me sorprendió lo bien que funcionó. Algunos alumnos que no suelen participar en clase lo han hecho de forma completa y activa durante el juego.</v>
       </c>
-      <c r="F245" s="273"/>
-      <c r="G245" s="273"/>
-      <c r="H245" s="273"/>
+      <c r="F245" s="292"/>
+      <c r="G245" s="292"/>
+      <c r="H245" s="292"/>
       <c r="I245" s="95"/>
       <c r="J245" s="95"/>
       <c r="K245" s="95"/>
@@ -50090,21 +50090,21 @@
       <c r="U245" s="95"/>
     </row>
     <row r="246" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="208" t="s">
+      <c r="A246" s="214" t="s">
         <v>571</v>
       </c>
-      <c r="B246" s="208"/>
-      <c r="C246" s="273" t="s">
+      <c r="B246" s="214"/>
+      <c r="C246" s="292" t="s">
         <v>572</v>
       </c>
-      <c r="D246" s="273"/>
-      <c r="E246" s="273">
+      <c r="D246" s="292"/>
+      <c r="E246" s="292">
         <f>'Resultados Informe Final'!D15</f>
         <v>10</v>
       </c>
-      <c r="F246" s="273"/>
-      <c r="G246" s="273"/>
-      <c r="H246" s="273"/>
+      <c r="F246" s="292"/>
+      <c r="G246" s="292"/>
+      <c r="H246" s="292"/>
       <c r="I246" s="95"/>
       <c r="J246" s="95"/>
       <c r="K246" s="95"/>
@@ -50120,20 +50120,20 @@
       <c r="U246" s="95"/>
     </row>
     <row r="247" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="208"/>
-      <c r="B247" s="208"/>
-      <c r="C247" s="273" t="s">
+      <c r="A247" s="214"/>
+      <c r="B247" s="214"/>
+      <c r="C247" s="292" t="s">
         <v>573</v>
       </c>
-      <c r="D247" s="273"/>
-      <c r="E247" s="273" t="str">
+      <c r="D247" s="292"/>
+      <c r="E247" s="292" t="str">
         <f>'Resultados Informe Final'!D16</f>
         <v>Todo muy bien._x000D_
 Todos han respectado perfectamente las reglas y han mantenido una actitud excelente durante el juego.</v>
       </c>
-      <c r="F247" s="273"/>
-      <c r="G247" s="273"/>
-      <c r="H247" s="273"/>
+      <c r="F247" s="292"/>
+      <c r="G247" s="292"/>
+      <c r="H247" s="292"/>
       <c r="I247" s="95"/>
       <c r="J247" s="95"/>
       <c r="K247" s="95"/>
@@ -50149,21 +50149,21 @@
       <c r="U247" s="95"/>
     </row>
     <row r="248" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="208" t="s">
+      <c r="A248" s="214" t="s">
         <v>574</v>
       </c>
-      <c r="B248" s="208"/>
-      <c r="C248" s="273" t="s">
+      <c r="B248" s="214"/>
+      <c r="C248" s="292" t="s">
         <v>575</v>
       </c>
-      <c r="D248" s="273"/>
-      <c r="E248" s="273">
+      <c r="D248" s="292"/>
+      <c r="E248" s="292">
         <f>'Resultados Informe Final'!D17</f>
         <v>10</v>
       </c>
-      <c r="F248" s="273"/>
-      <c r="G248" s="273"/>
-      <c r="H248" s="273"/>
+      <c r="F248" s="292"/>
+      <c r="G248" s="292"/>
+      <c r="H248" s="292"/>
       <c r="I248" s="95"/>
       <c r="J248" s="95"/>
       <c r="K248" s="95"/>
@@ -50179,19 +50179,19 @@
       <c r="U248" s="95"/>
     </row>
     <row r="249" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="208"/>
-      <c r="B249" s="208"/>
-      <c r="C249" s="273" t="s">
+      <c r="A249" s="214"/>
+      <c r="B249" s="214"/>
+      <c r="C249" s="292" t="s">
         <v>576</v>
       </c>
-      <c r="D249" s="273"/>
-      <c r="E249" s="273" t="str">
+      <c r="D249" s="292"/>
+      <c r="E249" s="292" t="str">
         <f>'Resultados Informe Final'!D18</f>
         <v>El juego se desarrolló por equipos y mejoró positivamente la integración. Hubo una buena dinámica dentro de los grupos y un ambiente positivo, de respeto y 'buen rollo' entre los diferentes equipos.</v>
       </c>
-      <c r="F249" s="273"/>
-      <c r="G249" s="273"/>
-      <c r="H249" s="273"/>
+      <c r="F249" s="292"/>
+      <c r="G249" s="292"/>
+      <c r="H249" s="292"/>
       <c r="I249" s="95"/>
       <c r="J249" s="95"/>
       <c r="K249" s="95"/>
@@ -50207,21 +50207,21 @@
       <c r="U249" s="95"/>
     </row>
     <row r="250" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="208" t="s">
+      <c r="A250" s="214" t="s">
         <v>577</v>
       </c>
-      <c r="B250" s="208"/>
-      <c r="C250" s="273" t="s">
+      <c r="B250" s="214"/>
+      <c r="C250" s="292" t="s">
         <v>578</v>
       </c>
-      <c r="D250" s="273"/>
-      <c r="E250" s="273">
+      <c r="D250" s="292"/>
+      <c r="E250" s="292">
         <f>'Resultados Informe Final'!D19</f>
         <v>10</v>
       </c>
-      <c r="F250" s="273"/>
-      <c r="G250" s="273"/>
-      <c r="H250" s="273"/>
+      <c r="F250" s="292"/>
+      <c r="G250" s="292"/>
+      <c r="H250" s="292"/>
       <c r="I250" s="95"/>
       <c r="J250" s="95"/>
       <c r="K250" s="95"/>
@@ -50237,19 +50237,19 @@
       <c r="U250" s="95"/>
     </row>
     <row r="251" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="208"/>
-      <c r="B251" s="208"/>
-      <c r="C251" s="273" t="s">
+      <c r="A251" s="214"/>
+      <c r="B251" s="214"/>
+      <c r="C251" s="292" t="s">
         <v>579</v>
       </c>
-      <c r="D251" s="273"/>
-      <c r="E251" s="273" t="str">
+      <c r="D251" s="292"/>
+      <c r="E251" s="292" t="str">
         <f>'Resultados Informe Final'!D20</f>
         <v>Aumentó la competitividad y la colaboración, al tratarse de juegos por equipo. Se observó una buena dinámica, colaboración e interacción.</v>
       </c>
-      <c r="F251" s="273"/>
-      <c r="G251" s="273"/>
-      <c r="H251" s="273"/>
+      <c r="F251" s="292"/>
+      <c r="G251" s="292"/>
+      <c r="H251" s="292"/>
       <c r="I251" s="95"/>
       <c r="J251" s="95"/>
       <c r="K251" s="95"/>
@@ -50265,21 +50265,21 @@
       <c r="U251" s="95"/>
     </row>
     <row r="252" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="208" t="s">
+      <c r="A252" s="214" t="s">
         <v>580</v>
       </c>
-      <c r="B252" s="208"/>
-      <c r="C252" s="273" t="s">
+      <c r="B252" s="214"/>
+      <c r="C252" s="292" t="s">
         <v>581</v>
       </c>
-      <c r="D252" s="273"/>
-      <c r="E252" s="273">
+      <c r="D252" s="292"/>
+      <c r="E252" s="292">
         <f>'Resultados Informe Final'!D21</f>
         <v>5</v>
       </c>
-      <c r="F252" s="273"/>
-      <c r="G252" s="273"/>
-      <c r="H252" s="273"/>
+      <c r="F252" s="292"/>
+      <c r="G252" s="292"/>
+      <c r="H252" s="292"/>
       <c r="I252" s="95"/>
       <c r="J252" s="95"/>
       <c r="K252" s="95"/>
@@ -50295,19 +50295,19 @@
       <c r="U252" s="95"/>
     </row>
     <row r="253" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="208"/>
-      <c r="B253" s="208"/>
-      <c r="C253" s="273" t="s">
+      <c r="A253" s="214"/>
+      <c r="B253" s="214"/>
+      <c r="C253" s="292" t="s">
         <v>582</v>
       </c>
-      <c r="D253" s="273"/>
-      <c r="E253" s="273" t="str">
+      <c r="D253" s="292"/>
+      <c r="E253" s="292" t="str">
         <f>'Resultados Informe Final'!D22</f>
         <v>Ambas son complementarias, cada una tiene su lugar y cada una debe aplicarse cuando corresponda. Por supuesto, en mi opinión, debe estar incorporada a la enseñanza, pero de forma adecuada. No es ni más ni menos compleja, es simplemente diferente.</v>
       </c>
-      <c r="F253" s="273"/>
-      <c r="G253" s="273"/>
-      <c r="H253" s="273"/>
+      <c r="F253" s="292"/>
+      <c r="G253" s="292"/>
+      <c r="H253" s="292"/>
       <c r="I253" s="95"/>
       <c r="J253" s="95"/>
       <c r="K253" s="95"/>
@@ -50323,21 +50323,21 @@
       <c r="U253" s="95"/>
     </row>
     <row r="254" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="274" t="s">
+      <c r="A254" s="291" t="s">
         <v>583</v>
       </c>
-      <c r="B254" s="274"/>
-      <c r="C254" s="273" t="s">
+      <c r="B254" s="291"/>
+      <c r="C254" s="292" t="s">
         <v>584</v>
       </c>
-      <c r="D254" s="273"/>
-      <c r="E254" s="273" t="str">
+      <c r="D254" s="292"/>
+      <c r="E254" s="292" t="str">
         <f>'Resultados Informe Final'!D23</f>
         <v>N/A</v>
       </c>
-      <c r="F254" s="273"/>
-      <c r="G254" s="273"/>
-      <c r="H254" s="273"/>
+      <c r="F254" s="292"/>
+      <c r="G254" s="292"/>
+      <c r="H254" s="292"/>
       <c r="I254" s="95"/>
       <c r="J254" s="95"/>
       <c r="K254" s="95"/>
@@ -50353,19 +50353,19 @@
       <c r="U254" s="95"/>
     </row>
     <row r="255" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="274"/>
-      <c r="B255" s="274"/>
-      <c r="C255" s="273" t="s">
+      <c r="A255" s="291"/>
+      <c r="B255" s="291"/>
+      <c r="C255" s="292" t="s">
         <v>585</v>
       </c>
-      <c r="D255" s="273"/>
-      <c r="E255" s="273" t="str">
+      <c r="D255" s="292"/>
+      <c r="E255" s="292" t="str">
         <f>'Resultados Informe Final'!D24</f>
         <v>Este grupo no tiene problemas de partes, por lo que no puede mejorar en este sentido.</v>
       </c>
-      <c r="F255" s="273"/>
-      <c r="G255" s="273"/>
-      <c r="H255" s="273"/>
+      <c r="F255" s="292"/>
+      <c r="G255" s="292"/>
+      <c r="H255" s="292"/>
       <c r="I255" s="95"/>
       <c r="J255" s="95"/>
       <c r="K255" s="95"/>
@@ -50381,21 +50381,21 @@
       <c r="U255" s="95"/>
     </row>
     <row r="256" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="208" t="s">
+      <c r="A256" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="B256" s="208"/>
-      <c r="C256" s="273" t="s">
+      <c r="B256" s="214"/>
+      <c r="C256" s="292" t="s">
         <v>587</v>
       </c>
-      <c r="D256" s="273"/>
-      <c r="E256" s="273">
+      <c r="D256" s="292"/>
+      <c r="E256" s="292">
         <f>'Resultados Informe Final'!D25</f>
         <v>10</v>
       </c>
-      <c r="F256" s="273"/>
-      <c r="G256" s="273"/>
-      <c r="H256" s="273"/>
+      <c r="F256" s="292"/>
+      <c r="G256" s="292"/>
+      <c r="H256" s="292"/>
       <c r="I256" s="95"/>
       <c r="J256" s="95"/>
       <c r="K256" s="95"/>
@@ -50411,19 +50411,19 @@
       <c r="U256" s="95"/>
     </row>
     <row r="257" spans="1:21" ht="351.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="208"/>
-      <c r="B257" s="208"/>
-      <c r="C257" s="273" t="s">
+      <c r="A257" s="214"/>
+      <c r="B257" s="214"/>
+      <c r="C257" s="292" t="s">
         <v>588</v>
       </c>
-      <c r="D257" s="273"/>
-      <c r="E257" s="273" t="str">
+      <c r="D257" s="292"/>
+      <c r="E257" s="292" t="str">
         <f>'Resultados Informe Final'!D26</f>
         <v>Todo ha funcionado incluso mejor de lo esperado. Todo estaba bien preparado y organizado previamente. En las dos sesiones funcionó muy bien y se realizó un video de la actividad. El juego se proyecta en pantalla grande con altavoces, conectada a un ordenador. Los jugadores cuentan con tarjetas de respuestas. El profesor explica las reglas, se organiza y se juega de forma dinámica. Después se guardan los resultados. El alumnado ha manifestado una percepción muy positiva y favorable hacia la metodología basada en juegos empleada y hacia las actividades de este tipo realizadas. Temporalmente, la experiencia se ha realizado de la siguiente forma: antes del 3-11-2023, impartición de la materia de forma tradicional, seguido por la realización de la primera prueba objetiva o examen el 3-11-2023, análisis de resultados el 7-11-2023, explicación de la nueva metodología basada en juegos y formación de equipos el 7-11-2023, realización de la primera sesión con el juego el 10-11-2023, repaso y corrección de actividades el 14 y 15-11-2023, realización de la segunda sesión con el juego el 16-11-2023, segunda prueba objetiva o examen el 17-11-2023, y finalización con la entrega de resultados al observador externo el 19-11-2023. En cuanto a las cosas a mejorar, se menciona la introducción de las mejores tecnologías en el juego en colaboración con el departamento de Ingeniería Telemática de la ETSI.</v>
       </c>
-      <c r="F257" s="273"/>
-      <c r="G257" s="273"/>
-      <c r="H257" s="273"/>
+      <c r="F257" s="292"/>
+      <c r="G257" s="292"/>
+      <c r="H257" s="292"/>
       <c r="I257" s="95"/>
       <c r="J257" s="95"/>
       <c r="K257" s="95"/>
@@ -50439,21 +50439,21 @@
       <c r="U257" s="95"/>
     </row>
     <row r="258" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="208" t="s">
+      <c r="A258" s="214" t="s">
         <v>589</v>
       </c>
-      <c r="B258" s="208"/>
-      <c r="C258" s="273" t="s">
+      <c r="B258" s="214"/>
+      <c r="C258" s="292" t="s">
         <v>590</v>
       </c>
-      <c r="D258" s="273"/>
-      <c r="E258" s="273">
+      <c r="D258" s="292"/>
+      <c r="E258" s="292">
         <f>'Resultados Informe Final'!D27</f>
         <v>10</v>
       </c>
-      <c r="F258" s="273"/>
-      <c r="G258" s="273"/>
-      <c r="H258" s="273"/>
+      <c r="F258" s="292"/>
+      <c r="G258" s="292"/>
+      <c r="H258" s="292"/>
       <c r="I258" s="95"/>
       <c r="J258" s="95"/>
       <c r="K258" s="95"/>
@@ -50469,19 +50469,19 @@
       <c r="U258" s="95"/>
     </row>
     <row r="259" spans="1:21" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="208"/>
-      <c r="B259" s="208"/>
-      <c r="C259" s="273" t="s">
+      <c r="A259" s="214"/>
+      <c r="B259" s="214"/>
+      <c r="C259" s="292" t="s">
         <v>591</v>
       </c>
-      <c r="D259" s="273"/>
-      <c r="E259" s="273" t="str">
+      <c r="D259" s="292"/>
+      <c r="E259" s="292" t="str">
         <f>'Resultados Informe Final'!D28</f>
         <v>Creo que ha mejorado la percepción hacia la asignatura, la motivación, la participación, la socialización y el aprendizaje. La prueba objetiva o examen previo a la utilización de los juegos en el aula fue de 2,05 puntos y 0 alumnos aprobados. En la prueba realizada dos semanas después, tras la aplicación de los juegos en el aula, la nota media del grupo ha sido de 3,07 puntos y dos alumnos aprobaron con una alta calificación, en torno a 8 puntos. Salvo dos excepciones, todos los alumnos mejoraron sus calificaciones. La mejora de las calificaciones fue más significativa en los capitanes de equipo. Los dos exámenes realizados han tenido la misma estructura, duración, contenidos, sistema de puntuación, grado de dificultad y, por descontado, han sido evaluados los mismos alumnos por el mismo profesor y con los mismos criterios de corrección.</v>
       </c>
-      <c r="F259" s="273"/>
-      <c r="G259" s="273"/>
-      <c r="H259" s="273"/>
+      <c r="F259" s="292"/>
+      <c r="G259" s="292"/>
+      <c r="H259" s="292"/>
       <c r="I259" s="95"/>
       <c r="J259" s="95"/>
       <c r="K259" s="95"/>
@@ -50497,21 +50497,21 @@
       <c r="U259" s="95"/>
     </row>
     <row r="260" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="208" t="s">
+      <c r="A260" s="214" t="s">
         <v>592</v>
       </c>
-      <c r="B260" s="208"/>
-      <c r="C260" s="273" t="s">
+      <c r="B260" s="214"/>
+      <c r="C260" s="292" t="s">
         <v>590</v>
       </c>
-      <c r="D260" s="273"/>
-      <c r="E260" s="273">
+      <c r="D260" s="292"/>
+      <c r="E260" s="292">
         <f>'Resultados Informe Final'!D29</f>
         <v>10</v>
       </c>
-      <c r="F260" s="273"/>
-      <c r="G260" s="273"/>
-      <c r="H260" s="273"/>
+      <c r="F260" s="292"/>
+      <c r="G260" s="292"/>
+      <c r="H260" s="292"/>
       <c r="I260" s="95"/>
       <c r="J260" s="95"/>
       <c r="K260" s="95"/>
@@ -50527,19 +50527,19 @@
       <c r="U260" s="95"/>
     </row>
     <row r="261" spans="1:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="208"/>
-      <c r="B261" s="208"/>
-      <c r="C261" s="273" t="s">
+      <c r="A261" s="214"/>
+      <c r="B261" s="214"/>
+      <c r="C261" s="292" t="s">
         <v>593</v>
       </c>
-      <c r="D261" s="273"/>
-      <c r="E261" s="273" t="str">
+      <c r="D261" s="292"/>
+      <c r="E261" s="292" t="str">
         <f>'Resultados Informe Final'!D30</f>
         <v>En esta experiencia, la aplicación de los juegos ha sido totalmente adecuada y efectiva. Permiten realizar una valoración parcial y complementaria, al menos tal y como se han aplicado. Se podrían diseñar experiencias basadas en juegos muy orientadas a la evaluación y la calificación del alumnado y, en este caso, sería una herramienta totalmente válida en este sentido.</v>
       </c>
-      <c r="F261" s="273"/>
-      <c r="G261" s="273"/>
-      <c r="H261" s="273"/>
+      <c r="F261" s="292"/>
+      <c r="G261" s="292"/>
+      <c r="H261" s="292"/>
       <c r="I261" s="95"/>
       <c r="J261" s="95"/>
       <c r="K261" s="95"/>
@@ -50555,21 +50555,21 @@
       <c r="U261" s="95"/>
     </row>
     <row r="262" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="208" t="s">
+      <c r="A262" s="214" t="s">
         <v>594</v>
       </c>
-      <c r="B262" s="208"/>
-      <c r="C262" s="273" t="s">
+      <c r="B262" s="214"/>
+      <c r="C262" s="292" t="s">
         <v>595</v>
       </c>
-      <c r="D262" s="273"/>
-      <c r="E262" s="273">
+      <c r="D262" s="292"/>
+      <c r="E262" s="292">
         <f>'Resultados Informe Final'!D31</f>
         <v>10</v>
       </c>
-      <c r="F262" s="273"/>
-      <c r="G262" s="273"/>
-      <c r="H262" s="273"/>
+      <c r="F262" s="292"/>
+      <c r="G262" s="292"/>
+      <c r="H262" s="292"/>
       <c r="I262" s="95"/>
       <c r="J262" s="95"/>
       <c r="K262" s="95"/>
@@ -50585,19 +50585,19 @@
       <c r="U262" s="95"/>
     </row>
     <row r="263" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="208"/>
-      <c r="B263" s="208"/>
-      <c r="C263" s="273" t="s">
+      <c r="A263" s="214"/>
+      <c r="B263" s="214"/>
+      <c r="C263" s="292" t="s">
         <v>563</v>
       </c>
-      <c r="D263" s="273"/>
-      <c r="E263" s="273" t="str">
+      <c r="D263" s="292"/>
+      <c r="E263" s="292" t="str">
         <f>'Resultados Informe Final'!D32</f>
         <v>Sí, ha sido muy útil. El juego elegido, el diseño de la experiencia, la preparación previa, la mecánica y la dinámica seguidas han ayudado mucho en este sentido. Se ha apreciado una muy buena motivación y participación. Excelente valoración en este sentido.</v>
       </c>
-      <c r="F263" s="273"/>
-      <c r="G263" s="273"/>
-      <c r="H263" s="273"/>
+      <c r="F263" s="292"/>
+      <c r="G263" s="292"/>
+      <c r="H263" s="292"/>
       <c r="I263" s="95"/>
       <c r="J263" s="95"/>
       <c r="K263" s="95"/>
@@ -51055,19 +51055,19 @@
       <c r="U282" s="95"/>
     </row>
     <row r="283" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="264" t="s">
+      <c r="A283" s="302" t="s">
         <v>246</v>
       </c>
-      <c r="B283" s="264"/>
-      <c r="C283" s="264" t="s">
+      <c r="B283" s="302"/>
+      <c r="C283" s="302" t="s">
         <v>248</v>
       </c>
-      <c r="D283" s="264"/>
-      <c r="E283" s="264"/>
-      <c r="F283" s="265" t="s">
+      <c r="D283" s="302"/>
+      <c r="E283" s="302"/>
+      <c r="F283" s="303" t="s">
         <v>364</v>
       </c>
-      <c r="G283" s="265"/>
+      <c r="G283" s="303"/>
       <c r="H283" s="186" t="str">
         <f>Cálculos!I178</f>
         <v>Puntuación del criterio</v>
@@ -51087,21 +51087,21 @@
       <c r="U283" s="95"/>
     </row>
     <row r="284" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="270" t="s">
+      <c r="A284" s="297" t="s">
         <v>250</v>
       </c>
-      <c r="B284" s="270"/>
-      <c r="C284" s="262" t="s">
+      <c r="B284" s="297"/>
+      <c r="C284" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="D284" s="262"/>
-      <c r="E284" s="262"/>
-      <c r="F284" s="258">
+      <c r="D284" s="300"/>
+      <c r="E284" s="300"/>
+      <c r="F284" s="304">
         <f>Cálculos!E179</f>
         <v>5</v>
       </c>
-      <c r="G284" s="258"/>
-      <c r="H284" s="266">
+      <c r="G284" s="304"/>
+      <c r="H284" s="293">
         <f>Cálculos!I179</f>
         <v>5</v>
       </c>
@@ -51120,19 +51120,19 @@
       <c r="U284" s="95"/>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A285" s="270"/>
-      <c r="B285" s="270"/>
-      <c r="C285" s="263" t="s">
+      <c r="A285" s="297"/>
+      <c r="B285" s="297"/>
+      <c r="C285" s="301" t="s">
         <v>136</v>
       </c>
-      <c r="D285" s="263"/>
-      <c r="E285" s="263"/>
-      <c r="F285" s="259">
+      <c r="D285" s="301"/>
+      <c r="E285" s="301"/>
+      <c r="F285" s="305">
         <f>Cálculos!E180</f>
         <v>5</v>
       </c>
-      <c r="G285" s="259"/>
-      <c r="H285" s="266"/>
+      <c r="G285" s="305"/>
+      <c r="H285" s="293"/>
       <c r="I285" s="95"/>
       <c r="J285" s="95"/>
       <c r="K285" s="95"/>
@@ -51148,19 +51148,19 @@
       <c r="U285" s="95"/>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A286" s="270"/>
-      <c r="B286" s="270"/>
-      <c r="C286" s="262" t="s">
+      <c r="A286" s="297"/>
+      <c r="B286" s="297"/>
+      <c r="C286" s="300" t="s">
         <v>137</v>
       </c>
-      <c r="D286" s="262"/>
-      <c r="E286" s="262"/>
-      <c r="F286" s="258">
+      <c r="D286" s="300"/>
+      <c r="E286" s="300"/>
+      <c r="F286" s="304">
         <f>Cálculos!E181</f>
         <v>5</v>
       </c>
-      <c r="G286" s="258"/>
-      <c r="H286" s="266"/>
+      <c r="G286" s="304"/>
+      <c r="H286" s="293"/>
       <c r="I286" s="95"/>
       <c r="J286" s="95"/>
       <c r="K286" s="95"/>
@@ -51176,19 +51176,19 @@
       <c r="U286" s="95"/>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A287" s="270"/>
-      <c r="B287" s="270"/>
-      <c r="C287" s="263" t="s">
+      <c r="A287" s="297"/>
+      <c r="B287" s="297"/>
+      <c r="C287" s="301" t="s">
         <v>138</v>
       </c>
-      <c r="D287" s="263"/>
-      <c r="E287" s="263"/>
-      <c r="F287" s="259">
+      <c r="D287" s="301"/>
+      <c r="E287" s="301"/>
+      <c r="F287" s="305">
         <f>Cálculos!E182</f>
         <v>5</v>
       </c>
-      <c r="G287" s="259"/>
-      <c r="H287" s="266"/>
+      <c r="G287" s="305"/>
+      <c r="H287" s="293"/>
       <c r="I287" s="95"/>
       <c r="J287" s="95"/>
       <c r="K287" s="95"/>
@@ -51204,19 +51204,19 @@
       <c r="U287" s="95"/>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A288" s="270"/>
-      <c r="B288" s="270"/>
-      <c r="C288" s="262" t="s">
+      <c r="A288" s="297"/>
+      <c r="B288" s="297"/>
+      <c r="C288" s="300" t="s">
         <v>251</v>
       </c>
-      <c r="D288" s="262"/>
-      <c r="E288" s="262"/>
-      <c r="F288" s="258" t="str">
+      <c r="D288" s="300"/>
+      <c r="E288" s="300"/>
+      <c r="F288" s="304" t="str">
         <f>Cálculos!E183</f>
         <v>N/A</v>
       </c>
-      <c r="G288" s="258"/>
-      <c r="H288" s="266"/>
+      <c r="G288" s="304"/>
+      <c r="H288" s="293"/>
       <c r="I288" s="95"/>
       <c r="J288" s="95"/>
       <c r="K288" s="95"/>
@@ -51232,21 +51232,21 @@
       <c r="U288" s="95"/>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A289" s="208" t="s">
+      <c r="A289" s="214" t="s">
         <v>252</v>
       </c>
-      <c r="B289" s="208"/>
-      <c r="C289" s="263" t="s">
+      <c r="B289" s="214"/>
+      <c r="C289" s="301" t="s">
         <v>91</v>
       </c>
-      <c r="D289" s="263"/>
-      <c r="E289" s="263"/>
-      <c r="F289" s="259">
+      <c r="D289" s="301"/>
+      <c r="E289" s="301"/>
+      <c r="F289" s="305">
         <f>Cálculos!E184</f>
         <v>0.55961754780652395</v>
       </c>
-      <c r="G289" s="259"/>
-      <c r="H289" s="267">
+      <c r="G289" s="305"/>
+      <c r="H289" s="294">
         <f>Cálculos!I184</f>
         <v>0.55961754780652395</v>
       </c>
@@ -51265,19 +51265,19 @@
       <c r="U289" s="95"/>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A290" s="208"/>
-      <c r="B290" s="208"/>
-      <c r="C290" s="262" t="s">
+      <c r="A290" s="214"/>
+      <c r="B290" s="214"/>
+      <c r="C290" s="300" t="s">
         <v>95</v>
       </c>
-      <c r="D290" s="262"/>
-      <c r="E290" s="262"/>
-      <c r="F290" s="258">
+      <c r="D290" s="300"/>
+      <c r="E290" s="300"/>
+      <c r="F290" s="304">
         <f>Cálculos!E185</f>
         <v>0</v>
       </c>
-      <c r="G290" s="258"/>
-      <c r="H290" s="267"/>
+      <c r="G290" s="304"/>
+      <c r="H290" s="294"/>
       <c r="I290" s="95"/>
       <c r="J290" s="95"/>
       <c r="K290" s="95"/>
@@ -51293,21 +51293,21 @@
       <c r="U290" s="95"/>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A291" s="270" t="s">
+      <c r="A291" s="297" t="s">
         <v>253</v>
       </c>
-      <c r="B291" s="270"/>
-      <c r="C291" s="263" t="s">
+      <c r="B291" s="297"/>
+      <c r="C291" s="301" t="s">
         <v>105</v>
       </c>
-      <c r="D291" s="263"/>
-      <c r="E291" s="263"/>
-      <c r="F291" s="259">
+      <c r="D291" s="301"/>
+      <c r="E291" s="301"/>
+      <c r="F291" s="305">
         <f>Cálculos!E186</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G291" s="259"/>
-      <c r="H291" s="268">
+      <c r="G291" s="305"/>
+      <c r="H291" s="295">
         <f>Cálculos!I186</f>
         <v>4.5972222222222223</v>
       </c>
@@ -51326,19 +51326,19 @@
       <c r="U291" s="95"/>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A292" s="270"/>
-      <c r="B292" s="270"/>
-      <c r="C292" s="262" t="s">
+      <c r="A292" s="297"/>
+      <c r="B292" s="297"/>
+      <c r="C292" s="300" t="s">
         <v>107</v>
       </c>
-      <c r="D292" s="262"/>
-      <c r="E292" s="262"/>
-      <c r="F292" s="258">
+      <c r="D292" s="300"/>
+      <c r="E292" s="300"/>
+      <c r="F292" s="304">
         <f>Cálculos!E187</f>
         <v>4.8863636363636367</v>
       </c>
-      <c r="G292" s="258"/>
-      <c r="H292" s="268"/>
+      <c r="G292" s="304"/>
+      <c r="H292" s="295"/>
       <c r="I292" s="95"/>
       <c r="J292" s="95"/>
       <c r="K292" s="95"/>
@@ -51354,19 +51354,19 @@
       <c r="U292" s="95"/>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A293" s="270"/>
-      <c r="B293" s="270"/>
-      <c r="C293" s="263" t="s">
+      <c r="A293" s="297"/>
+      <c r="B293" s="297"/>
+      <c r="C293" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="D293" s="263"/>
-      <c r="E293" s="263"/>
-      <c r="F293" s="259">
+      <c r="D293" s="301"/>
+      <c r="E293" s="301"/>
+      <c r="F293" s="305">
         <f>Cálculos!E188</f>
         <v>4.8295454545454541</v>
       </c>
-      <c r="G293" s="259"/>
-      <c r="H293" s="268"/>
+      <c r="G293" s="305"/>
+      <c r="H293" s="295"/>
       <c r="I293" s="95"/>
       <c r="J293" s="95"/>
       <c r="K293" s="95"/>
@@ -51382,19 +51382,19 @@
       <c r="U293" s="95"/>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A294" s="270"/>
-      <c r="B294" s="270"/>
-      <c r="C294" s="262" t="s">
+      <c r="A294" s="297"/>
+      <c r="B294" s="297"/>
+      <c r="C294" s="300" t="s">
         <v>109</v>
       </c>
-      <c r="D294" s="262"/>
-      <c r="E294" s="262"/>
-      <c r="F294" s="258">
+      <c r="D294" s="300"/>
+      <c r="E294" s="300"/>
+      <c r="F294" s="304">
         <f>Cálculos!E189</f>
         <v>4.9431818181818183</v>
       </c>
-      <c r="G294" s="258"/>
-      <c r="H294" s="268"/>
+      <c r="G294" s="304"/>
+      <c r="H294" s="295"/>
       <c r="I294" s="95"/>
       <c r="J294" s="95"/>
       <c r="K294" s="95"/>
@@ -51410,19 +51410,19 @@
       <c r="U294" s="95"/>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A295" s="270"/>
-      <c r="B295" s="270"/>
-      <c r="C295" s="263" t="s">
+      <c r="A295" s="297"/>
+      <c r="B295" s="297"/>
+      <c r="C295" s="301" t="s">
         <v>110</v>
       </c>
-      <c r="D295" s="263"/>
-      <c r="E295" s="263"/>
-      <c r="F295" s="259">
+      <c r="D295" s="301"/>
+      <c r="E295" s="301"/>
+      <c r="F295" s="305">
         <f>Cálculos!E190</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G295" s="259"/>
-      <c r="H295" s="268"/>
+      <c r="G295" s="305"/>
+      <c r="H295" s="295"/>
       <c r="I295" s="95"/>
       <c r="J295" s="95"/>
       <c r="K295" s="95"/>
@@ -51438,19 +51438,19 @@
       <c r="U295" s="95"/>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A296" s="270"/>
-      <c r="B296" s="270"/>
-      <c r="C296" s="262" t="s">
+      <c r="A296" s="297"/>
+      <c r="B296" s="297"/>
+      <c r="C296" s="300" t="s">
         <v>111</v>
       </c>
-      <c r="D296" s="262"/>
-      <c r="E296" s="262"/>
-      <c r="F296" s="258">
+      <c r="D296" s="300"/>
+      <c r="E296" s="300"/>
+      <c r="F296" s="304">
         <f>Cálculos!E191</f>
         <v>4.4318181818181825</v>
       </c>
-      <c r="G296" s="258"/>
-      <c r="H296" s="268"/>
+      <c r="G296" s="304"/>
+      <c r="H296" s="295"/>
       <c r="I296" s="95"/>
       <c r="J296" s="95"/>
       <c r="K296" s="95"/>
@@ -51466,19 +51466,19 @@
       <c r="U296" s="95"/>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A297" s="270"/>
-      <c r="B297" s="270"/>
-      <c r="C297" s="263" t="s">
+      <c r="A297" s="297"/>
+      <c r="B297" s="297"/>
+      <c r="C297" s="301" t="s">
         <v>112</v>
       </c>
-      <c r="D297" s="263"/>
-      <c r="E297" s="263"/>
-      <c r="F297" s="259">
+      <c r="D297" s="301"/>
+      <c r="E297" s="301"/>
+      <c r="F297" s="305">
         <f>Cálculos!E192</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G297" s="259"/>
-      <c r="H297" s="268"/>
+      <c r="G297" s="305"/>
+      <c r="H297" s="295"/>
       <c r="I297" s="95"/>
       <c r="J297" s="95"/>
       <c r="K297" s="95"/>
@@ -51494,19 +51494,19 @@
       <c r="U297" s="95"/>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A298" s="270"/>
-      <c r="B298" s="270"/>
-      <c r="C298" s="262" t="s">
+      <c r="A298" s="297"/>
+      <c r="B298" s="297"/>
+      <c r="C298" s="300" t="s">
         <v>113</v>
       </c>
-      <c r="D298" s="262"/>
-      <c r="E298" s="262"/>
-      <c r="F298" s="258">
+      <c r="D298" s="300"/>
+      <c r="E298" s="300"/>
+      <c r="F298" s="304">
         <f>Cálculos!E193</f>
         <v>4.4318181818181817</v>
       </c>
-      <c r="G298" s="258"/>
-      <c r="H298" s="268"/>
+      <c r="G298" s="304"/>
+      <c r="H298" s="295"/>
       <c r="I298" s="95"/>
       <c r="J298" s="95"/>
       <c r="K298" s="95"/>
@@ -51522,19 +51522,19 @@
       <c r="U298" s="95"/>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A299" s="270"/>
-      <c r="B299" s="270"/>
-      <c r="C299" s="263" t="s">
+      <c r="A299" s="297"/>
+      <c r="B299" s="297"/>
+      <c r="C299" s="301" t="s">
         <v>114</v>
       </c>
-      <c r="D299" s="263"/>
-      <c r="E299" s="263"/>
-      <c r="F299" s="259">
+      <c r="D299" s="301"/>
+      <c r="E299" s="301"/>
+      <c r="F299" s="305">
         <f>Cálculos!E194</f>
         <v>3.8749999999999996</v>
       </c>
-      <c r="G299" s="259"/>
-      <c r="H299" s="268"/>
+      <c r="G299" s="305"/>
+      <c r="H299" s="295"/>
       <c r="I299" s="95"/>
       <c r="J299" s="95"/>
       <c r="K299" s="95"/>
@@ -51550,21 +51550,21 @@
       <c r="U299" s="95"/>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A300" s="208" t="s">
+      <c r="A300" s="214" t="s">
         <v>368</v>
       </c>
-      <c r="B300" s="208"/>
-      <c r="C300" s="262" t="s">
+      <c r="B300" s="214"/>
+      <c r="C300" s="300" t="s">
         <v>373</v>
       </c>
-      <c r="D300" s="262"/>
-      <c r="E300" s="262"/>
-      <c r="F300" s="258">
+      <c r="D300" s="300"/>
+      <c r="E300" s="300"/>
+      <c r="F300" s="304">
         <f>Cálculos!E195</f>
         <v>5</v>
       </c>
-      <c r="G300" s="258"/>
-      <c r="H300" s="267">
+      <c r="G300" s="304"/>
+      <c r="H300" s="294">
         <f>Cálculos!I195</f>
         <v>4.9454545454545453</v>
       </c>
@@ -51583,19 +51583,19 @@
       <c r="U300" s="95"/>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A301" s="208"/>
-      <c r="B301" s="208"/>
-      <c r="C301" s="263" t="s">
+      <c r="A301" s="214"/>
+      <c r="B301" s="214"/>
+      <c r="C301" s="301" t="s">
         <v>374</v>
       </c>
-      <c r="D301" s="263"/>
-      <c r="E301" s="263"/>
-      <c r="F301" s="259">
+      <c r="D301" s="301"/>
+      <c r="E301" s="301"/>
+      <c r="F301" s="305">
         <f>Cálculos!E196</f>
         <v>4.7272727272727275</v>
       </c>
-      <c r="G301" s="259"/>
-      <c r="H301" s="267"/>
+      <c r="G301" s="305"/>
+      <c r="H301" s="294"/>
       <c r="I301" s="95"/>
       <c r="J301" s="95"/>
       <c r="K301" s="95"/>
@@ -51611,19 +51611,19 @@
       <c r="U301" s="95"/>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A302" s="208"/>
-      <c r="B302" s="208"/>
-      <c r="C302" s="262" t="s">
+      <c r="A302" s="214"/>
+      <c r="B302" s="214"/>
+      <c r="C302" s="300" t="s">
         <v>369</v>
       </c>
-      <c r="D302" s="262"/>
-      <c r="E302" s="262"/>
-      <c r="F302" s="258">
+      <c r="D302" s="300"/>
+      <c r="E302" s="300"/>
+      <c r="F302" s="304">
         <f>Cálculos!E197</f>
         <v>5</v>
       </c>
-      <c r="G302" s="258"/>
-      <c r="H302" s="267"/>
+      <c r="G302" s="304"/>
+      <c r="H302" s="294"/>
       <c r="I302" s="95"/>
       <c r="J302" s="95"/>
       <c r="K302" s="95"/>
@@ -51639,19 +51639,19 @@
       <c r="U302" s="95"/>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A303" s="208"/>
-      <c r="B303" s="208"/>
-      <c r="C303" s="263" t="s">
+      <c r="A303" s="214"/>
+      <c r="B303" s="214"/>
+      <c r="C303" s="301" t="s">
         <v>370</v>
       </c>
-      <c r="D303" s="263"/>
-      <c r="E303" s="263"/>
-      <c r="F303" s="259">
+      <c r="D303" s="301"/>
+      <c r="E303" s="301"/>
+      <c r="F303" s="305">
         <f>Cálculos!E198</f>
         <v>5</v>
       </c>
-      <c r="G303" s="259"/>
-      <c r="H303" s="267"/>
+      <c r="G303" s="305"/>
+      <c r="H303" s="294"/>
       <c r="I303" s="95"/>
       <c r="J303" s="95"/>
       <c r="K303" s="95"/>
@@ -51667,19 +51667,19 @@
       <c r="U303" s="95"/>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A304" s="208"/>
-      <c r="B304" s="208"/>
-      <c r="C304" s="262" t="s">
+      <c r="A304" s="214"/>
+      <c r="B304" s="214"/>
+      <c r="C304" s="300" t="s">
         <v>371</v>
       </c>
-      <c r="D304" s="262"/>
-      <c r="E304" s="262"/>
-      <c r="F304" s="258">
+      <c r="D304" s="300"/>
+      <c r="E304" s="300"/>
+      <c r="F304" s="304">
         <f>Cálculos!E199</f>
         <v>5</v>
       </c>
-      <c r="G304" s="258"/>
-      <c r="H304" s="267"/>
+      <c r="G304" s="304"/>
+      <c r="H304" s="294"/>
       <c r="I304" s="95"/>
       <c r="J304" s="95"/>
       <c r="K304" s="95"/>
@@ -51748,19 +51748,19 @@
       <c r="U306" s="95"/>
     </row>
     <row r="307" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="264" t="s">
+      <c r="A307" s="302" t="s">
         <v>246</v>
       </c>
-      <c r="B307" s="264"/>
-      <c r="C307" s="264" t="s">
+      <c r="B307" s="302"/>
+      <c r="C307" s="302" t="s">
         <v>248</v>
       </c>
-      <c r="D307" s="264"/>
-      <c r="E307" s="264"/>
-      <c r="F307" s="260" t="s">
+      <c r="D307" s="302"/>
+      <c r="E307" s="302"/>
+      <c r="F307" s="308" t="s">
         <v>364</v>
       </c>
-      <c r="G307" s="261"/>
+      <c r="G307" s="309"/>
       <c r="H307" s="186" t="s">
         <v>366</v>
       </c>
@@ -51779,21 +51779,21 @@
       <c r="U307" s="95"/>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A308" s="271" t="s">
+      <c r="A308" s="298" t="s">
         <v>254</v>
       </c>
-      <c r="B308" s="271"/>
-      <c r="C308" s="263" t="s">
+      <c r="B308" s="298"/>
+      <c r="C308" s="301" t="s">
         <v>102</v>
       </c>
-      <c r="D308" s="263"/>
-      <c r="E308" s="263"/>
-      <c r="F308" s="259">
+      <c r="D308" s="301"/>
+      <c r="E308" s="301"/>
+      <c r="F308" s="305">
         <f>Cálculos!E202</f>
         <v>4.1477272727272734</v>
       </c>
-      <c r="G308" s="259"/>
-      <c r="H308" s="269">
+      <c r="G308" s="305"/>
+      <c r="H308" s="296">
         <f>Cálculos!I202</f>
         <v>4.3587662337662332</v>
       </c>
@@ -51812,19 +51812,19 @@
       <c r="U308" s="95"/>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A309" s="272"/>
-      <c r="B309" s="272"/>
-      <c r="C309" s="262" t="s">
+      <c r="A309" s="299"/>
+      <c r="B309" s="299"/>
+      <c r="C309" s="300" t="s">
         <v>103</v>
       </c>
-      <c r="D309" s="262"/>
-      <c r="E309" s="262"/>
-      <c r="F309" s="258">
+      <c r="D309" s="300"/>
+      <c r="E309" s="300"/>
+      <c r="F309" s="304">
         <f>Cálculos!E203</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G309" s="258"/>
-      <c r="H309" s="268"/>
+      <c r="G309" s="304"/>
+      <c r="H309" s="295"/>
       <c r="I309" s="95"/>
       <c r="J309" s="95"/>
       <c r="K309" s="95"/>
@@ -51840,19 +51840,19 @@
       <c r="U309" s="95"/>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A310" s="272"/>
-      <c r="B310" s="272"/>
-      <c r="C310" s="263" t="s">
+      <c r="A310" s="299"/>
+      <c r="B310" s="299"/>
+      <c r="C310" s="301" t="s">
         <v>104</v>
       </c>
-      <c r="D310" s="263"/>
-      <c r="E310" s="263"/>
-      <c r="F310" s="259">
+      <c r="D310" s="301"/>
+      <c r="E310" s="301"/>
+      <c r="F310" s="305">
         <f>Cálculos!E204</f>
         <v>4.2045454545454541</v>
       </c>
-      <c r="G310" s="259"/>
-      <c r="H310" s="268"/>
+      <c r="G310" s="305"/>
+      <c r="H310" s="295"/>
       <c r="I310" s="95"/>
       <c r="J310" s="95"/>
       <c r="K310" s="95"/>
@@ -51868,19 +51868,19 @@
       <c r="U310" s="95"/>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A311" s="272"/>
-      <c r="B311" s="272"/>
-      <c r="C311" s="262" t="s">
+      <c r="A311" s="299"/>
+      <c r="B311" s="299"/>
+      <c r="C311" s="300" t="s">
         <v>139</v>
       </c>
-      <c r="D311" s="262"/>
-      <c r="E311" s="262"/>
-      <c r="F311" s="258">
+      <c r="D311" s="300"/>
+      <c r="E311" s="300"/>
+      <c r="F311" s="304">
         <f>Cálculos!E205</f>
         <v>5</v>
       </c>
-      <c r="G311" s="258"/>
-      <c r="H311" s="268"/>
+      <c r="G311" s="304"/>
+      <c r="H311" s="295"/>
       <c r="I311" s="95"/>
       <c r="J311" s="95"/>
       <c r="K311" s="95"/>
@@ -51896,19 +51896,19 @@
       <c r="U311" s="95"/>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A312" s="272"/>
-      <c r="B312" s="272"/>
-      <c r="C312" s="263" t="s">
+      <c r="A312" s="299"/>
+      <c r="B312" s="299"/>
+      <c r="C312" s="301" t="s">
         <v>141</v>
       </c>
-      <c r="D312" s="263"/>
-      <c r="E312" s="263"/>
-      <c r="F312" s="259">
+      <c r="D312" s="301"/>
+      <c r="E312" s="301"/>
+      <c r="F312" s="305">
         <f>Cálculos!E206</f>
         <v>2.5</v>
       </c>
-      <c r="G312" s="259"/>
-      <c r="H312" s="268"/>
+      <c r="G312" s="305"/>
+      <c r="H312" s="295"/>
       <c r="I312" s="95"/>
       <c r="J312" s="95"/>
       <c r="K312" s="95"/>
@@ -51924,19 +51924,19 @@
       <c r="U312" s="95"/>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A313" s="272"/>
-      <c r="B313" s="272"/>
-      <c r="C313" s="262" t="s">
+      <c r="A313" s="299"/>
+      <c r="B313" s="299"/>
+      <c r="C313" s="300" t="s">
         <v>142</v>
       </c>
-      <c r="D313" s="262"/>
-      <c r="E313" s="262"/>
-      <c r="F313" s="258">
+      <c r="D313" s="300"/>
+      <c r="E313" s="300"/>
+      <c r="F313" s="304">
         <f>Cálculos!E207</f>
         <v>5</v>
       </c>
-      <c r="G313" s="258"/>
-      <c r="H313" s="268"/>
+      <c r="G313" s="304"/>
+      <c r="H313" s="295"/>
       <c r="I313" s="95"/>
       <c r="J313" s="95"/>
       <c r="K313" s="95"/>
@@ -51952,19 +51952,19 @@
       <c r="U313" s="95"/>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A314" s="272"/>
-      <c r="B314" s="272"/>
-      <c r="C314" s="263" t="s">
+      <c r="A314" s="299"/>
+      <c r="B314" s="299"/>
+      <c r="C314" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="D314" s="263"/>
-      <c r="E314" s="263"/>
-      <c r="F314" s="259">
+      <c r="D314" s="301"/>
+      <c r="E314" s="301"/>
+      <c r="F314" s="305">
         <f>Cálculos!E208</f>
         <v>5</v>
       </c>
-      <c r="G314" s="259"/>
-      <c r="H314" s="268"/>
+      <c r="G314" s="305"/>
+      <c r="H314" s="295"/>
       <c r="I314" s="95"/>
       <c r="J314" s="95"/>
       <c r="K314" s="95"/>
@@ -51980,21 +51980,21 @@
       <c r="U314" s="95"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A315" s="219" t="s">
+      <c r="A315" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="B315" s="219"/>
-      <c r="C315" s="262" t="s">
+      <c r="B315" s="226"/>
+      <c r="C315" s="300" t="s">
         <v>115</v>
       </c>
-      <c r="D315" s="262"/>
-      <c r="E315" s="262"/>
-      <c r="F315" s="258">
+      <c r="D315" s="300"/>
+      <c r="E315" s="300"/>
+      <c r="F315" s="304">
         <f>Cálculos!E209</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G315" s="258"/>
-      <c r="H315" s="267">
+      <c r="G315" s="304"/>
+      <c r="H315" s="294">
         <f>Cálculos!I209</f>
         <v>4.3892045454545459</v>
       </c>
@@ -52013,19 +52013,19 @@
       <c r="U315" s="95"/>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A316" s="219"/>
-      <c r="B316" s="219"/>
-      <c r="C316" s="263" t="s">
+      <c r="A316" s="226"/>
+      <c r="B316" s="226"/>
+      <c r="C316" s="301" t="s">
         <v>116</v>
       </c>
-      <c r="D316" s="263"/>
-      <c r="E316" s="263"/>
-      <c r="F316" s="259">
+      <c r="D316" s="301"/>
+      <c r="E316" s="301"/>
+      <c r="F316" s="305">
         <f>Cálculos!E210</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="G316" s="259"/>
-      <c r="H316" s="267"/>
+      <c r="G316" s="305"/>
+      <c r="H316" s="294"/>
       <c r="I316" s="95"/>
       <c r="J316" s="95"/>
       <c r="K316" s="95"/>
@@ -52041,19 +52041,19 @@
       <c r="U316" s="95"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A317" s="219"/>
-      <c r="B317" s="219"/>
-      <c r="C317" s="262" t="s">
+      <c r="A317" s="226"/>
+      <c r="B317" s="226"/>
+      <c r="C317" s="300" t="s">
         <v>117</v>
       </c>
-      <c r="D317" s="262"/>
-      <c r="E317" s="262"/>
-      <c r="F317" s="258">
+      <c r="D317" s="300"/>
+      <c r="E317" s="300"/>
+      <c r="F317" s="304">
         <f>Cálculos!E211</f>
         <v>4.4318181818181817</v>
       </c>
-      <c r="G317" s="258"/>
-      <c r="H317" s="267"/>
+      <c r="G317" s="304"/>
+      <c r="H317" s="294"/>
       <c r="I317" s="95"/>
       <c r="J317" s="95"/>
       <c r="K317" s="95"/>
@@ -52069,19 +52069,19 @@
       <c r="U317" s="95"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A318" s="219"/>
-      <c r="B318" s="219"/>
-      <c r="C318" s="263" t="s">
+      <c r="A318" s="226"/>
+      <c r="B318" s="226"/>
+      <c r="C318" s="301" t="s">
         <v>118</v>
       </c>
-      <c r="D318" s="263"/>
-      <c r="E318" s="263"/>
-      <c r="F318" s="259">
+      <c r="D318" s="301"/>
+      <c r="E318" s="301"/>
+      <c r="F318" s="305">
         <f>Cálculos!E212</f>
         <v>3.9204545454545459</v>
       </c>
-      <c r="G318" s="259"/>
-      <c r="H318" s="267"/>
+      <c r="G318" s="305"/>
+      <c r="H318" s="294"/>
       <c r="I318" s="95"/>
       <c r="J318" s="95"/>
       <c r="K318" s="95"/>
@@ -52097,21 +52097,21 @@
       <c r="U318" s="95"/>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A319" s="272" t="s">
+      <c r="A319" s="299" t="s">
         <v>256</v>
       </c>
-      <c r="B319" s="272"/>
-      <c r="C319" s="262" t="s">
+      <c r="B319" s="299"/>
+      <c r="C319" s="300" t="s">
         <v>106</v>
       </c>
-      <c r="D319" s="262"/>
-      <c r="E319" s="262"/>
-      <c r="F319" s="258">
+      <c r="D319" s="300"/>
+      <c r="E319" s="300"/>
+      <c r="F319" s="304">
         <f>Cálculos!E213</f>
         <v>4.4318181818181825</v>
       </c>
-      <c r="G319" s="258"/>
-      <c r="H319" s="268">
+      <c r="G319" s="304"/>
+      <c r="H319" s="295">
         <f>Cálculos!I213</f>
         <v>4.6266233766233764</v>
       </c>
@@ -52130,19 +52130,19 @@
       <c r="U319" s="95"/>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A320" s="272"/>
-      <c r="B320" s="272"/>
-      <c r="C320" s="263" t="s">
+      <c r="A320" s="299"/>
+      <c r="B320" s="299"/>
+      <c r="C320" s="301" t="s">
         <v>140</v>
       </c>
-      <c r="D320" s="263"/>
-      <c r="E320" s="263"/>
-      <c r="F320" s="259">
+      <c r="D320" s="301"/>
+      <c r="E320" s="301"/>
+      <c r="F320" s="305">
         <f>Cálculos!E214</f>
         <v>5</v>
       </c>
-      <c r="G320" s="259"/>
-      <c r="H320" s="268"/>
+      <c r="G320" s="305"/>
+      <c r="H320" s="295"/>
       <c r="I320" s="95"/>
       <c r="J320" s="95"/>
       <c r="K320" s="95"/>
@@ -52158,19 +52158,19 @@
       <c r="U320" s="95"/>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A321" s="272"/>
-      <c r="B321" s="272"/>
-      <c r="C321" s="262" t="s">
+      <c r="A321" s="299"/>
+      <c r="B321" s="299"/>
+      <c r="C321" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="D321" s="262"/>
-      <c r="E321" s="262"/>
-      <c r="F321" s="258">
+      <c r="D321" s="300"/>
+      <c r="E321" s="300"/>
+      <c r="F321" s="304">
         <f>Cálculos!E215</f>
         <v>5</v>
       </c>
-      <c r="G321" s="258"/>
-      <c r="H321" s="268"/>
+      <c r="G321" s="304"/>
+      <c r="H321" s="295"/>
       <c r="I321" s="95"/>
       <c r="J321" s="95"/>
       <c r="K321" s="95"/>
@@ -52186,19 +52186,19 @@
       <c r="U321" s="95"/>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A322" s="272"/>
-      <c r="B322" s="272"/>
-      <c r="C322" s="263" t="s">
+      <c r="A322" s="299"/>
+      <c r="B322" s="299"/>
+      <c r="C322" s="301" t="s">
         <v>119</v>
       </c>
-      <c r="D322" s="263"/>
-      <c r="E322" s="263"/>
-      <c r="F322" s="259">
+      <c r="D322" s="301"/>
+      <c r="E322" s="301"/>
+      <c r="F322" s="305">
         <f>Cálculos!E216</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="G322" s="259"/>
-      <c r="H322" s="268"/>
+      <c r="G322" s="305"/>
+      <c r="H322" s="295"/>
       <c r="I322" s="95"/>
       <c r="J322" s="95"/>
       <c r="K322" s="95"/>
@@ -52214,19 +52214,19 @@
       <c r="U322" s="95"/>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A323" s="272"/>
-      <c r="B323" s="272"/>
-      <c r="C323" s="262" t="s">
+      <c r="A323" s="299"/>
+      <c r="B323" s="299"/>
+      <c r="C323" s="300" t="s">
         <v>514</v>
       </c>
-      <c r="D323" s="262"/>
-      <c r="E323" s="262"/>
-      <c r="F323" s="258">
+      <c r="D323" s="300"/>
+      <c r="E323" s="300"/>
+      <c r="F323" s="304">
         <f>Cálculos!E217</f>
         <v>3.8636363636363633</v>
       </c>
-      <c r="G323" s="258"/>
-      <c r="H323" s="268"/>
+      <c r="G323" s="304"/>
+      <c r="H323" s="295"/>
       <c r="I323" s="95"/>
       <c r="J323" s="95"/>
       <c r="K323" s="95"/>
@@ -52242,19 +52242,19 @@
       <c r="U323" s="95"/>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A324" s="272"/>
-      <c r="B324" s="272"/>
-      <c r="C324" s="263" t="s">
+      <c r="A324" s="299"/>
+      <c r="B324" s="299"/>
+      <c r="C324" s="301" t="s">
         <v>515</v>
       </c>
-      <c r="D324" s="263"/>
-      <c r="E324" s="263"/>
-      <c r="F324" s="259">
+      <c r="D324" s="301"/>
+      <c r="E324" s="301"/>
+      <c r="F324" s="305">
         <f>Cálculos!E218</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="G324" s="259"/>
-      <c r="H324" s="268"/>
+      <c r="G324" s="305"/>
+      <c r="H324" s="295"/>
       <c r="I324" s="95"/>
       <c r="J324" s="95"/>
       <c r="K324" s="95"/>
@@ -52270,19 +52270,19 @@
       <c r="U324" s="95"/>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A325" s="272"/>
-      <c r="B325" s="272"/>
-      <c r="C325" s="262" t="s">
+      <c r="A325" s="299"/>
+      <c r="B325" s="299"/>
+      <c r="C325" s="300" t="s">
         <v>516</v>
       </c>
-      <c r="D325" s="262"/>
-      <c r="E325" s="262"/>
-      <c r="F325" s="258">
+      <c r="D325" s="300"/>
+      <c r="E325" s="300"/>
+      <c r="F325" s="304">
         <f>Cálculos!E219</f>
         <v>5</v>
       </c>
-      <c r="G325" s="258"/>
-      <c r="H325" s="268"/>
+      <c r="G325" s="304"/>
+      <c r="H325" s="295"/>
       <c r="I325" s="95"/>
       <c r="J325" s="95"/>
       <c r="K325" s="95"/>
@@ -52401,18 +52401,18 @@
       <c r="U329" s="95"/>
     </row>
     <row r="330" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="256" t="s">
+      <c r="A330" s="310" t="s">
         <v>248</v>
       </c>
-      <c r="B330" s="257"/>
+      <c r="B330" s="311"/>
       <c r="C330" s="193" t="s">
         <v>247</v>
       </c>
       <c r="E330" s="192"/>
-      <c r="F330" s="256" t="s">
+      <c r="F330" s="310" t="s">
         <v>248</v>
       </c>
-      <c r="G330" s="257"/>
+      <c r="G330" s="311"/>
       <c r="H330" s="193" t="s">
         <v>247</v>
       </c>
@@ -52431,19 +52431,19 @@
       <c r="U330" s="95"/>
     </row>
     <row r="331" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="254" t="s">
+      <c r="A331" s="306" t="s">
         <v>135</v>
       </c>
-      <c r="B331" s="255"/>
+      <c r="B331" s="307"/>
       <c r="C331" s="194">
         <f>Cálculos!G179</f>
         <v>6.25E-2</v>
       </c>
       <c r="E331" s="95"/>
-      <c r="F331" s="252" t="s">
+      <c r="F331" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="G331" s="253"/>
+      <c r="G331" s="313"/>
       <c r="H331" s="194">
         <f>Cálculos!G202</f>
         <v>4.7619047619047616E-2</v>
@@ -52463,19 +52463,19 @@
       <c r="U331" s="95"/>
     </row>
     <row r="332" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="254" t="s">
+      <c r="A332" s="306" t="s">
         <v>136</v>
       </c>
-      <c r="B332" s="255"/>
+      <c r="B332" s="307"/>
       <c r="C332" s="194">
         <f>Cálculos!G180</f>
         <v>6.25E-2</v>
       </c>
       <c r="E332" s="95"/>
-      <c r="F332" s="252" t="s">
+      <c r="F332" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="G332" s="253"/>
+      <c r="G332" s="313"/>
       <c r="H332" s="194">
         <f>Cálculos!G203</f>
         <v>4.7619047619047616E-2</v>
@@ -52495,19 +52495,19 @@
       <c r="U332" s="95"/>
     </row>
     <row r="333" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="254" t="s">
+      <c r="A333" s="306" t="s">
         <v>137</v>
       </c>
-      <c r="B333" s="255"/>
+      <c r="B333" s="307"/>
       <c r="C333" s="194">
         <f>Cálculos!G181</f>
         <v>6.25E-2</v>
       </c>
       <c r="E333" s="95"/>
-      <c r="F333" s="252" t="s">
+      <c r="F333" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="G333" s="253"/>
+      <c r="G333" s="313"/>
       <c r="H333" s="194">
         <f>Cálculos!G204</f>
         <v>4.7619047619047616E-2</v>
@@ -52527,19 +52527,19 @@
       <c r="U333" s="95"/>
     </row>
     <row r="334" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="254" t="s">
+      <c r="A334" s="306" t="s">
         <v>138</v>
       </c>
-      <c r="B334" s="255"/>
+      <c r="B334" s="307"/>
       <c r="C334" s="194">
         <f>Cálculos!G182</f>
         <v>6.25E-2</v>
       </c>
       <c r="E334" s="95"/>
-      <c r="F334" s="252" t="s">
+      <c r="F334" s="312" t="s">
         <v>139</v>
       </c>
-      <c r="G334" s="253"/>
+      <c r="G334" s="313"/>
       <c r="H334" s="194">
         <f>Cálculos!G205</f>
         <v>4.7619047619047616E-2</v>
@@ -52559,19 +52559,19 @@
       <c r="U334" s="95"/>
     </row>
     <row r="335" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="254" t="s">
+      <c r="A335" s="306" t="s">
         <v>251</v>
       </c>
-      <c r="B335" s="255"/>
+      <c r="B335" s="307"/>
       <c r="C335" s="194">
         <f>Cálculos!G183</f>
         <v>0</v>
       </c>
       <c r="E335" s="95"/>
-      <c r="F335" s="252" t="s">
+      <c r="F335" s="312" t="s">
         <v>141</v>
       </c>
-      <c r="G335" s="253"/>
+      <c r="G335" s="313"/>
       <c r="H335" s="194">
         <f>Cálculos!G206</f>
         <v>4.7619047619047616E-2</v>
@@ -52591,19 +52591,19 @@
       <c r="U335" s="95"/>
     </row>
     <row r="336" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="254" t="s">
+      <c r="A336" s="306" t="s">
         <v>91</v>
       </c>
-      <c r="B336" s="255"/>
+      <c r="B336" s="307"/>
       <c r="C336" s="194">
         <f>Cálculos!G184</f>
         <v>0.25</v>
       </c>
       <c r="E336" s="95"/>
-      <c r="F336" s="252" t="s">
+      <c r="F336" s="312" t="s">
         <v>142</v>
       </c>
-      <c r="G336" s="253"/>
+      <c r="G336" s="313"/>
       <c r="H336" s="194">
         <f>Cálculos!G207</f>
         <v>4.7619047619047616E-2</v>
@@ -52623,19 +52623,19 @@
       <c r="U336" s="95"/>
     </row>
     <row r="337" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="254" t="s">
+      <c r="A337" s="306" t="s">
         <v>95</v>
       </c>
-      <c r="B337" s="255"/>
+      <c r="B337" s="307"/>
       <c r="C337" s="194">
         <f>Cálculos!G185</f>
         <v>0</v>
       </c>
       <c r="E337" s="95"/>
-      <c r="F337" s="252" t="s">
+      <c r="F337" s="312" t="s">
         <v>143</v>
       </c>
-      <c r="G337" s="253"/>
+      <c r="G337" s="313"/>
       <c r="H337" s="194">
         <f>Cálculos!G208</f>
         <v>4.7619047619047616E-2</v>
@@ -52655,19 +52655,19 @@
       <c r="U337" s="95"/>
     </row>
     <row r="338" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="254" t="s">
+      <c r="A338" s="306" t="s">
         <v>105</v>
       </c>
-      <c r="B338" s="255"/>
+      <c r="B338" s="307"/>
       <c r="C338" s="194">
         <f>Cálculos!G186</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E338" s="95"/>
-      <c r="F338" s="252" t="s">
+      <c r="F338" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="G338" s="253"/>
+      <c r="G338" s="313"/>
       <c r="H338" s="194">
         <f>Cálculos!G209</f>
         <v>8.3333333333333329E-2</v>
@@ -52687,19 +52687,19 @@
       <c r="U338" s="95"/>
     </row>
     <row r="339" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="254" t="s">
+      <c r="A339" s="306" t="s">
         <v>107</v>
       </c>
-      <c r="B339" s="255"/>
+      <c r="B339" s="307"/>
       <c r="C339" s="194">
         <f>Cálculos!G187</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E339" s="95"/>
-      <c r="F339" s="252" t="s">
+      <c r="F339" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="G339" s="253"/>
+      <c r="G339" s="313"/>
       <c r="H339" s="194">
         <f>Cálculos!G210</f>
         <v>8.3333333333333329E-2</v>
@@ -52719,19 +52719,19 @@
       <c r="U339" s="95"/>
     </row>
     <row r="340" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="254" t="s">
+      <c r="A340" s="306" t="s">
         <v>108</v>
       </c>
-      <c r="B340" s="255"/>
+      <c r="B340" s="307"/>
       <c r="C340" s="194">
         <f>Cálculos!G188</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E340" s="95"/>
-      <c r="F340" s="252" t="s">
+      <c r="F340" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="G340" s="253"/>
+      <c r="G340" s="313"/>
       <c r="H340" s="194">
         <f>Cálculos!G211</f>
         <v>8.3333333333333329E-2</v>
@@ -52751,19 +52751,19 @@
       <c r="U340" s="95"/>
     </row>
     <row r="341" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="254" t="s">
+      <c r="A341" s="306" t="s">
         <v>109</v>
       </c>
-      <c r="B341" s="255"/>
+      <c r="B341" s="307"/>
       <c r="C341" s="194">
         <f>Cálculos!G189</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E341" s="95"/>
-      <c r="F341" s="252" t="s">
+      <c r="F341" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="G341" s="253"/>
+      <c r="G341" s="313"/>
       <c r="H341" s="194">
         <f>Cálculos!G212</f>
         <v>8.3333333333333329E-2</v>
@@ -52783,19 +52783,19 @@
       <c r="U341" s="95"/>
     </row>
     <row r="342" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="254" t="s">
+      <c r="A342" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="B342" s="255"/>
+      <c r="B342" s="307"/>
       <c r="C342" s="194">
         <f>Cálculos!G190</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E342" s="95"/>
-      <c r="F342" s="252" t="s">
+      <c r="F342" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="G342" s="253"/>
+      <c r="G342" s="313"/>
       <c r="H342" s="194">
         <f>Cálculos!G213</f>
         <v>4.7619047619047616E-2</v>
@@ -52815,19 +52815,19 @@
       <c r="U342" s="95"/>
     </row>
     <row r="343" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="254" t="s">
+      <c r="A343" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="B343" s="255"/>
+      <c r="B343" s="307"/>
       <c r="C343" s="194">
         <f>Cálculos!G191</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E343" s="95"/>
-      <c r="F343" s="252" t="s">
+      <c r="F343" s="312" t="s">
         <v>140</v>
       </c>
-      <c r="G343" s="253"/>
+      <c r="G343" s="313"/>
       <c r="H343" s="194">
         <f>Cálculos!G214</f>
         <v>4.7619047619047616E-2</v>
@@ -52847,19 +52847,19 @@
       <c r="U343" s="95"/>
     </row>
     <row r="344" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="254" t="s">
+      <c r="A344" s="306" t="s">
         <v>112</v>
       </c>
-      <c r="B344" s="255"/>
+      <c r="B344" s="307"/>
       <c r="C344" s="194">
         <f>Cálculos!G192</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E344" s="95"/>
-      <c r="F344" s="252" t="s">
+      <c r="F344" s="312" t="s">
         <v>144</v>
       </c>
-      <c r="G344" s="253"/>
+      <c r="G344" s="313"/>
       <c r="H344" s="194">
         <f>Cálculos!G215</f>
         <v>4.7619047619047616E-2</v>
@@ -52879,19 +52879,19 @@
       <c r="U344" s="95"/>
     </row>
     <row r="345" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="254" t="s">
+      <c r="A345" s="306" t="s">
         <v>113</v>
       </c>
-      <c r="B345" s="255"/>
+      <c r="B345" s="307"/>
       <c r="C345" s="194">
         <f>Cálculos!G193</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E345" s="95"/>
-      <c r="F345" s="252" t="s">
+      <c r="F345" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="G345" s="253"/>
+      <c r="G345" s="313"/>
       <c r="H345" s="194">
         <f>Cálculos!G216</f>
         <v>4.7619047619047616E-2</v>
@@ -52911,19 +52911,19 @@
       <c r="U345" s="95"/>
     </row>
     <row r="346" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="254" t="s">
+      <c r="A346" s="306" t="s">
         <v>114</v>
       </c>
-      <c r="B346" s="255"/>
+      <c r="B346" s="307"/>
       <c r="C346" s="194">
         <f>Cálculos!G194</f>
         <v>2.777777777777778E-2</v>
       </c>
       <c r="E346" s="95"/>
-      <c r="F346" s="252" t="s">
+      <c r="F346" s="312" t="s">
         <v>514</v>
       </c>
-      <c r="G346" s="253"/>
+      <c r="G346" s="313"/>
       <c r="H346" s="194">
         <f>Cálculos!G217</f>
         <v>4.7619047619047616E-2</v>
@@ -52943,19 +52943,19 @@
       <c r="U346" s="95"/>
     </row>
     <row r="347" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="254" t="s">
+      <c r="A347" s="306" t="s">
         <v>373</v>
       </c>
-      <c r="B347" s="255"/>
+      <c r="B347" s="307"/>
       <c r="C347" s="194">
         <f>Cálculos!G195</f>
         <v>0.05</v>
       </c>
       <c r="E347" s="95"/>
-      <c r="F347" s="252" t="s">
+      <c r="F347" s="312" t="s">
         <v>515</v>
       </c>
-      <c r="G347" s="253"/>
+      <c r="G347" s="313"/>
       <c r="H347" s="194">
         <f>Cálculos!G218</f>
         <v>4.7619047619047616E-2</v>
@@ -52975,19 +52975,19 @@
       <c r="U347" s="95"/>
     </row>
     <row r="348" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="254" t="s">
+      <c r="A348" s="306" t="s">
         <v>374</v>
       </c>
-      <c r="B348" s="255"/>
+      <c r="B348" s="307"/>
       <c r="C348" s="194">
         <f>Cálculos!G196</f>
         <v>0.05</v>
       </c>
       <c r="E348" s="95"/>
-      <c r="F348" s="239" t="s">
+      <c r="F348" s="314" t="s">
         <v>516</v>
       </c>
-      <c r="G348" s="240"/>
+      <c r="G348" s="315"/>
       <c r="H348" s="195">
         <f>Cálculos!G219</f>
         <v>4.7619047619047616E-2</v>
@@ -53007,17 +53007,17 @@
       <c r="U348" s="95"/>
     </row>
     <row r="349" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="254" t="s">
+      <c r="A349" s="306" t="s">
         <v>369</v>
       </c>
-      <c r="B349" s="255"/>
+      <c r="B349" s="307"/>
       <c r="C349" s="194">
         <f>Cálculos!G197</f>
         <v>0.05</v>
       </c>
       <c r="E349" s="95"/>
-      <c r="F349" s="241"/>
-      <c r="G349" s="241"/>
+      <c r="F349" s="316"/>
+      <c r="G349" s="316"/>
       <c r="H349" s="197"/>
       <c r="I349" s="95"/>
       <c r="J349" s="95"/>
@@ -53034,17 +53034,17 @@
       <c r="U349" s="95"/>
     </row>
     <row r="350" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="254" t="s">
+      <c r="A350" s="306" t="s">
         <v>370</v>
       </c>
-      <c r="B350" s="255"/>
+      <c r="B350" s="307"/>
       <c r="C350" s="194">
         <f>Cálculos!G198</f>
         <v>0.05</v>
       </c>
       <c r="E350" s="95"/>
-      <c r="F350" s="242"/>
-      <c r="G350" s="242"/>
+      <c r="F350" s="317"/>
+      <c r="G350" s="317"/>
       <c r="H350" s="196"/>
       <c r="I350" s="95"/>
       <c r="J350" s="95"/>
@@ -53061,17 +53061,17 @@
       <c r="U350" s="95"/>
     </row>
     <row r="351" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="254" t="s">
+      <c r="A351" s="306" t="s">
         <v>371</v>
       </c>
-      <c r="B351" s="255"/>
+      <c r="B351" s="307"/>
       <c r="C351" s="194">
         <f>Cálculos!G199</f>
         <v>0.05</v>
       </c>
       <c r="E351" s="95"/>
-      <c r="F351" s="242"/>
-      <c r="G351" s="242"/>
+      <c r="F351" s="317"/>
+      <c r="G351" s="317"/>
       <c r="H351" s="196"/>
       <c r="I351" s="95"/>
       <c r="J351" s="95"/>
@@ -55007,14 +55007,14 @@
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="95"/>
-      <c r="B435" s="243" t="s">
+      <c r="B435" s="318" t="s">
         <v>724</v>
       </c>
-      <c r="C435" s="244"/>
-      <c r="D435" s="244"/>
-      <c r="E435" s="244"/>
-      <c r="F435" s="244"/>
-      <c r="G435" s="245"/>
+      <c r="C435" s="319"/>
+      <c r="D435" s="319"/>
+      <c r="E435" s="319"/>
+      <c r="F435" s="319"/>
+      <c r="G435" s="320"/>
       <c r="H435" s="95"/>
       <c r="I435" s="95"/>
       <c r="J435" s="95"/>
@@ -55032,12 +55032,12 @@
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="95"/>
-      <c r="B436" s="246"/>
-      <c r="C436" s="247"/>
-      <c r="D436" s="247"/>
-      <c r="E436" s="247"/>
-      <c r="F436" s="247"/>
-      <c r="G436" s="248"/>
+      <c r="B436" s="321"/>
+      <c r="C436" s="322"/>
+      <c r="D436" s="322"/>
+      <c r="E436" s="322"/>
+      <c r="F436" s="322"/>
+      <c r="G436" s="323"/>
       <c r="H436" s="95"/>
       <c r="I436" s="95"/>
       <c r="J436" s="95"/>
@@ -55055,12 +55055,12 @@
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="95"/>
-      <c r="B437" s="246"/>
-      <c r="C437" s="247"/>
-      <c r="D437" s="247"/>
-      <c r="E437" s="247"/>
-      <c r="F437" s="247"/>
-      <c r="G437" s="248"/>
+      <c r="B437" s="321"/>
+      <c r="C437" s="322"/>
+      <c r="D437" s="322"/>
+      <c r="E437" s="322"/>
+      <c r="F437" s="322"/>
+      <c r="G437" s="323"/>
       <c r="H437" s="95"/>
       <c r="I437" s="95"/>
       <c r="J437" s="95"/>
@@ -55078,12 +55078,12 @@
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="95"/>
-      <c r="B438" s="246"/>
-      <c r="C438" s="247"/>
-      <c r="D438" s="247"/>
-      <c r="E438" s="247"/>
-      <c r="F438" s="247"/>
-      <c r="G438" s="248"/>
+      <c r="B438" s="321"/>
+      <c r="C438" s="322"/>
+      <c r="D438" s="322"/>
+      <c r="E438" s="322"/>
+      <c r="F438" s="322"/>
+      <c r="G438" s="323"/>
       <c r="H438" s="95"/>
       <c r="I438" s="95"/>
       <c r="J438" s="95"/>
@@ -55101,12 +55101,12 @@
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="95"/>
-      <c r="B439" s="246"/>
-      <c r="C439" s="247"/>
-      <c r="D439" s="247"/>
-      <c r="E439" s="247"/>
-      <c r="F439" s="247"/>
-      <c r="G439" s="248"/>
+      <c r="B439" s="321"/>
+      <c r="C439" s="322"/>
+      <c r="D439" s="322"/>
+      <c r="E439" s="322"/>
+      <c r="F439" s="322"/>
+      <c r="G439" s="323"/>
       <c r="H439" s="95"/>
       <c r="I439" s="95"/>
       <c r="J439" s="95"/>
@@ -55124,12 +55124,12 @@
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="95"/>
-      <c r="B440" s="246"/>
-      <c r="C440" s="247"/>
-      <c r="D440" s="247"/>
-      <c r="E440" s="247"/>
-      <c r="F440" s="247"/>
-      <c r="G440" s="248"/>
+      <c r="B440" s="321"/>
+      <c r="C440" s="322"/>
+      <c r="D440" s="322"/>
+      <c r="E440" s="322"/>
+      <c r="F440" s="322"/>
+      <c r="G440" s="323"/>
       <c r="H440" s="95"/>
       <c r="I440" s="95"/>
       <c r="J440" s="95"/>
@@ -55147,12 +55147,12 @@
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="95"/>
-      <c r="B441" s="246"/>
-      <c r="C441" s="247"/>
-      <c r="D441" s="247"/>
-      <c r="E441" s="247"/>
-      <c r="F441" s="247"/>
-      <c r="G441" s="248"/>
+      <c r="B441" s="321"/>
+      <c r="C441" s="322"/>
+      <c r="D441" s="322"/>
+      <c r="E441" s="322"/>
+      <c r="F441" s="322"/>
+      <c r="G441" s="323"/>
       <c r="H441" s="95"/>
       <c r="I441" s="95"/>
       <c r="J441" s="95"/>
@@ -55170,12 +55170,12 @@
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="95"/>
-      <c r="B442" s="246"/>
-      <c r="C442" s="247"/>
-      <c r="D442" s="247"/>
-      <c r="E442" s="247"/>
-      <c r="F442" s="247"/>
-      <c r="G442" s="248"/>
+      <c r="B442" s="321"/>
+      <c r="C442" s="322"/>
+      <c r="D442" s="322"/>
+      <c r="E442" s="322"/>
+      <c r="F442" s="322"/>
+      <c r="G442" s="323"/>
       <c r="H442" s="95"/>
       <c r="I442" s="95"/>
       <c r="J442" s="95"/>
@@ -55193,12 +55193,12 @@
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="95"/>
-      <c r="B443" s="246"/>
-      <c r="C443" s="247"/>
-      <c r="D443" s="247"/>
-      <c r="E443" s="247"/>
-      <c r="F443" s="247"/>
-      <c r="G443" s="248"/>
+      <c r="B443" s="321"/>
+      <c r="C443" s="322"/>
+      <c r="D443" s="322"/>
+      <c r="E443" s="322"/>
+      <c r="F443" s="322"/>
+      <c r="G443" s="323"/>
       <c r="H443" s="95"/>
       <c r="I443" s="95"/>
       <c r="J443" s="95"/>
@@ -55216,12 +55216,12 @@
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="95"/>
-      <c r="B444" s="246"/>
-      <c r="C444" s="247"/>
-      <c r="D444" s="247"/>
-      <c r="E444" s="247"/>
-      <c r="F444" s="247"/>
-      <c r="G444" s="248"/>
+      <c r="B444" s="321"/>
+      <c r="C444" s="322"/>
+      <c r="D444" s="322"/>
+      <c r="E444" s="322"/>
+      <c r="F444" s="322"/>
+      <c r="G444" s="323"/>
       <c r="H444" s="95"/>
       <c r="I444" s="95"/>
       <c r="J444" s="95"/>
@@ -55239,12 +55239,12 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="95"/>
-      <c r="B445" s="246"/>
-      <c r="C445" s="247"/>
-      <c r="D445" s="247"/>
-      <c r="E445" s="247"/>
-      <c r="F445" s="247"/>
-      <c r="G445" s="248"/>
+      <c r="B445" s="321"/>
+      <c r="C445" s="322"/>
+      <c r="D445" s="322"/>
+      <c r="E445" s="322"/>
+      <c r="F445" s="322"/>
+      <c r="G445" s="323"/>
       <c r="H445" s="95"/>
       <c r="I445" s="95"/>
       <c r="J445" s="95"/>
@@ -55262,12 +55262,12 @@
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="95"/>
-      <c r="B446" s="246"/>
-      <c r="C446" s="247"/>
-      <c r="D446" s="247"/>
-      <c r="E446" s="247"/>
-      <c r="F446" s="247"/>
-      <c r="G446" s="248"/>
+      <c r="B446" s="321"/>
+      <c r="C446" s="322"/>
+      <c r="D446" s="322"/>
+      <c r="E446" s="322"/>
+      <c r="F446" s="322"/>
+      <c r="G446" s="323"/>
       <c r="H446" s="95"/>
       <c r="I446" s="95"/>
       <c r="J446" s="95"/>
@@ -55285,12 +55285,12 @@
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="95"/>
-      <c r="B447" s="246"/>
-      <c r="C447" s="247"/>
-      <c r="D447" s="247"/>
-      <c r="E447" s="247"/>
-      <c r="F447" s="247"/>
-      <c r="G447" s="248"/>
+      <c r="B447" s="321"/>
+      <c r="C447" s="322"/>
+      <c r="D447" s="322"/>
+      <c r="E447" s="322"/>
+      <c r="F447" s="322"/>
+      <c r="G447" s="323"/>
       <c r="H447" s="95"/>
       <c r="I447" s="95"/>
       <c r="J447" s="95"/>
@@ -55308,12 +55308,12 @@
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="95"/>
-      <c r="B448" s="246"/>
-      <c r="C448" s="247"/>
-      <c r="D448" s="247"/>
-      <c r="E448" s="247"/>
-      <c r="F448" s="247"/>
-      <c r="G448" s="248"/>
+      <c r="B448" s="321"/>
+      <c r="C448" s="322"/>
+      <c r="D448" s="322"/>
+      <c r="E448" s="322"/>
+      <c r="F448" s="322"/>
+      <c r="G448" s="323"/>
       <c r="H448" s="95"/>
       <c r="I448" s="95"/>
       <c r="J448" s="95"/>
@@ -55331,12 +55331,12 @@
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="95"/>
-      <c r="B449" s="249"/>
-      <c r="C449" s="250"/>
-      <c r="D449" s="250"/>
-      <c r="E449" s="250"/>
-      <c r="F449" s="250"/>
-      <c r="G449" s="251"/>
+      <c r="B449" s="324"/>
+      <c r="C449" s="270"/>
+      <c r="D449" s="270"/>
+      <c r="E449" s="270"/>
+      <c r="F449" s="270"/>
+      <c r="G449" s="271"/>
       <c r="H449" s="95"/>
       <c r="I449" s="95"/>
       <c r="J449" s="95"/>
@@ -65037,115 +65037,266 @@
     </row>
   </sheetData>
   <mergeCells count="393">
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B174:H174"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B172:H172"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="F348:G348"/>
+    <mergeCell ref="F349:G349"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="B435:G449"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="F342:G342"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="F346:G346"/>
+    <mergeCell ref="F347:G347"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A340:B340"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="F332:G332"/>
+    <mergeCell ref="F333:G333"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A349:B349"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="F324:G324"/>
+    <mergeCell ref="F325:G325"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="F314:G314"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="C324:E324"/>
+    <mergeCell ref="C325:E325"/>
+    <mergeCell ref="C314:E314"/>
+    <mergeCell ref="C315:E315"/>
+    <mergeCell ref="C316:E316"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="F310:G310"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="C283:E283"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="C293:E293"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C295:E295"/>
+    <mergeCell ref="C321:E321"/>
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C302:E302"/>
+    <mergeCell ref="C303:E303"/>
+    <mergeCell ref="C304:E304"/>
+    <mergeCell ref="C308:E308"/>
+    <mergeCell ref="C309:E309"/>
+    <mergeCell ref="C310:E310"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C312:E312"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="C290:E290"/>
+    <mergeCell ref="C291:E291"/>
+    <mergeCell ref="C292:E292"/>
+    <mergeCell ref="C317:E317"/>
+    <mergeCell ref="C318:E318"/>
+    <mergeCell ref="C319:E319"/>
+    <mergeCell ref="C320:E320"/>
+    <mergeCell ref="H284:H288"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="H291:H299"/>
+    <mergeCell ref="H300:H304"/>
+    <mergeCell ref="H308:H314"/>
+    <mergeCell ref="H315:H318"/>
+    <mergeCell ref="H319:H325"/>
+    <mergeCell ref="A284:B288"/>
+    <mergeCell ref="A289:B290"/>
+    <mergeCell ref="A291:B299"/>
+    <mergeCell ref="A300:B304"/>
+    <mergeCell ref="A308:B314"/>
+    <mergeCell ref="A315:B318"/>
+    <mergeCell ref="A319:B325"/>
+    <mergeCell ref="C296:E296"/>
+    <mergeCell ref="C297:E297"/>
+    <mergeCell ref="C298:E298"/>
+    <mergeCell ref="C299:E299"/>
+    <mergeCell ref="C300:E300"/>
+    <mergeCell ref="C301:E301"/>
+    <mergeCell ref="C284:E284"/>
+    <mergeCell ref="C285:E285"/>
+    <mergeCell ref="C286:E286"/>
+    <mergeCell ref="C287:E287"/>
+    <mergeCell ref="E255:H255"/>
+    <mergeCell ref="E256:H256"/>
+    <mergeCell ref="E257:H257"/>
+    <mergeCell ref="E258:H258"/>
+    <mergeCell ref="E259:H259"/>
+    <mergeCell ref="E260:H260"/>
+    <mergeCell ref="E261:H261"/>
+    <mergeCell ref="E262:H262"/>
+    <mergeCell ref="E263:H263"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E234:H234"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="E236:H236"/>
+    <mergeCell ref="E237:H237"/>
+    <mergeCell ref="E238:H238"/>
+    <mergeCell ref="E239:H239"/>
+    <mergeCell ref="E240:H240"/>
+    <mergeCell ref="E241:H241"/>
+    <mergeCell ref="E242:H242"/>
+    <mergeCell ref="E243:H243"/>
+    <mergeCell ref="E244:H244"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="E246:H246"/>
+    <mergeCell ref="E247:H247"/>
+    <mergeCell ref="E248:H248"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="E250:H250"/>
+    <mergeCell ref="E251:H251"/>
+    <mergeCell ref="E252:H252"/>
+    <mergeCell ref="E253:H253"/>
+    <mergeCell ref="E254:H254"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="A234:B235"/>
+    <mergeCell ref="A236:B237"/>
+    <mergeCell ref="A238:B239"/>
+    <mergeCell ref="A240:B241"/>
+    <mergeCell ref="A242:B243"/>
+    <mergeCell ref="A244:B245"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="A248:B249"/>
+    <mergeCell ref="A250:B251"/>
+    <mergeCell ref="A252:B253"/>
+    <mergeCell ref="A254:B255"/>
+    <mergeCell ref="A256:B257"/>
+    <mergeCell ref="A258:B259"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="A262:B263"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B220:H220"/>
+    <mergeCell ref="B221:H221"/>
+    <mergeCell ref="B214:H214"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B217:H217"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="B219:H219"/>
+    <mergeCell ref="B216:H216"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="B209:H209"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="B213:H213"/>
+    <mergeCell ref="B202:H202"/>
+    <mergeCell ref="B203:H203"/>
+    <mergeCell ref="B205:H205"/>
+    <mergeCell ref="B206:H206"/>
+    <mergeCell ref="B207:H207"/>
+    <mergeCell ref="B204:H204"/>
+    <mergeCell ref="B210:H210"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="B197:H197"/>
+    <mergeCell ref="B199:H199"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B201:H201"/>
     <mergeCell ref="B191:H191"/>
     <mergeCell ref="B193:H193"/>
     <mergeCell ref="B194:H194"/>
@@ -65170,266 +65321,115 @@
     <mergeCell ref="B176:H176"/>
     <mergeCell ref="B177:H177"/>
     <mergeCell ref="B178:H178"/>
-    <mergeCell ref="B202:H202"/>
-    <mergeCell ref="B203:H203"/>
-    <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B206:H206"/>
-    <mergeCell ref="B207:H207"/>
-    <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B210:H210"/>
-    <mergeCell ref="B196:H196"/>
-    <mergeCell ref="B197:H197"/>
-    <mergeCell ref="B199:H199"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B201:H201"/>
-    <mergeCell ref="B221:H221"/>
-    <mergeCell ref="B214:H214"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B217:H217"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B219:H219"/>
-    <mergeCell ref="B216:H216"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="B209:H209"/>
-    <mergeCell ref="B211:H211"/>
-    <mergeCell ref="B212:H212"/>
-    <mergeCell ref="B213:H213"/>
-    <mergeCell ref="A252:B253"/>
-    <mergeCell ref="A254:B255"/>
-    <mergeCell ref="A256:B257"/>
-    <mergeCell ref="A258:B259"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="A262:B263"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B220:H220"/>
-    <mergeCell ref="A234:B235"/>
-    <mergeCell ref="A236:B237"/>
-    <mergeCell ref="A238:B239"/>
-    <mergeCell ref="A240:B241"/>
-    <mergeCell ref="A242:B243"/>
-    <mergeCell ref="A244:B245"/>
-    <mergeCell ref="A246:B247"/>
-    <mergeCell ref="A248:B249"/>
-    <mergeCell ref="A250:B251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="E234:H234"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="E236:H236"/>
-    <mergeCell ref="E237:H237"/>
-    <mergeCell ref="E238:H238"/>
-    <mergeCell ref="E239:H239"/>
-    <mergeCell ref="E240:H240"/>
-    <mergeCell ref="E241:H241"/>
-    <mergeCell ref="E242:H242"/>
-    <mergeCell ref="E243:H243"/>
-    <mergeCell ref="E244:H244"/>
-    <mergeCell ref="E245:H245"/>
-    <mergeCell ref="E246:H246"/>
-    <mergeCell ref="E247:H247"/>
-    <mergeCell ref="E248:H248"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="E250:H250"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="E252:H252"/>
-    <mergeCell ref="E253:H253"/>
-    <mergeCell ref="E254:H254"/>
-    <mergeCell ref="E255:H255"/>
-    <mergeCell ref="E256:H256"/>
-    <mergeCell ref="E257:H257"/>
-    <mergeCell ref="E258:H258"/>
-    <mergeCell ref="E259:H259"/>
-    <mergeCell ref="E260:H260"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="E262:H262"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="H284:H288"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="H291:H299"/>
-    <mergeCell ref="H300:H304"/>
-    <mergeCell ref="H308:H314"/>
-    <mergeCell ref="H315:H318"/>
-    <mergeCell ref="H319:H325"/>
-    <mergeCell ref="A284:B288"/>
-    <mergeCell ref="A289:B290"/>
-    <mergeCell ref="A291:B299"/>
-    <mergeCell ref="A300:B304"/>
-    <mergeCell ref="A308:B314"/>
-    <mergeCell ref="A315:B318"/>
-    <mergeCell ref="A319:B325"/>
-    <mergeCell ref="C296:E296"/>
-    <mergeCell ref="C297:E297"/>
-    <mergeCell ref="C298:E298"/>
-    <mergeCell ref="C299:E299"/>
-    <mergeCell ref="C300:E300"/>
-    <mergeCell ref="C301:E301"/>
-    <mergeCell ref="C284:E284"/>
-    <mergeCell ref="C285:E285"/>
-    <mergeCell ref="C286:E286"/>
-    <mergeCell ref="C287:E287"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="C290:E290"/>
-    <mergeCell ref="C291:E291"/>
-    <mergeCell ref="C292:E292"/>
-    <mergeCell ref="C317:E317"/>
-    <mergeCell ref="C318:E318"/>
-    <mergeCell ref="C319:E319"/>
-    <mergeCell ref="C320:E320"/>
-    <mergeCell ref="C321:E321"/>
-    <mergeCell ref="C322:E322"/>
-    <mergeCell ref="C302:E302"/>
-    <mergeCell ref="C303:E303"/>
-    <mergeCell ref="C304:E304"/>
-    <mergeCell ref="C308:E308"/>
-    <mergeCell ref="C309:E309"/>
-    <mergeCell ref="C310:E310"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C312:E312"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="C283:E283"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="C293:E293"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C295:E295"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="F310:G310"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="F324:G324"/>
-    <mergeCell ref="F325:G325"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="F314:G314"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="F316:G316"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="F319:G319"/>
-    <mergeCell ref="F320:G320"/>
-    <mergeCell ref="C323:E323"/>
-    <mergeCell ref="C324:E324"/>
-    <mergeCell ref="C325:E325"/>
-    <mergeCell ref="C314:E314"/>
-    <mergeCell ref="C315:E315"/>
-    <mergeCell ref="C316:E316"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="F332:G332"/>
-    <mergeCell ref="F333:G333"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="F338:G338"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="F349:G349"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="F351:G351"/>
-    <mergeCell ref="B435:G449"/>
-    <mergeCell ref="F339:G339"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="F343:G343"/>
-    <mergeCell ref="F344:G344"/>
-    <mergeCell ref="F345:G345"/>
-    <mergeCell ref="F346:G346"/>
-    <mergeCell ref="F347:G347"/>
-    <mergeCell ref="A339:B339"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B174:H174"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B157:H157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
